--- a/FinViz_Parser/Finviz_TLSupport/Finviz_TLSupport.xlsx
+++ b/FinViz_Parser/Finviz_TLSupport/Finviz_TLSupport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -63,6 +63,45 @@
     <t>Asset Management</t>
   </si>
   <si>
+    <t>LZB</t>
+  </si>
+  <si>
+    <t>Consumer Goods</t>
+  </si>
+  <si>
+    <t>Home Furnishings &amp; Fixtures</t>
+  </si>
+  <si>
+    <t>STFC</t>
+  </si>
+  <si>
+    <t>Property &amp; Casualty Insurance</t>
+  </si>
+  <si>
+    <t>CDMOP</t>
+  </si>
+  <si>
+    <t>GMED</t>
+  </si>
+  <si>
+    <t>Medical Appliances &amp; Equipment</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Application Software</t>
+  </si>
+  <si>
+    <t>LPSN</t>
+  </si>
+  <si>
+    <t>Business Software &amp; Services</t>
+  </si>
+  <si>
     <t>ARW</t>
   </si>
   <si>
@@ -72,16 +111,64 @@
     <t>Electronics Wholesale</t>
   </si>
   <si>
-    <t>STFC</t>
-  </si>
-  <si>
-    <t>Property &amp; Casualty Insurance</t>
-  </si>
-  <si>
-    <t>GMED</t>
-  </si>
-  <si>
-    <t>Medical Appliances &amp; Equipment</t>
+    <t>CSGP</t>
+  </si>
+  <si>
+    <t>Property Management</t>
+  </si>
+  <si>
+    <t>ISTR</t>
+  </si>
+  <si>
+    <t>Regional - Southwest  Banks</t>
+  </si>
+  <si>
+    <t>DAKT</t>
+  </si>
+  <si>
+    <t>Computer Based Systems</t>
+  </si>
+  <si>
+    <t>TMHC</t>
+  </si>
+  <si>
+    <t>Industrial Goods</t>
+  </si>
+  <si>
+    <t>Residential Construction</t>
+  </si>
+  <si>
+    <t>BDR</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>AFT</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GLIBP</t>
+  </si>
+  <si>
+    <t>Telecom Services - Domestic</t>
+  </si>
+  <si>
+    <t>ICD</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Drilling &amp; Exploration</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>Regional - Southeast Banks</t>
   </si>
   <si>
     <t>PYDS</t>
@@ -90,13 +177,19 @@
     <t>Business Services</t>
   </si>
   <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Business Software &amp; Services</t>
+    <t>EIO</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>% Change Since Inception</t>
+  </si>
+  <si>
+    <t>9/11/2018</t>
+  </si>
+  <si>
+    <t>9/12/2018</t>
   </si>
   <si>
     <t>CCMP</t>
@@ -111,142 +204,148 @@
     <t>Regional - Mid-Atlantic Banks</t>
   </si>
   <si>
-    <t>CSGP</t>
-  </si>
-  <si>
-    <t>Property Management</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>Application Software</t>
-  </si>
-  <si>
     <t>EGIF</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ISTR</t>
-  </si>
-  <si>
-    <t>Regional - Southwest  Banks</t>
-  </si>
-  <si>
-    <t>DAKT</t>
-  </si>
-  <si>
-    <t>Computer Based Systems</t>
-  </si>
-  <si>
-    <t>TMHC</t>
-  </si>
-  <si>
-    <t>Industrial Goods</t>
-  </si>
-  <si>
-    <t>Residential Construction</t>
-  </si>
-  <si>
-    <t>BDR</t>
-  </si>
-  <si>
-    <t>Communication Equipment</t>
-  </si>
-  <si>
-    <t>AFT</t>
-  </si>
-  <si>
-    <t>GLIBP</t>
-  </si>
-  <si>
-    <t>Telecom Services - Domestic</t>
-  </si>
-  <si>
-    <t>BBT</t>
-  </si>
-  <si>
-    <t>Regional - Southeast Banks</t>
-  </si>
-  <si>
     <t>ABTX</t>
   </si>
   <si>
     <t>Regional - Southwest Banks</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>% Change Since Inception</t>
-  </si>
-  <si>
-    <t>9/11/2018</t>
-  </si>
-  <si>
     <t>Stock/Date</t>
   </si>
   <si>
     <t>153.0 (3.38%)</t>
   </si>
   <si>
+    <t>147.95 (-3.3%)</t>
+  </si>
+  <si>
     <t>11.95 (-0.17%)</t>
   </si>
   <si>
+    <t>11.99 (0.33%)</t>
+  </si>
+  <si>
     <t>75.35 (-0.17%)</t>
   </si>
   <si>
+    <t>75.38 (0.04%)</t>
+  </si>
+  <si>
     <t>29.96 (-0.37%)</t>
   </si>
   <si>
+    <t>30.4 (1.47%)</t>
+  </si>
+  <si>
     <t>53.62 (0.85%)</t>
   </si>
   <si>
+    <t>52.49 (-2.11%)</t>
+  </si>
+  <si>
     <t>1.75 (-4.89%)</t>
   </si>
   <si>
+    <t>1.89 (8.0%)</t>
+  </si>
+  <si>
     <t>26.4 (0.0%)</t>
   </si>
   <si>
+    <t>26.3 (-0.38%)</t>
+  </si>
+  <si>
     <t>107.55 (-0.56%)</t>
   </si>
   <si>
+    <t>105.86 (-1.57%)</t>
+  </si>
+  <si>
     <t>30.15 (0.33%)</t>
   </si>
   <si>
+    <t>29.65 (-1.66%)</t>
+  </si>
+  <si>
     <t>443.84 (1.8%)</t>
   </si>
   <si>
+    <t>434.07 (-2.2%)</t>
+  </si>
+  <si>
     <t>267.0 (0.61%)</t>
   </si>
   <si>
+    <t>268.25 (0.47%)</t>
+  </si>
+  <si>
     <t>15.49 (-0.17%)</t>
   </si>
   <si>
+    <t>15.51 (0.13%)</t>
+  </si>
+  <si>
     <t>27.35 (0.37%)</t>
   </si>
   <si>
+    <t>26.85 (-1.83%)</t>
+  </si>
+  <si>
     <t>7.81 (-0.26%)</t>
   </si>
   <si>
+    <t>7.77 (-0.51%)</t>
+  </si>
+  <si>
     <t>19.48 (0.62%)</t>
   </si>
   <si>
+    <t>19.34 (-0.72%)</t>
+  </si>
+  <si>
     <t>1.27 (3.33%)</t>
   </si>
   <si>
+    <t>1.25 (-1.65%)</t>
+  </si>
+  <si>
     <t>16.2 (0.31%)</t>
   </si>
   <si>
+    <t>16.25 (0.3%)</t>
+  </si>
+  <si>
     <t>25.17 (0.32%)</t>
   </si>
   <si>
+    <t>25.2 (0.12%)</t>
+  </si>
+  <si>
     <t>51.87 (0.21%)</t>
   </si>
   <si>
+    <t>50.72 (-2.23%)</t>
+  </si>
+  <si>
     <t>44.95 (2.04%)</t>
+  </si>
+  <si>
+    <t>43.75 (-2.67%)</t>
+  </si>
+  <si>
+    <t>32.9 (-0.3%)</t>
+  </si>
+  <si>
+    <t>26.37 (-0.3%)</t>
+  </si>
+  <si>
+    <t>3.85 (-1.28%)</t>
+  </si>
+  <si>
+    <t>11.61 (-0.26%)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +353,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="89">
+  <fonts count="90">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -693,6 +792,7 @@
     <font>
       <color rgb="00FF0000"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -805,6 +905,7 @@
     <xf borderId="0" fillId="0" fontId="86" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="87" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="88" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="89" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1117,604 +1218,604 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="87" t="n">
-        <v>153</v>
-      </c>
-      <c r="C4" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="88" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E4" s="87" t="n">
+      <c r="B4" s="90" t="n">
+        <v>147.95</v>
+      </c>
+      <c r="C4" s="89" t="n">
+        <v>-5.05</v>
+      </c>
+      <c r="D4" s="89" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="E4" s="90" t="n">
         <v>2.65</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="87" t="n"/>
+      <c r="H4" s="90" t="n"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="87" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C5" s="89" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="D5" s="89" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E5" s="87" t="n">
+      <c r="B5" s="90" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C5" s="88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="88" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="90" t="n">
         <v>0.14</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="87" t="n"/>
+      <c r="H5" s="90" t="n"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="87" t="n">
-        <v>75.34999999999999</v>
+      <c r="B6" s="90" t="n">
+        <v>32.9</v>
       </c>
       <c r="C6" s="89" t="n">
-        <v>-0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="D6" s="89" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E6" s="87" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E6" s="90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="90" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="90" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C7" s="88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D7" s="88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E7" s="90" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="90" t="n"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="90" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="C8" s="89" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D8" s="89" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E8" s="90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="90" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="90" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="C9" s="89" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D9" s="89" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="E9" s="90" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="90" t="n"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="90" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C10" s="88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="88" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E10" s="90" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="90" t="n"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="90" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C11" s="89" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D11" s="89" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E11" s="90" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="90" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="90" t="n">
+        <v>75.38</v>
+      </c>
+      <c r="C12" s="88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="90" t="n">
         <v>0.77</v>
       </c>
-      <c r="F6" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="87" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="87" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="C7" s="89" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D7" s="89" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="E7" s="87" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F7" s="87" t="s">
+      <c r="F12" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="90" t="n"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="90" t="n">
+        <v>434.06</v>
+      </c>
+      <c r="C13" s="89" t="n">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="D13" s="89" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="E13" s="90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="87" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="87" t="n">
-        <v>53.62</v>
-      </c>
-      <c r="C8" s="88" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="88" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E8" s="87" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="87" t="n"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="87" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C9" s="89" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="D9" s="89" t="n">
-        <v>-4.89</v>
-      </c>
-      <c r="E9" s="87" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="87" t="n"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="87" t="s">
+      <c r="G13" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="90" t="n"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="90" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C14" s="89" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D14" s="89" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E14" s="90" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="90" t="n"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="90" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C15" s="89" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D15" s="89" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E15" s="90" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F15" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="87" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C10" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="87" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="87" t="n"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="87" t="n">
-        <v>107.55</v>
-      </c>
-      <c r="C11" s="89" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="D11" s="89" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="E11" s="87" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="87" t="n"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="87" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="C12" s="88" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="88" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E12" s="87" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="87" t="n"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="87" t="n">
-        <v>443.84</v>
-      </c>
-      <c r="C13" s="88" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D13" s="88" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E13" s="87" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="87" t="n"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="87" t="n">
-        <v>267</v>
-      </c>
-      <c r="C14" s="88" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D14" s="88" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E14" s="87" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="87" t="n"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="87" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="C15" s="89" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="D15" s="89" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E15" s="87" t="s">
+      <c r="G15" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="87" t="n"/>
+      <c r="H15" s="90" t="n"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="87" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="C16" s="88" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="88" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E16" s="87" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="87" t="s">
+      <c r="B16" s="90" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="C16" s="89" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D16" s="89" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="E16" s="90" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F16" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="87" t="n"/>
+      <c r="G16" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="90" t="n"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="87" t="n">
-        <v>7.81</v>
+      <c r="A17" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="90" t="n">
+        <v>1.25</v>
       </c>
       <c r="C17" s="89" t="n">
         <v>-0.02</v>
       </c>
       <c r="D17" s="89" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E17" s="90" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F17" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="90" t="n"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="90" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C18" s="88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="n"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="90" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C19" s="88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="88" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="90" t="n"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="90" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C20" s="89" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D20" s="89" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E20" s="90" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="90" t="n"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="90" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="C21" s="89" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D21" s="89" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="E21" s="90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="90" t="n"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="90" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C22" s="88" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D22" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="90" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="90" t="n"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="90" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C23" s="89" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D23" s="89" t="n">
         <v>-0.26</v>
       </c>
-      <c r="E17" s="87" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F17" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="87" t="n"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="87" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="C18" s="88" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D18" s="88" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="87" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="87" t="n"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="87" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C19" s="88" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D19" s="88" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="E19" s="87" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="87" t="n"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="87" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C20" s="88" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="88" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="87" t="s">
+      <c r="E23" s="90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F23" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G23" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="87" t="n"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="87" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="C21" s="88" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D21" s="88" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="87" t="n"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="87" t="n">
-        <v>51.87</v>
-      </c>
-      <c r="C22" s="88" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D22" s="88" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E22" s="87" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="87" t="n"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="87" t="n">
-        <v>44.95</v>
-      </c>
-      <c r="C23" s="88" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D23" s="88" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E23" s="87" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="87" t="n"/>
+      <c r="H23" s="90" t="n"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="87" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="87" t="n"/>
-      <c r="D24" s="87" t="n"/>
-      <c r="E24" s="87" t="n"/>
-      <c r="F24" s="87" t="n"/>
-      <c r="G24" s="87" t="n"/>
-      <c r="H24" s="87" t="n"/>
+      <c r="A24" s="90" t="n"/>
+      <c r="B24" s="90" t="n"/>
+      <c r="C24" s="90" t="n"/>
+      <c r="D24" s="90" t="n"/>
+      <c r="E24" s="90" t="n"/>
+      <c r="F24" s="90" t="n"/>
+      <c r="G24" s="90" t="n"/>
+      <c r="H24" s="90" t="n"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="87" t="n"/>
-      <c r="B25" s="87" t="n"/>
-      <c r="C25" s="87" t="n"/>
-      <c r="D25" s="87" t="n"/>
-      <c r="E25" s="87" t="n"/>
-      <c r="F25" s="87" t="n"/>
-      <c r="G25" s="87" t="n"/>
-      <c r="H25" s="87" t="n"/>
+      <c r="A25" s="90" t="n"/>
+      <c r="B25" s="90" t="n"/>
+      <c r="C25" s="90" t="n"/>
+      <c r="D25" s="90" t="n"/>
+      <c r="E25" s="90" t="n"/>
+      <c r="F25" s="90" t="n"/>
+      <c r="G25" s="90" t="n"/>
+      <c r="H25" s="90" t="n"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="87" t="n"/>
-      <c r="B26" s="87" t="n"/>
-      <c r="C26" s="87" t="n"/>
-      <c r="D26" s="87" t="n"/>
-      <c r="E26" s="87" t="n"/>
-      <c r="F26" s="87" t="n"/>
-      <c r="G26" s="87" t="n"/>
-      <c r="H26" s="87" t="n"/>
+      <c r="A26" s="90" t="n"/>
+      <c r="B26" s="90" t="n"/>
+      <c r="C26" s="90" t="n"/>
+      <c r="D26" s="90" t="n"/>
+      <c r="E26" s="90" t="n"/>
+      <c r="F26" s="90" t="n"/>
+      <c r="G26" s="90" t="n"/>
+      <c r="H26" s="90" t="n"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="87" t="n"/>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="87" t="n"/>
-      <c r="D27" s="87" t="n"/>
-      <c r="E27" s="87" t="n"/>
-      <c r="F27" s="87" t="n"/>
-      <c r="G27" s="87" t="n"/>
-      <c r="H27" s="87" t="n"/>
+      <c r="A27" s="90" t="n"/>
+      <c r="B27" s="90" t="n"/>
+      <c r="C27" s="90" t="n"/>
+      <c r="D27" s="90" t="n"/>
+      <c r="E27" s="90" t="n"/>
+      <c r="F27" s="90" t="n"/>
+      <c r="G27" s="90" t="n"/>
+      <c r="H27" s="90" t="n"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="87" t="n"/>
-      <c r="B28" s="87" t="n"/>
-      <c r="C28" s="87" t="n"/>
-      <c r="D28" s="87" t="n"/>
-      <c r="E28" s="87" t="n"/>
-      <c r="F28" s="87" t="n"/>
-      <c r="G28" s="87" t="n"/>
-      <c r="H28" s="87" t="n"/>
+      <c r="A28" s="90" t="n"/>
+      <c r="B28" s="90" t="n"/>
+      <c r="C28" s="90" t="n"/>
+      <c r="D28" s="90" t="n"/>
+      <c r="E28" s="90" t="n"/>
+      <c r="F28" s="90" t="n"/>
+      <c r="G28" s="90" t="n"/>
+      <c r="H28" s="90" t="n"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="87" t="n"/>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="87" t="n"/>
-      <c r="D29" s="87" t="n"/>
-      <c r="E29" s="87" t="n"/>
-      <c r="F29" s="87" t="n"/>
-      <c r="G29" s="87" t="n"/>
-      <c r="H29" s="87" t="n"/>
+      <c r="A29" s="90" t="n"/>
+      <c r="B29" s="90" t="n"/>
+      <c r="C29" s="90" t="n"/>
+      <c r="D29" s="90" t="n"/>
+      <c r="E29" s="90" t="n"/>
+      <c r="F29" s="90" t="n"/>
+      <c r="G29" s="90" t="n"/>
+      <c r="H29" s="90" t="n"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="87" t="n"/>
-      <c r="B30" s="87" t="n"/>
-      <c r="C30" s="87" t="n"/>
-      <c r="D30" s="87" t="n"/>
-      <c r="E30" s="87" t="n"/>
-      <c r="F30" s="87" t="n"/>
-      <c r="G30" s="87" t="n"/>
-      <c r="H30" s="87" t="n"/>
+      <c r="A30" s="90" t="n"/>
+      <c r="B30" s="90" t="n"/>
+      <c r="C30" s="90" t="n"/>
+      <c r="D30" s="90" t="n"/>
+      <c r="E30" s="90" t="n"/>
+      <c r="F30" s="90" t="n"/>
+      <c r="G30" s="90" t="n"/>
+      <c r="H30" s="90" t="n"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="87" t="n"/>
-      <c r="B31" s="87" t="n"/>
-      <c r="C31" s="87" t="n"/>
-      <c r="D31" s="87" t="n"/>
-      <c r="E31" s="87" t="n"/>
-      <c r="F31" s="87" t="n"/>
-      <c r="G31" s="87" t="n"/>
-      <c r="H31" s="87" t="n"/>
+      <c r="A31" s="90" t="n"/>
+      <c r="B31" s="90" t="n"/>
+      <c r="C31" s="90" t="n"/>
+      <c r="D31" s="90" t="n"/>
+      <c r="E31" s="90" t="n"/>
+      <c r="F31" s="90" t="n"/>
+      <c r="G31" s="90" t="n"/>
+      <c r="H31" s="90" t="n"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="87" t="n"/>
-      <c r="B32" s="87" t="n"/>
-      <c r="C32" s="87" t="n"/>
-      <c r="D32" s="87" t="n"/>
-      <c r="E32" s="87" t="n"/>
-      <c r="F32" s="87" t="n"/>
-      <c r="G32" s="87" t="n"/>
-      <c r="H32" s="87" t="n"/>
+      <c r="A32" s="90" t="n"/>
+      <c r="B32" s="90" t="n"/>
+      <c r="C32" s="90" t="n"/>
+      <c r="D32" s="90" t="n"/>
+      <c r="E32" s="90" t="n"/>
+      <c r="F32" s="90" t="n"/>
+      <c r="G32" s="90" t="n"/>
+      <c r="H32" s="90" t="n"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="87" t="n"/>
-      <c r="B33" s="87" t="n"/>
-      <c r="C33" s="87" t="n"/>
-      <c r="D33" s="87" t="n"/>
-      <c r="E33" s="87" t="n"/>
-      <c r="F33" s="87" t="n"/>
-      <c r="G33" s="87" t="n"/>
-      <c r="H33" s="87" t="n"/>
+      <c r="A33" s="90" t="n"/>
+      <c r="B33" s="90" t="n"/>
+      <c r="C33" s="90" t="n"/>
+      <c r="D33" s="90" t="n"/>
+      <c r="E33" s="90" t="n"/>
+      <c r="F33" s="90" t="n"/>
+      <c r="G33" s="90" t="n"/>
+      <c r="H33" s="90" t="n"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="87" t="n"/>
-      <c r="B34" s="87" t="n"/>
-      <c r="C34" s="87" t="n"/>
-      <c r="D34" s="87" t="n"/>
-      <c r="E34" s="87" t="n"/>
-      <c r="F34" s="87" t="n"/>
-      <c r="G34" s="87" t="n"/>
-      <c r="H34" s="87" t="n"/>
+      <c r="A34" s="90" t="n"/>
+      <c r="B34" s="90" t="n"/>
+      <c r="C34" s="90" t="n"/>
+      <c r="D34" s="90" t="n"/>
+      <c r="E34" s="90" t="n"/>
+      <c r="F34" s="90" t="n"/>
+      <c r="G34" s="90" t="n"/>
+      <c r="H34" s="90" t="n"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="87" t="n"/>
-      <c r="B35" s="87" t="n"/>
-      <c r="C35" s="87" t="n"/>
-      <c r="D35" s="87" t="n"/>
-      <c r="E35" s="87" t="n"/>
-      <c r="F35" s="87" t="n"/>
-      <c r="G35" s="87" t="n"/>
-      <c r="H35" s="87" t="n"/>
+      <c r="A35" s="90" t="n"/>
+      <c r="B35" s="90" t="n"/>
+      <c r="C35" s="90" t="n"/>
+      <c r="D35" s="90" t="n"/>
+      <c r="E35" s="90" t="n"/>
+      <c r="F35" s="90" t="n"/>
+      <c r="G35" s="90" t="n"/>
+      <c r="H35" s="90" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1728,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J788"/>
+  <dimension ref="A1:J804"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K25" sqref="A1:K25"/>
@@ -1762,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1791,37 +1892,37 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="89" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="J2" s="79" t="n"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>11.95</v>
+        <v>147.95</v>
       </c>
       <c r="C3" s="89" t="n">
-        <v>-0.02</v>
+        <v>-5.05</v>
       </c>
       <c r="D3" s="89" t="n">
-        <v>-0.17</v>
+        <v>-3.3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14</v>
+        <v>2.65</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3" s="89" t="n">
         <v>0</v>
@@ -1829,116 +1930,115 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>75.34999999999999</v>
+        <v>11.95</v>
       </c>
       <c r="C4" s="89" t="n">
-        <v>-0.13</v>
+        <v>-0.02</v>
       </c>
       <c r="D4" s="89" t="n">
         <v>-0.17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="89" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="I4" s="88" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="C5" s="89" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D5" s="89" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="E5" s="80" t="n">
-        <v>0.55</v>
+        <v>11.99</v>
+      </c>
+      <c r="C5" s="88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="88" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.14</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>18</v>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="79" t="n"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>53.62</v>
-      </c>
-      <c r="C6" s="88" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="88" t="n">
-        <v>0.85</v>
+        <v>75.34999999999999</v>
+      </c>
+      <c r="C6" s="89" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="D6" s="89" t="n">
+        <v>-0.17</v>
       </c>
       <c r="E6" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="89" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="I6" s="88" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C7" s="89" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="D7" s="89" t="n">
-        <v>-4.89</v>
+        <v>75.38</v>
+      </c>
+      <c r="C7" s="88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="88" t="n">
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.17</v>
+        <v>0.77</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" s="89" t="n">
         <v>0</v>
@@ -1946,58 +2046,58 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C8" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="88" t="n">
-        <v>0</v>
+        <v>29.96</v>
+      </c>
+      <c r="C8" s="89" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D8" s="89" t="n">
+        <v>-0.37</v>
       </c>
       <c r="E8" s="80" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="78" t="n"/>
+        <v>55</v>
+      </c>
+      <c r="I8" s="88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J8" s="79" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>107.55</v>
-      </c>
-      <c r="C9" s="89" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="D9" s="89" t="n">
-        <v>-0.5600000000000001</v>
+        <v>30.4</v>
+      </c>
+      <c r="C9" s="88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D9" s="88" t="n">
+        <v>1.47</v>
       </c>
       <c r="E9" t="n">
-        <v>1.31</v>
+        <v>0.55</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I9" s="89" t="n">
         <v>0</v>
@@ -2005,116 +2105,115 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>30.15</v>
+        <v>53.62</v>
       </c>
       <c r="C10" s="88" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D10" s="88" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="89" t="n">
-        <v>0</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>443.84</v>
-      </c>
-      <c r="C11" s="88" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D11" s="88" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="80" t="n">
-        <v>1.39</v>
+        <v>52.49</v>
+      </c>
+      <c r="C11" s="89" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D11" s="89" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.87</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="79" t="n"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>267</v>
-      </c>
-      <c r="C12" s="88" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D12" s="88" t="n">
-        <v>0.61</v>
+        <v>1.75</v>
+      </c>
+      <c r="C12" s="89" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="D12" s="89" t="n">
+        <v>-4.89</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>-0.17</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="82" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="89" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="I12" s="88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="C13" s="89" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="D13" s="89" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C13" s="88" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D13" s="88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.17</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" s="89" t="n">
         <v>0</v>
@@ -2122,58 +2221,58 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>27.35</v>
+        <v>26.4</v>
       </c>
       <c r="C14" s="88" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="88" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E14" s="80" t="n">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="79" t="n"/>
+        <v>-0.38</v>
+      </c>
+      <c r="J14" s="78" t="n"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>7.81</v>
+        <v>26.3</v>
       </c>
       <c r="C15" s="89" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="D15" s="89" t="n">
-        <v>-0.26</v>
+        <v>-0.38</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I15" s="89" t="n">
         <v>0</v>
@@ -2181,116 +2280,116 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="C16" s="88" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D16" s="88" t="n">
-        <v>0.62</v>
+        <v>107.55</v>
+      </c>
+      <c r="C16" s="89" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="D16" s="89" t="n">
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" s="89" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B17" t="n">
-        <v>1.27</v>
+        <v>30.15</v>
       </c>
       <c r="C17" s="88" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="88" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="E17" s="80" t="n">
-        <v>-0.32</v>
+        <v>0.33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.51</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="79" t="n"/>
+        <v>-1.66</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>16.2</v>
+        <v>443.84</v>
       </c>
       <c r="C18" s="88" t="n">
-        <v>0.05</v>
+        <v>7.86</v>
       </c>
       <c r="D18" s="88" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
+        <v>1.8</v>
+      </c>
+      <c r="E18" s="80" t="n">
+        <v>1.39</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="82" t="s">
-        <v>13</v>
+      <c r="G18" s="83" t="s">
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="89" t="n">
-        <v>0</v>
-      </c>
+        <v>-2.2</v>
+      </c>
+      <c r="J18" s="79" t="n"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="C19" s="88" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D19" s="88" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
+        <v>434.06</v>
+      </c>
+      <c r="C19" s="89" t="n">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="D19" s="89" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.39</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" s="89" t="n">
         <v>0</v>
@@ -2298,464 +2397,927 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>51.87</v>
+        <v>267</v>
       </c>
       <c r="C20" s="88" t="n">
-        <v>0.11</v>
+        <v>1.63</v>
       </c>
       <c r="D20" s="88" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E20" s="80" t="n">
-        <v>1.11</v>
+        <v>0.61</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.75</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="83" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="79" t="n"/>
+        <v>55</v>
+      </c>
+      <c r="I20" s="88" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C21" s="88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="88" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="89" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C22" s="89" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D22" s="89" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="88" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="C23" s="88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="88" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="80" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="89" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="J23" s="79" t="n"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C24" s="89" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D24" s="89" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="C25" s="89" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D25" s="89" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="89" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C26" s="89" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D26" s="89" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="C27" s="88" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D27" s="88" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="89" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="C28" s="89" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D28" s="89" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C29" s="88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D29" s="88" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E29" s="80" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="89" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="J29" s="79" t="n"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C30" s="89" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D30" s="89" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C31" s="88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" s="88" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="88" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C32" s="88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="C33" s="88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D33" s="88" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="88" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C34" s="88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D34" s="88" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="C35" s="88" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D35" s="88" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E35" s="80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="89" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="J35" s="79" t="n"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="C36" s="89" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D36" s="89" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="89" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="n">
         <v>44.95</v>
       </c>
-      <c r="C21" s="88" t="n">
+      <c r="C37" s="88" t="n">
         <v>0.9</v>
       </c>
-      <c r="D21" s="88" t="n">
+      <c r="D37" s="88" t="n">
         <v>2.04</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E37" t="n">
         <v>1.8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F37" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="89" t="n">
+      <c r="G37" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="89" t="n">
+        <v>-2.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C38" s="89" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D38" s="89" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="89" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="C22" s="82" t="n"/>
-      <c r="D22" s="82" t="n"/>
-      <c r="I22" s="83" t="n"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="C23" s="82" t="n"/>
-      <c r="D23" s="82" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="G23" s="83" t="n"/>
-      <c r="I23" s="83" t="n"/>
-      <c r="J23" s="79" t="n"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="C24" s="82" t="n"/>
-      <c r="D24" s="82" t="n"/>
-      <c r="G24" s="82" t="n"/>
-      <c r="I24" s="82" t="n"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="C25" s="82" t="n"/>
-      <c r="D25" s="82" t="n"/>
-      <c r="I25" s="82" t="n"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="C26" s="82" t="n"/>
-      <c r="D26" s="82" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="G26" s="82" t="n"/>
-      <c r="I26" s="83" t="n"/>
-      <c r="J26" s="79" t="n"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="82" t="n"/>
-      <c r="D27" s="82" t="n"/>
-      <c r="G27" s="82" t="n"/>
-      <c r="I27" s="83" t="n"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="C28" s="82" t="n"/>
-      <c r="D28" s="82" t="n"/>
-      <c r="I28" s="82" t="n"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="C29" s="82" t="n"/>
-      <c r="D29" s="82" t="n"/>
-      <c r="E29" s="80" t="n"/>
-      <c r="G29" s="82" t="n"/>
-      <c r="I29" s="82" t="n"/>
-      <c r="J29" s="79" t="n"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="C30" s="82" t="n"/>
-      <c r="D30" s="82" t="n"/>
-      <c r="G30" s="82" t="n"/>
-      <c r="I30" s="82" t="n"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" s="82" t="n"/>
-      <c r="D31" s="82" t="n"/>
-      <c r="I31" s="82" t="n"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" s="82" t="n"/>
-      <c r="D32" s="82" t="n"/>
-      <c r="E32" s="80" t="n"/>
-      <c r="G32" s="82" t="n"/>
-      <c r="I32" s="82" t="n"/>
-      <c r="J32" s="79" t="n"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="C33" s="82" t="n"/>
-      <c r="D33" s="82" t="n"/>
-      <c r="G33" s="82" t="n"/>
-      <c r="I33" s="82" t="n"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="C34" s="82" t="n"/>
-      <c r="D34" s="82" t="n"/>
-      <c r="I34" s="82" t="n"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="C35" s="82" t="n"/>
-      <c r="D35" s="82" t="n"/>
-      <c r="E35" s="80" t="n"/>
-      <c r="G35" s="83" t="n"/>
-      <c r="I35" s="83" t="n"/>
-      <c r="J35" s="79" t="n"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="C36" s="82" t="n"/>
-      <c r="D36" s="82" t="n"/>
-      <c r="G36" s="82" t="n"/>
-      <c r="I36" s="83" t="n"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="C37" s="82" t="n"/>
-      <c r="D37" s="82" t="n"/>
-      <c r="I37" s="83" t="n"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="C38" s="82" t="n"/>
-      <c r="D38" s="82" t="n"/>
-      <c r="E38" s="80" t="n"/>
-      <c r="G38" s="83" t="n"/>
-      <c r="I38" s="83" t="n"/>
-      <c r="J38" s="79" t="n"/>
-    </row>
     <row r="39" spans="1:10">
-      <c r="C39" s="82" t="n"/>
-      <c r="D39" s="82" t="n"/>
-      <c r="G39" s="82" t="n"/>
-      <c r="I39" s="82" t="n"/>
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="C39" s="89" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D39" s="89" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E39" s="80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="79" t="n"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="C40" s="82" t="n"/>
-      <c r="D40" s="82" t="n"/>
-      <c r="I40" s="82" t="n"/>
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C40" s="89" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D40" s="89" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="C41" s="82" t="n"/>
-      <c r="D41" s="82" t="n"/>
-      <c r="E41" s="80" t="n"/>
-      <c r="G41" s="82" t="n"/>
-      <c r="I41" s="82" t="n"/>
-      <c r="J41" s="79" t="n"/>
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C41" s="89" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D41" s="89" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" s="82" t="n"/>
       <c r="D42" s="82" t="n"/>
+      <c r="E42" s="80" t="n"/>
       <c r="G42" s="82" t="n"/>
-      <c r="I42" s="82" t="n"/>
+      <c r="I42" s="83" t="n"/>
+      <c r="J42" s="79" t="n"/>
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="82" t="n"/>
       <c r="D43" s="82" t="n"/>
-      <c r="I43" s="82" t="n"/>
+      <c r="G43" s="82" t="n"/>
+      <c r="I43" s="83" t="n"/>
     </row>
     <row r="44" spans="1:10">
       <c r="C44" s="82" t="n"/>
       <c r="D44" s="82" t="n"/>
-      <c r="E44" s="80" t="n"/>
-      <c r="G44" s="82" t="n"/>
       <c r="I44" s="82" t="n"/>
-      <c r="J44" s="79" t="n"/>
     </row>
     <row r="45" spans="1:10">
       <c r="C45" s="82" t="n"/>
       <c r="D45" s="82" t="n"/>
+      <c r="E45" s="80" t="n"/>
       <c r="G45" s="82" t="n"/>
       <c r="I45" s="82" t="n"/>
+      <c r="J45" s="79" t="n"/>
     </row>
     <row r="46" spans="1:10">
       <c r="C46" s="82" t="n"/>
       <c r="D46" s="82" t="n"/>
+      <c r="G46" s="82" t="n"/>
       <c r="I46" s="82" t="n"/>
     </row>
     <row r="47" spans="1:10">
       <c r="C47" s="82" t="n"/>
       <c r="D47" s="82" t="n"/>
-      <c r="E47" s="80" t="n"/>
-      <c r="G47" s="83" t="n"/>
       <c r="I47" s="82" t="n"/>
-      <c r="J47" s="79" t="n"/>
     </row>
     <row r="48" spans="1:10">
       <c r="C48" s="82" t="n"/>
       <c r="D48" s="82" t="n"/>
+      <c r="E48" s="80" t="n"/>
       <c r="G48" s="82" t="n"/>
       <c r="I48" s="82" t="n"/>
+      <c r="J48" s="79" t="n"/>
     </row>
     <row r="49" spans="1:10">
       <c r="C49" s="82" t="n"/>
       <c r="D49" s="82" t="n"/>
+      <c r="G49" s="82" t="n"/>
       <c r="I49" s="82" t="n"/>
     </row>
     <row r="50" spans="1:10">
       <c r="C50" s="82" t="n"/>
       <c r="D50" s="82" t="n"/>
-      <c r="E50" s="80" t="n"/>
-      <c r="G50" s="82" t="n"/>
       <c r="I50" s="82" t="n"/>
-      <c r="J50" s="79" t="n"/>
     </row>
     <row r="51" spans="1:10">
       <c r="C51" s="82" t="n"/>
       <c r="D51" s="82" t="n"/>
-      <c r="G51" s="82" t="n"/>
-      <c r="I51" s="82" t="n"/>
+      <c r="E51" s="80" t="n"/>
+      <c r="G51" s="83" t="n"/>
+      <c r="I51" s="83" t="n"/>
+      <c r="J51" s="79" t="n"/>
     </row>
     <row r="52" spans="1:10">
       <c r="C52" s="82" t="n"/>
       <c r="D52" s="82" t="n"/>
-      <c r="I52" s="82" t="n"/>
+      <c r="G52" s="82" t="n"/>
+      <c r="I52" s="83" t="n"/>
     </row>
     <row r="53" spans="1:10">
       <c r="C53" s="82" t="n"/>
       <c r="D53" s="82" t="n"/>
-      <c r="E53" s="81" t="n"/>
-      <c r="G53" s="83" t="n"/>
-      <c r="I53" s="82" t="n"/>
-      <c r="J53" s="79" t="n"/>
+      <c r="I53" s="83" t="n"/>
     </row>
     <row r="54" spans="1:10">
       <c r="C54" s="82" t="n"/>
       <c r="D54" s="82" t="n"/>
+      <c r="E54" s="80" t="n"/>
       <c r="G54" s="83" t="n"/>
-      <c r="I54" s="82" t="n"/>
+      <c r="I54" s="83" t="n"/>
+      <c r="J54" s="79" t="n"/>
     </row>
     <row r="55" spans="1:10">
       <c r="C55" s="82" t="n"/>
       <c r="D55" s="82" t="n"/>
+      <c r="G55" s="82" t="n"/>
       <c r="I55" s="82" t="n"/>
     </row>
     <row r="56" spans="1:10">
       <c r="C56" s="82" t="n"/>
       <c r="D56" s="82" t="n"/>
-      <c r="E56" s="80" t="n"/>
-      <c r="G56" s="82" t="n"/>
       <c r="I56" s="82" t="n"/>
-      <c r="J56" s="79" t="n"/>
     </row>
     <row r="57" spans="1:10">
       <c r="C57" s="82" t="n"/>
       <c r="D57" s="82" t="n"/>
+      <c r="E57" s="80" t="n"/>
       <c r="G57" s="82" t="n"/>
-      <c r="I57" s="83" t="n"/>
+      <c r="I57" s="82" t="n"/>
+      <c r="J57" s="79" t="n"/>
     </row>
     <row r="58" spans="1:10">
       <c r="C58" s="82" t="n"/>
       <c r="D58" s="82" t="n"/>
+      <c r="G58" s="82" t="n"/>
       <c r="I58" s="82" t="n"/>
     </row>
     <row r="59" spans="1:10">
       <c r="C59" s="82" t="n"/>
       <c r="D59" s="82" t="n"/>
-      <c r="E59" s="80" t="n"/>
-      <c r="G59" s="83" t="n"/>
       <c r="I59" s="82" t="n"/>
-      <c r="J59" s="79" t="n"/>
     </row>
     <row r="60" spans="1:10">
       <c r="C60" s="82" t="n"/>
       <c r="D60" s="82" t="n"/>
+      <c r="E60" s="80" t="n"/>
       <c r="G60" s="82" t="n"/>
       <c r="I60" s="82" t="n"/>
+      <c r="J60" s="79" t="n"/>
     </row>
     <row r="61" spans="1:10">
       <c r="C61" s="82" t="n"/>
       <c r="D61" s="82" t="n"/>
-      <c r="I61" s="83" t="n"/>
+      <c r="G61" s="82" t="n"/>
+      <c r="I61" s="82" t="n"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="C62" s="79" t="n"/>
-      <c r="D62" s="79" t="n"/>
-      <c r="G62" s="78" t="n"/>
-      <c r="J62" s="79" t="n"/>
+      <c r="C62" s="82" t="n"/>
+      <c r="D62" s="82" t="n"/>
+      <c r="I62" s="82" t="n"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="C63" s="78" t="n"/>
-      <c r="D63" s="78" t="n"/>
-      <c r="G63" s="78" t="n"/>
+      <c r="C63" s="82" t="n"/>
+      <c r="D63" s="82" t="n"/>
+      <c r="E63" s="80" t="n"/>
+      <c r="G63" s="83" t="n"/>
+      <c r="I63" s="82" t="n"/>
       <c r="J63" s="79" t="n"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="C64" s="79" t="n"/>
-      <c r="D64" s="79" t="n"/>
-      <c r="G64" s="79" t="n"/>
-      <c r="J64" s="79" t="n"/>
+      <c r="C64" s="82" t="n"/>
+      <c r="D64" s="82" t="n"/>
+      <c r="G64" s="82" t="n"/>
+      <c r="I64" s="82" t="n"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="C65" s="78" t="n"/>
-      <c r="D65" s="78" t="n"/>
-      <c r="G65" s="78" t="n"/>
-      <c r="J65" s="79" t="n"/>
+      <c r="C65" s="82" t="n"/>
+      <c r="D65" s="82" t="n"/>
+      <c r="I65" s="82" t="n"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="C66" s="78" t="n"/>
-      <c r="D66" s="78" t="n"/>
-      <c r="G66" s="78" t="n"/>
+      <c r="C66" s="82" t="n"/>
+      <c r="D66" s="82" t="n"/>
+      <c r="E66" s="80" t="n"/>
+      <c r="G66" s="82" t="n"/>
+      <c r="I66" s="82" t="n"/>
       <c r="J66" s="79" t="n"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="C67" s="79" t="n"/>
-      <c r="D67" s="79" t="n"/>
-      <c r="G67" s="78" t="n"/>
-      <c r="J67" s="79" t="n"/>
+      <c r="C67" s="82" t="n"/>
+      <c r="D67" s="82" t="n"/>
+      <c r="G67" s="82" t="n"/>
+      <c r="I67" s="82" t="n"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="C68" s="76" t="n"/>
-      <c r="D68" s="76" t="n"/>
-      <c r="G68" s="77" t="n"/>
-      <c r="J68" s="77" t="n"/>
+      <c r="C68" s="82" t="n"/>
+      <c r="D68" s="82" t="n"/>
+      <c r="I68" s="82" t="n"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="C69" s="77" t="n"/>
-      <c r="D69" s="77" t="n"/>
-      <c r="G69" s="76" t="n"/>
-      <c r="J69" s="76" t="n"/>
+      <c r="C69" s="82" t="n"/>
+      <c r="D69" s="82" t="n"/>
+      <c r="E69" s="81" t="n"/>
+      <c r="G69" s="83" t="n"/>
+      <c r="I69" s="82" t="n"/>
+      <c r="J69" s="79" t="n"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="C70" s="76" t="n"/>
-      <c r="D70" s="76" t="n"/>
-      <c r="G70" s="77" t="n"/>
-      <c r="J70" s="76" t="n"/>
+      <c r="C70" s="82" t="n"/>
+      <c r="D70" s="82" t="n"/>
+      <c r="G70" s="83" t="n"/>
+      <c r="I70" s="82" t="n"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="C71" s="77" t="n"/>
-      <c r="D71" s="77" t="n"/>
-      <c r="G71" s="77" t="n"/>
-      <c r="J71" s="76" t="n"/>
+      <c r="C71" s="82" t="n"/>
+      <c r="D71" s="82" t="n"/>
+      <c r="I71" s="82" t="n"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="C72" s="77" t="n"/>
-      <c r="D72" s="77" t="n"/>
-      <c r="G72" s="77" t="n"/>
-      <c r="J72" s="76" t="n"/>
+      <c r="C72" s="82" t="n"/>
+      <c r="D72" s="82" t="n"/>
+      <c r="E72" s="80" t="n"/>
+      <c r="G72" s="82" t="n"/>
+      <c r="I72" s="82" t="n"/>
+      <c r="J72" s="79" t="n"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="C73" s="76" t="n"/>
-      <c r="D73" s="76" t="n"/>
-      <c r="G73" s="77" t="n"/>
-      <c r="J73" s="77" t="n"/>
+      <c r="C73" s="82" t="n"/>
+      <c r="D73" s="82" t="n"/>
+      <c r="G73" s="82" t="n"/>
+      <c r="I73" s="83" t="n"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="C74" s="76" t="n"/>
-      <c r="D74" s="76" t="n"/>
-      <c r="G74" s="77" t="n"/>
-      <c r="J74" s="77" t="n"/>
+      <c r="C74" s="82" t="n"/>
+      <c r="D74" s="82" t="n"/>
+      <c r="I74" s="82" t="n"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="C75" s="77" t="n"/>
-      <c r="D75" s="77" t="n"/>
-      <c r="G75" s="77" t="n"/>
-      <c r="J75" s="76" t="n"/>
+      <c r="C75" s="82" t="n"/>
+      <c r="D75" s="82" t="n"/>
+      <c r="E75" s="80" t="n"/>
+      <c r="G75" s="83" t="n"/>
+      <c r="I75" s="82" t="n"/>
+      <c r="J75" s="79" t="n"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="C76" s="76" t="n"/>
-      <c r="D76" s="76" t="n"/>
-      <c r="G76" s="77" t="n"/>
-      <c r="J76" s="77" t="n"/>
+      <c r="C76" s="82" t="n"/>
+      <c r="D76" s="82" t="n"/>
+      <c r="G76" s="82" t="n"/>
+      <c r="I76" s="82" t="n"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="C77" s="76" t="n"/>
-      <c r="D77" s="76" t="n"/>
-      <c r="G77" s="77" t="n"/>
-      <c r="J77" s="77" t="n"/>
+      <c r="C77" s="82" t="n"/>
+      <c r="D77" s="82" t="n"/>
+      <c r="I77" s="83" t="n"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="C78" s="76" t="n"/>
-      <c r="D78" s="76" t="n"/>
-      <c r="G78" s="77" t="n"/>
-      <c r="J78" s="77" t="n"/>
+      <c r="C78" s="79" t="n"/>
+      <c r="D78" s="79" t="n"/>
+      <c r="G78" s="78" t="n"/>
+      <c r="J78" s="79" t="n"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="C79" s="77" t="n"/>
-      <c r="D79" s="77" t="n"/>
-      <c r="G79" s="76" t="n"/>
-      <c r="J79" s="76" t="n"/>
+      <c r="C79" s="78" t="n"/>
+      <c r="D79" s="78" t="n"/>
+      <c r="G79" s="78" t="n"/>
+      <c r="J79" s="79" t="n"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="C80" s="77" t="n"/>
-      <c r="D80" s="77" t="n"/>
-      <c r="G80" s="77" t="n"/>
-      <c r="J80" s="77" t="n"/>
+      <c r="C80" s="79" t="n"/>
+      <c r="D80" s="79" t="n"/>
+      <c r="G80" s="79" t="n"/>
+      <c r="J80" s="79" t="n"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="C81" s="77" t="n"/>
-      <c r="D81" s="77" t="n"/>
-      <c r="G81" s="77" t="n"/>
-      <c r="J81" s="77" t="n"/>
+      <c r="C81" s="78" t="n"/>
+      <c r="D81" s="78" t="n"/>
+      <c r="G81" s="78" t="n"/>
+      <c r="J81" s="79" t="n"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="C82" s="76" t="n"/>
-      <c r="D82" s="76" t="n"/>
-      <c r="G82" s="77" t="n"/>
-      <c r="J82" s="77" t="n"/>
+      <c r="C82" s="78" t="n"/>
+      <c r="D82" s="78" t="n"/>
+      <c r="G82" s="78" t="n"/>
+      <c r="J82" s="79" t="n"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="C83" s="77" t="n"/>
-      <c r="D83" s="77" t="n"/>
-      <c r="G83" s="77" t="n"/>
-      <c r="J83" s="76" t="n"/>
+      <c r="C83" s="79" t="n"/>
+      <c r="D83" s="79" t="n"/>
+      <c r="G83" s="78" t="n"/>
+      <c r="J83" s="79" t="n"/>
     </row>
     <row r="84" spans="1:10">
       <c r="C84" s="76" t="n"/>
       <c r="D84" s="76" t="n"/>
       <c r="G84" s="77" t="n"/>
-      <c r="J84" s="76" t="n"/>
+      <c r="J84" s="77" t="n"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="C85" s="76" t="n"/>
-      <c r="D85" s="76" t="n"/>
-      <c r="G85" s="77" t="n"/>
+      <c r="C85" s="77" t="n"/>
+      <c r="D85" s="77" t="n"/>
+      <c r="G85" s="76" t="n"/>
       <c r="J85" s="76" t="n"/>
     </row>
     <row r="86" spans="1:10">
       <c r="C86" s="76" t="n"/>
       <c r="D86" s="76" t="n"/>
       <c r="G86" s="77" t="n"/>
-      <c r="J86" s="77" t="n"/>
+      <c r="J86" s="76" t="n"/>
     </row>
     <row r="87" spans="1:10">
       <c r="C87" s="77" t="n"/>
@@ -2776,8 +3338,8 @@
       <c r="J89" s="77" t="n"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="C90" s="77" t="n"/>
-      <c r="D90" s="77" t="n"/>
+      <c r="C90" s="76" t="n"/>
+      <c r="D90" s="76" t="n"/>
       <c r="G90" s="77" t="n"/>
       <c r="J90" s="77" t="n"/>
     </row>
@@ -2785,11 +3347,11 @@
       <c r="C91" s="77" t="n"/>
       <c r="D91" s="77" t="n"/>
       <c r="G91" s="77" t="n"/>
-      <c r="J91" s="77" t="n"/>
+      <c r="J91" s="76" t="n"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="C92" s="77" t="n"/>
-      <c r="D92" s="77" t="n"/>
+      <c r="C92" s="76" t="n"/>
+      <c r="D92" s="76" t="n"/>
       <c r="G92" s="77" t="n"/>
       <c r="J92" s="77" t="n"/>
     </row>
@@ -2812,20 +3374,20 @@
       <c r="J95" s="76" t="n"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="C96" s="76" t="n"/>
-      <c r="D96" s="76" t="n"/>
+      <c r="C96" s="77" t="n"/>
+      <c r="D96" s="77" t="n"/>
       <c r="G96" s="77" t="n"/>
-      <c r="J96" s="76" t="n"/>
+      <c r="J96" s="77" t="n"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="C97" s="76" t="n"/>
-      <c r="D97" s="76" t="n"/>
+      <c r="C97" s="77" t="n"/>
+      <c r="D97" s="77" t="n"/>
       <c r="G97" s="77" t="n"/>
       <c r="J97" s="77" t="n"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="C98" s="77" t="n"/>
-      <c r="D98" s="77" t="n"/>
+      <c r="C98" s="76" t="n"/>
+      <c r="D98" s="76" t="n"/>
       <c r="G98" s="77" t="n"/>
       <c r="J98" s="77" t="n"/>
     </row>
@@ -2851,7 +3413,7 @@
       <c r="C102" s="76" t="n"/>
       <c r="D102" s="76" t="n"/>
       <c r="G102" s="77" t="n"/>
-      <c r="J102" s="76" t="n"/>
+      <c r="J102" s="77" t="n"/>
     </row>
     <row r="103" spans="1:10">
       <c r="C103" s="77" t="n"/>
@@ -2860,62 +3422,62 @@
       <c r="J103" s="76" t="n"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="C104" s="76" t="n"/>
-      <c r="D104" s="76" t="n"/>
+      <c r="C104" s="77" t="n"/>
+      <c r="D104" s="77" t="n"/>
       <c r="G104" s="77" t="n"/>
       <c r="J104" s="76" t="n"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="C105" s="77" t="n"/>
-      <c r="D105" s="77" t="n"/>
+      <c r="C105" s="76" t="n"/>
+      <c r="D105" s="76" t="n"/>
       <c r="G105" s="77" t="n"/>
-      <c r="J105" s="76" t="n"/>
+      <c r="J105" s="77" t="n"/>
     </row>
     <row r="106" spans="1:10">
       <c r="C106" s="77" t="n"/>
       <c r="D106" s="77" t="n"/>
-      <c r="G106" s="76" t="n"/>
+      <c r="G106" s="77" t="n"/>
       <c r="J106" s="77" t="n"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="C107" s="76" t="n"/>
-      <c r="D107" s="76" t="n"/>
+      <c r="C107" s="77" t="n"/>
+      <c r="D107" s="77" t="n"/>
       <c r="G107" s="77" t="n"/>
-      <c r="J107" s="76" t="n"/>
+      <c r="J107" s="77" t="n"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="C108" s="76" t="n"/>
-      <c r="D108" s="76" t="n"/>
+      <c r="C108" s="77" t="n"/>
+      <c r="D108" s="77" t="n"/>
       <c r="G108" s="77" t="n"/>
-      <c r="J108" s="76" t="n"/>
+      <c r="J108" s="77" t="n"/>
     </row>
     <row r="109" spans="1:10">
       <c r="C109" s="76" t="n"/>
       <c r="D109" s="76" t="n"/>
       <c r="G109" s="77" t="n"/>
-      <c r="J109" s="76" t="n"/>
+      <c r="J109" s="77" t="n"/>
     </row>
     <row r="110" spans="1:10">
       <c r="C110" s="76" t="n"/>
       <c r="D110" s="76" t="n"/>
       <c r="G110" s="77" t="n"/>
-      <c r="J110" s="76" t="n"/>
+      <c r="J110" s="77" t="n"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="C111" s="76" t="n"/>
-      <c r="D111" s="76" t="n"/>
-      <c r="G111" s="77" t="n"/>
-      <c r="J111" s="77" t="n"/>
+      <c r="C111" s="77" t="n"/>
+      <c r="D111" s="77" t="n"/>
+      <c r="G111" s="76" t="n"/>
+      <c r="J111" s="76" t="n"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="C112" s="77" t="n"/>
-      <c r="D112" s="77" t="n"/>
+      <c r="C112" s="76" t="n"/>
+      <c r="D112" s="76" t="n"/>
       <c r="G112" s="77" t="n"/>
-      <c r="J112" s="77" t="n"/>
+      <c r="J112" s="76" t="n"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="C113" s="77" t="n"/>
-      <c r="D113" s="77" t="n"/>
+      <c r="C113" s="76" t="n"/>
+      <c r="D113" s="76" t="n"/>
       <c r="G113" s="77" t="n"/>
       <c r="J113" s="77" t="n"/>
     </row>
@@ -2923,35 +3485,35 @@
       <c r="C114" s="77" t="n"/>
       <c r="D114" s="77" t="n"/>
       <c r="G114" s="77" t="n"/>
-      <c r="J114" s="76" t="n"/>
+      <c r="J114" s="77" t="n"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="C115" s="76" t="n"/>
-      <c r="D115" s="76" t="n"/>
+      <c r="C115" s="77" t="n"/>
+      <c r="D115" s="77" t="n"/>
       <c r="G115" s="77" t="n"/>
-      <c r="J115" s="77" t="n"/>
+      <c r="J115" s="76" t="n"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="C116" s="77" t="n"/>
-      <c r="D116" s="77" t="n"/>
+      <c r="C116" s="76" t="n"/>
+      <c r="D116" s="76" t="n"/>
       <c r="G116" s="77" t="n"/>
-      <c r="J116" s="77" t="n"/>
+      <c r="J116" s="76" t="n"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="C117" s="77" t="n"/>
-      <c r="D117" s="77" t="n"/>
+      <c r="C117" s="76" t="n"/>
+      <c r="D117" s="76" t="n"/>
       <c r="G117" s="77" t="n"/>
       <c r="J117" s="76" t="n"/>
     </row>
     <row r="118" spans="1:10">
       <c r="C118" s="76" t="n"/>
       <c r="D118" s="76" t="n"/>
-      <c r="G118" s="76" t="n"/>
+      <c r="G118" s="77" t="n"/>
       <c r="J118" s="76" t="n"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="C119" s="76" t="n"/>
-      <c r="D119" s="76" t="n"/>
+      <c r="C119" s="77" t="n"/>
+      <c r="D119" s="77" t="n"/>
       <c r="G119" s="77" t="n"/>
       <c r="J119" s="76" t="n"/>
     </row>
@@ -2965,17 +3527,17 @@
       <c r="C121" s="77" t="n"/>
       <c r="D121" s="77" t="n"/>
       <c r="G121" s="77" t="n"/>
-      <c r="J121" s="77" t="n"/>
+      <c r="J121" s="76" t="n"/>
     </row>
     <row r="122" spans="1:10">
       <c r="C122" s="77" t="n"/>
       <c r="D122" s="77" t="n"/>
-      <c r="G122" s="77" t="n"/>
-      <c r="J122" s="76" t="n"/>
+      <c r="G122" s="76" t="n"/>
+      <c r="J122" s="77" t="n"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="C123" s="77" t="n"/>
-      <c r="D123" s="77" t="n"/>
+      <c r="C123" s="76" t="n"/>
+      <c r="D123" s="76" t="n"/>
       <c r="G123" s="77" t="n"/>
       <c r="J123" s="76" t="n"/>
     </row>
@@ -2986,9 +3548,9 @@
       <c r="J124" s="76" t="n"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="C125" s="77" t="n"/>
-      <c r="D125" s="77" t="n"/>
-      <c r="G125" s="76" t="n"/>
+      <c r="C125" s="76" t="n"/>
+      <c r="D125" s="76" t="n"/>
+      <c r="G125" s="77" t="n"/>
       <c r="J125" s="76" t="n"/>
     </row>
     <row r="126" spans="1:10">
@@ -3001,17 +3563,17 @@
       <c r="C127" s="76" t="n"/>
       <c r="D127" s="76" t="n"/>
       <c r="G127" s="77" t="n"/>
-      <c r="J127" s="76" t="n"/>
+      <c r="J127" s="77" t="n"/>
     </row>
     <row r="128" spans="1:10">
       <c r="C128" s="77" t="n"/>
       <c r="D128" s="77" t="n"/>
-      <c r="G128" s="76" t="n"/>
+      <c r="G128" s="77" t="n"/>
       <c r="J128" s="77" t="n"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="C129" s="76" t="n"/>
-      <c r="D129" s="76" t="n"/>
+      <c r="C129" s="77" t="n"/>
+      <c r="D129" s="77" t="n"/>
       <c r="G129" s="77" t="n"/>
       <c r="J129" s="77" t="n"/>
     </row>
@@ -3022,14 +3584,14 @@
       <c r="J130" s="76" t="n"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="C131" s="77" t="n"/>
-      <c r="D131" s="77" t="n"/>
-      <c r="G131" s="76" t="n"/>
+      <c r="C131" s="76" t="n"/>
+      <c r="D131" s="76" t="n"/>
+      <c r="G131" s="77" t="n"/>
       <c r="J131" s="77" t="n"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="C132" s="76" t="n"/>
-      <c r="D132" s="76" t="n"/>
+      <c r="C132" s="77" t="n"/>
+      <c r="D132" s="77" t="n"/>
       <c r="G132" s="77" t="n"/>
       <c r="J132" s="77" t="n"/>
     </row>
@@ -3042,20 +3604,20 @@
     <row r="134" spans="1:10">
       <c r="C134" s="76" t="n"/>
       <c r="D134" s="76" t="n"/>
-      <c r="G134" s="77" t="n"/>
-      <c r="J134" s="77" t="n"/>
+      <c r="G134" s="76" t="n"/>
+      <c r="J134" s="76" t="n"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="C135" s="77" t="n"/>
-      <c r="D135" s="77" t="n"/>
+      <c r="C135" s="76" t="n"/>
+      <c r="D135" s="76" t="n"/>
       <c r="G135" s="77" t="n"/>
       <c r="J135" s="76" t="n"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="C136" s="77" t="n"/>
-      <c r="D136" s="77" t="n"/>
-      <c r="G136" s="76" t="n"/>
-      <c r="J136" s="77" t="n"/>
+      <c r="C136" s="76" t="n"/>
+      <c r="D136" s="76" t="n"/>
+      <c r="G136" s="77" t="n"/>
+      <c r="J136" s="76" t="n"/>
     </row>
     <row r="137" spans="1:10">
       <c r="C137" s="77" t="n"/>
@@ -3072,141 +3634,157 @@
     <row r="139" spans="1:10">
       <c r="C139" s="77" t="n"/>
       <c r="D139" s="77" t="n"/>
-      <c r="G139" s="76" t="n"/>
-      <c r="J139" s="77" t="n"/>
+      <c r="G139" s="77" t="n"/>
+      <c r="J139" s="76" t="n"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="C140" s="77" t="n"/>
-      <c r="D140" s="77" t="n"/>
-      <c r="G140" s="76" t="n"/>
-      <c r="J140" s="77" t="n"/>
+      <c r="C140" s="76" t="n"/>
+      <c r="D140" s="76" t="n"/>
+      <c r="G140" s="77" t="n"/>
+      <c r="J140" s="76" t="n"/>
     </row>
     <row r="141" spans="1:10">
       <c r="C141" s="77" t="n"/>
       <c r="D141" s="77" t="n"/>
-      <c r="G141" s="77" t="n"/>
-      <c r="J141" s="77" t="n"/>
+      <c r="G141" s="76" t="n"/>
+      <c r="J141" s="76" t="n"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="C142" s="77" t="n"/>
-      <c r="D142" s="77" t="n"/>
+      <c r="C142" s="76" t="n"/>
+      <c r="D142" s="76" t="n"/>
       <c r="G142" s="77" t="n"/>
       <c r="J142" s="76" t="n"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="C143" s="75" t="n"/>
-      <c r="D143" s="75" t="n"/>
-      <c r="G143" s="75" t="n"/>
+      <c r="C143" s="76" t="n"/>
+      <c r="D143" s="76" t="n"/>
+      <c r="G143" s="77" t="n"/>
+      <c r="J143" s="76" t="n"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="C144" s="73" t="n"/>
-      <c r="D144" s="73" t="n"/>
-      <c r="G144" s="73" t="n"/>
+      <c r="C144" s="77" t="n"/>
+      <c r="D144" s="77" t="n"/>
+      <c r="G144" s="76" t="n"/>
+      <c r="J144" s="77" t="n"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="C145" s="73" t="n"/>
-      <c r="D145" s="73" t="n"/>
-      <c r="G145" s="73" t="n"/>
+      <c r="C145" s="76" t="n"/>
+      <c r="D145" s="76" t="n"/>
+      <c r="G145" s="77" t="n"/>
+      <c r="J145" s="77" t="n"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="C146" s="75" t="n"/>
-      <c r="D146" s="75" t="n"/>
-      <c r="G146" s="75" t="n"/>
+      <c r="C146" s="77" t="n"/>
+      <c r="D146" s="77" t="n"/>
+      <c r="G146" s="77" t="n"/>
+      <c r="J146" s="76" t="n"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="C147" s="72" t="n"/>
-      <c r="D147" s="72" t="n"/>
-      <c r="G147" s="73" t="n"/>
+      <c r="C147" s="77" t="n"/>
+      <c r="D147" s="77" t="n"/>
+      <c r="G147" s="76" t="n"/>
+      <c r="J147" s="77" t="n"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="C148" s="72" t="n"/>
-      <c r="D148" s="72" t="n"/>
-      <c r="G148" s="73" t="n"/>
+      <c r="C148" s="76" t="n"/>
+      <c r="D148" s="76" t="n"/>
+      <c r="G148" s="77" t="n"/>
+      <c r="J148" s="77" t="n"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="C149" s="74" t="n"/>
-      <c r="D149" s="74" t="n"/>
-      <c r="G149" s="75" t="n"/>
+      <c r="C149" s="77" t="n"/>
+      <c r="D149" s="77" t="n"/>
+      <c r="G149" s="77" t="n"/>
+      <c r="J149" s="76" t="n"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="C150" s="72" t="n"/>
-      <c r="D150" s="72" t="n"/>
-      <c r="G150" s="73" t="n"/>
+      <c r="C150" s="76" t="n"/>
+      <c r="D150" s="76" t="n"/>
+      <c r="G150" s="77" t="n"/>
+      <c r="J150" s="77" t="n"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="C151" s="72" t="n"/>
-      <c r="D151" s="72" t="n"/>
-      <c r="G151" s="73" t="n"/>
+      <c r="C151" s="77" t="n"/>
+      <c r="D151" s="77" t="n"/>
+      <c r="G151" s="77" t="n"/>
+      <c r="J151" s="76" t="n"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="C152" s="74" t="n"/>
-      <c r="D152" s="74" t="n"/>
-      <c r="G152" s="75" t="n"/>
+      <c r="C152" s="77" t="n"/>
+      <c r="D152" s="77" t="n"/>
+      <c r="G152" s="76" t="n"/>
+      <c r="J152" s="77" t="n"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="C153" s="72" t="n"/>
-      <c r="D153" s="72" t="n"/>
-      <c r="G153" s="73" t="n"/>
+      <c r="C153" s="77" t="n"/>
+      <c r="D153" s="77" t="n"/>
+      <c r="G153" s="77" t="n"/>
+      <c r="J153" s="77" t="n"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="C154" s="72" t="n"/>
-      <c r="D154" s="72" t="n"/>
-      <c r="G154" s="73" t="n"/>
+      <c r="C154" s="77" t="n"/>
+      <c r="D154" s="77" t="n"/>
+      <c r="G154" s="77" t="n"/>
+      <c r="J154" s="76" t="n"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="C155" s="74" t="n"/>
-      <c r="D155" s="74" t="n"/>
-      <c r="G155" s="75" t="n"/>
+      <c r="C155" s="77" t="n"/>
+      <c r="D155" s="77" t="n"/>
+      <c r="G155" s="76" t="n"/>
+      <c r="J155" s="77" t="n"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="C156" s="72" t="n"/>
-      <c r="D156" s="72" t="n"/>
-      <c r="G156" s="73" t="n"/>
+      <c r="C156" s="77" t="n"/>
+      <c r="D156" s="77" t="n"/>
+      <c r="G156" s="76" t="n"/>
+      <c r="J156" s="77" t="n"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="C157" s="72" t="n"/>
-      <c r="D157" s="72" t="n"/>
-      <c r="G157" s="73" t="n"/>
+      <c r="C157" s="77" t="n"/>
+      <c r="D157" s="77" t="n"/>
+      <c r="G157" s="77" t="n"/>
+      <c r="J157" s="77" t="n"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="C158" s="74" t="n"/>
-      <c r="D158" s="74" t="n"/>
-      <c r="G158" s="75" t="n"/>
+      <c r="C158" s="77" t="n"/>
+      <c r="D158" s="77" t="n"/>
+      <c r="G158" s="77" t="n"/>
+      <c r="J158" s="76" t="n"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="C159" s="72" t="n"/>
-      <c r="D159" s="72" t="n"/>
-      <c r="G159" s="73" t="n"/>
+      <c r="C159" s="75" t="n"/>
+      <c r="D159" s="75" t="n"/>
+      <c r="G159" s="75" t="n"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="C160" s="72" t="n"/>
-      <c r="D160" s="72" t="n"/>
+      <c r="C160" s="73" t="n"/>
+      <c r="D160" s="73" t="n"/>
       <c r="G160" s="73" t="n"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="C161" s="74" t="n"/>
-      <c r="D161" s="74" t="n"/>
-      <c r="G161" s="75" t="n"/>
+      <c r="C161" s="73" t="n"/>
+      <c r="D161" s="73" t="n"/>
+      <c r="G161" s="73" t="n"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="C162" s="73" t="n"/>
-      <c r="D162" s="73" t="n"/>
-      <c r="G162" s="73" t="n"/>
+      <c r="C162" s="75" t="n"/>
+      <c r="D162" s="75" t="n"/>
+      <c r="G162" s="75" t="n"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="C163" s="73" t="n"/>
-      <c r="D163" s="73" t="n"/>
+      <c r="C163" s="72" t="n"/>
+      <c r="D163" s="72" t="n"/>
       <c r="G163" s="73" t="n"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="C164" s="75" t="n"/>
-      <c r="D164" s="75" t="n"/>
-      <c r="G164" s="75" t="n"/>
+      <c r="C164" s="72" t="n"/>
+      <c r="D164" s="72" t="n"/>
+      <c r="G164" s="73" t="n"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="C165" s="72" t="n"/>
-      <c r="D165" s="72" t="n"/>
-      <c r="G165" s="73" t="n"/>
+      <c r="C165" s="74" t="n"/>
+      <c r="D165" s="74" t="n"/>
+      <c r="G165" s="75" t="n"/>
     </row>
     <row r="166" spans="1:10">
       <c r="C166" s="72" t="n"/>
@@ -3214,14 +3792,14 @@
       <c r="G166" s="73" t="n"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="C167" s="74" t="n"/>
-      <c r="D167" s="74" t="n"/>
-      <c r="G167" s="75" t="n"/>
+      <c r="C167" s="72" t="n"/>
+      <c r="D167" s="72" t="n"/>
+      <c r="G167" s="73" t="n"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="C168" s="72" t="n"/>
-      <c r="D168" s="72" t="n"/>
-      <c r="G168" s="73" t="n"/>
+      <c r="C168" s="74" t="n"/>
+      <c r="D168" s="74" t="n"/>
+      <c r="G168" s="75" t="n"/>
     </row>
     <row r="169" spans="1:10">
       <c r="C169" s="72" t="n"/>
@@ -3229,29 +3807,29 @@
       <c r="G169" s="73" t="n"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="C170" s="74" t="n"/>
-      <c r="D170" s="74" t="n"/>
-      <c r="G170" s="75" t="n"/>
+      <c r="C170" s="72" t="n"/>
+      <c r="D170" s="72" t="n"/>
+      <c r="G170" s="73" t="n"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="C171" s="73" t="n"/>
-      <c r="D171" s="73" t="n"/>
-      <c r="G171" s="73" t="n"/>
+      <c r="C171" s="74" t="n"/>
+      <c r="D171" s="74" t="n"/>
+      <c r="G171" s="75" t="n"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="C172" s="73" t="n"/>
-      <c r="D172" s="73" t="n"/>
+      <c r="C172" s="72" t="n"/>
+      <c r="D172" s="72" t="n"/>
       <c r="G172" s="73" t="n"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="C173" s="75" t="n"/>
-      <c r="D173" s="75" t="n"/>
-      <c r="G173" s="75" t="n"/>
+      <c r="C173" s="72" t="n"/>
+      <c r="D173" s="72" t="n"/>
+      <c r="G173" s="73" t="n"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="C174" s="72" t="n"/>
-      <c r="D174" s="72" t="n"/>
-      <c r="G174" s="73" t="n"/>
+      <c r="C174" s="74" t="n"/>
+      <c r="D174" s="74" t="n"/>
+      <c r="G174" s="75" t="n"/>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="72" t="n"/>
@@ -3259,574 +3837,574 @@
       <c r="G175" s="73" t="n"/>
     </row>
     <row r="176" spans="1:10">
-      <c r="C176" s="74" t="n"/>
-      <c r="D176" s="74" t="n"/>
-      <c r="G176" s="75" t="n"/>
+      <c r="C176" s="72" t="n"/>
+      <c r="D176" s="72" t="n"/>
+      <c r="G176" s="73" t="n"/>
     </row>
     <row r="177" spans="1:10">
-      <c r="C177" s="72" t="n"/>
-      <c r="D177" s="72" t="n"/>
-      <c r="G177" s="73" t="n"/>
+      <c r="C177" s="74" t="n"/>
+      <c r="D177" s="74" t="n"/>
+      <c r="G177" s="75" t="n"/>
     </row>
     <row r="178" spans="1:10">
-      <c r="C178" s="72" t="n"/>
-      <c r="D178" s="72" t="n"/>
+      <c r="C178" s="73" t="n"/>
+      <c r="D178" s="73" t="n"/>
       <c r="G178" s="73" t="n"/>
     </row>
     <row r="179" spans="1:10">
-      <c r="C179" s="74" t="n"/>
-      <c r="D179" s="74" t="n"/>
-      <c r="G179" s="75" t="n"/>
+      <c r="C179" s="73" t="n"/>
+      <c r="D179" s="73" t="n"/>
+      <c r="G179" s="73" t="n"/>
     </row>
     <row r="180" spans="1:10">
-      <c r="C180" s="48" t="n"/>
-      <c r="D180" s="48" t="n"/>
-      <c r="G180" s="48" t="n"/>
+      <c r="C180" s="75" t="n"/>
+      <c r="D180" s="75" t="n"/>
+      <c r="G180" s="75" t="n"/>
     </row>
     <row r="181" spans="1:10">
-      <c r="C181" s="56" t="n"/>
-      <c r="D181" s="56" t="n"/>
-      <c r="G181" s="56" t="n"/>
+      <c r="C181" s="72" t="n"/>
+      <c r="D181" s="72" t="n"/>
+      <c r="G181" s="73" t="n"/>
     </row>
     <row r="182" spans="1:10">
-      <c r="C182" s="58" t="n"/>
-      <c r="D182" s="58" t="n"/>
-      <c r="G182" s="58" t="n"/>
+      <c r="C182" s="72" t="n"/>
+      <c r="D182" s="72" t="n"/>
+      <c r="G182" s="73" t="n"/>
     </row>
     <row r="183" spans="1:10">
-      <c r="C183" s="60" t="n"/>
-      <c r="D183" s="60" t="n"/>
-      <c r="G183" s="60" t="n"/>
+      <c r="C183" s="74" t="n"/>
+      <c r="D183" s="74" t="n"/>
+      <c r="G183" s="75" t="n"/>
     </row>
     <row r="184" spans="1:10">
-      <c r="C184" s="62" t="n"/>
-      <c r="D184" s="62" t="n"/>
-      <c r="G184" s="62" t="n"/>
+      <c r="C184" s="72" t="n"/>
+      <c r="D184" s="72" t="n"/>
+      <c r="G184" s="73" t="n"/>
     </row>
     <row r="185" spans="1:10">
-      <c r="C185" s="62" t="n"/>
-      <c r="D185" s="62" t="n"/>
-      <c r="G185" s="62" t="n"/>
+      <c r="C185" s="72" t="n"/>
+      <c r="D185" s="72" t="n"/>
+      <c r="G185" s="73" t="n"/>
     </row>
     <row r="186" spans="1:10">
-      <c r="C186" s="64" t="n"/>
-      <c r="D186" s="64" t="n"/>
-      <c r="G186" s="64" t="n"/>
+      <c r="C186" s="74" t="n"/>
+      <c r="D186" s="74" t="n"/>
+      <c r="G186" s="75" t="n"/>
     </row>
     <row r="187" spans="1:10">
-      <c r="C187" s="66" t="n"/>
-      <c r="D187" s="66" t="n"/>
-      <c r="G187" s="66" t="n"/>
+      <c r="C187" s="73" t="n"/>
+      <c r="D187" s="73" t="n"/>
+      <c r="G187" s="73" t="n"/>
     </row>
     <row r="188" spans="1:10">
-      <c r="C188" s="68" t="n"/>
-      <c r="D188" s="68" t="n"/>
-      <c r="G188" s="68" t="n"/>
+      <c r="C188" s="73" t="n"/>
+      <c r="D188" s="73" t="n"/>
+      <c r="G188" s="73" t="n"/>
     </row>
     <row r="189" spans="1:10">
-      <c r="C189" s="70" t="n"/>
-      <c r="D189" s="70" t="n"/>
-      <c r="G189" s="70" t="n"/>
+      <c r="C189" s="75" t="n"/>
+      <c r="D189" s="75" t="n"/>
+      <c r="G189" s="75" t="n"/>
     </row>
     <row r="190" spans="1:10">
-      <c r="C190" s="43" t="n"/>
-      <c r="D190" s="43" t="n"/>
-      <c r="G190" s="42" t="n"/>
+      <c r="C190" s="72" t="n"/>
+      <c r="D190" s="72" t="n"/>
+      <c r="G190" s="73" t="n"/>
     </row>
     <row r="191" spans="1:10">
-      <c r="C191" s="44" t="n"/>
-      <c r="D191" s="44" t="n"/>
-      <c r="G191" s="45" t="n"/>
+      <c r="C191" s="72" t="n"/>
+      <c r="D191" s="72" t="n"/>
+      <c r="G191" s="73" t="n"/>
     </row>
     <row r="192" spans="1:10">
-      <c r="C192" s="49" t="n"/>
-      <c r="D192" s="49" t="n"/>
-      <c r="G192" s="48" t="n"/>
+      <c r="C192" s="74" t="n"/>
+      <c r="D192" s="74" t="n"/>
+      <c r="G192" s="75" t="n"/>
     </row>
     <row r="193" spans="1:10">
-      <c r="C193" s="49" t="n"/>
-      <c r="D193" s="49" t="n"/>
-      <c r="G193" s="48" t="n"/>
+      <c r="C193" s="72" t="n"/>
+      <c r="D193" s="72" t="n"/>
+      <c r="G193" s="73" t="n"/>
     </row>
     <row r="194" spans="1:10">
-      <c r="C194" s="50" t="n"/>
-      <c r="D194" s="50" t="n"/>
-      <c r="G194" s="51" t="n"/>
+      <c r="C194" s="72" t="n"/>
+      <c r="D194" s="72" t="n"/>
+      <c r="G194" s="73" t="n"/>
     </row>
     <row r="195" spans="1:10">
-      <c r="C195" s="52" t="n"/>
-      <c r="D195" s="52" t="n"/>
-      <c r="G195" s="53" t="n"/>
+      <c r="C195" s="74" t="n"/>
+      <c r="D195" s="74" t="n"/>
+      <c r="G195" s="75" t="n"/>
     </row>
     <row r="196" spans="1:10">
-      <c r="C196" s="54" t="n"/>
-      <c r="D196" s="54" t="n"/>
-      <c r="G196" s="55" t="n"/>
+      <c r="C196" s="48" t="n"/>
+      <c r="D196" s="48" t="n"/>
+      <c r="G196" s="48" t="n"/>
     </row>
     <row r="197" spans="1:10">
-      <c r="C197" s="54" t="n"/>
-      <c r="D197" s="54" t="n"/>
-      <c r="G197" s="55" t="n"/>
+      <c r="C197" s="56" t="n"/>
+      <c r="D197" s="56" t="n"/>
+      <c r="G197" s="56" t="n"/>
     </row>
     <row r="198" spans="1:10">
-      <c r="C198" s="54" t="n"/>
-      <c r="D198" s="54" t="n"/>
-      <c r="G198" s="55" t="n"/>
+      <c r="C198" s="58" t="n"/>
+      <c r="D198" s="58" t="n"/>
+      <c r="G198" s="58" t="n"/>
     </row>
     <row r="199" spans="1:10">
-      <c r="C199" s="54" t="n"/>
-      <c r="D199" s="54" t="n"/>
-      <c r="G199" s="55" t="n"/>
+      <c r="C199" s="60" t="n"/>
+      <c r="D199" s="60" t="n"/>
+      <c r="G199" s="60" t="n"/>
     </row>
     <row r="200" spans="1:10">
-      <c r="C200" s="57" t="n"/>
-      <c r="D200" s="57" t="n"/>
-      <c r="G200" s="56" t="n"/>
+      <c r="C200" s="62" t="n"/>
+      <c r="D200" s="62" t="n"/>
+      <c r="G200" s="62" t="n"/>
     </row>
     <row r="201" spans="1:10">
-      <c r="C201" s="43" t="n"/>
-      <c r="D201" s="43" t="n"/>
-      <c r="G201" s="42" t="n"/>
+      <c r="C201" s="62" t="n"/>
+      <c r="D201" s="62" t="n"/>
+      <c r="G201" s="62" t="n"/>
     </row>
     <row r="202" spans="1:10">
-      <c r="C202" s="42" t="n"/>
-      <c r="D202" s="42" t="n"/>
-      <c r="G202" s="42" t="n"/>
+      <c r="C202" s="64" t="n"/>
+      <c r="D202" s="64" t="n"/>
+      <c r="G202" s="64" t="n"/>
     </row>
     <row r="203" spans="1:10">
-      <c r="C203" s="45" t="n"/>
-      <c r="D203" s="45" t="n"/>
-      <c r="G203" s="44" t="n"/>
+      <c r="C203" s="66" t="n"/>
+      <c r="D203" s="66" t="n"/>
+      <c r="G203" s="66" t="n"/>
     </row>
     <row r="204" spans="1:10">
-      <c r="C204" s="42" t="n"/>
-      <c r="D204" s="42" t="n"/>
-      <c r="G204" s="43" t="n"/>
+      <c r="C204" s="68" t="n"/>
+      <c r="D204" s="68" t="n"/>
+      <c r="G204" s="68" t="n"/>
     </row>
     <row r="205" spans="1:10">
-      <c r="C205" s="45" t="n"/>
-      <c r="D205" s="45" t="n"/>
-      <c r="G205" s="45" t="n"/>
+      <c r="C205" s="70" t="n"/>
+      <c r="D205" s="70" t="n"/>
+      <c r="G205" s="70" t="n"/>
     </row>
     <row r="206" spans="1:10">
-      <c r="C206" s="42" t="n"/>
-      <c r="D206" s="42" t="n"/>
+      <c r="C206" s="43" t="n"/>
+      <c r="D206" s="43" t="n"/>
       <c r="G206" s="42" t="n"/>
     </row>
     <row r="207" spans="1:10">
-      <c r="C207" s="45" t="n"/>
-      <c r="D207" s="45" t="n"/>
-      <c r="G207" s="44" t="n"/>
+      <c r="C207" s="44" t="n"/>
+      <c r="D207" s="44" t="n"/>
+      <c r="G207" s="45" t="n"/>
     </row>
     <row r="208" spans="1:10">
-      <c r="C208" s="45" t="n"/>
-      <c r="D208" s="45" t="n"/>
-      <c r="G208" s="44" t="n"/>
+      <c r="C208" s="49" t="n"/>
+      <c r="D208" s="49" t="n"/>
+      <c r="G208" s="48" t="n"/>
     </row>
     <row r="209" spans="1:10">
-      <c r="C209" s="45" t="n"/>
-      <c r="D209" s="45" t="n"/>
-      <c r="G209" s="44" t="n"/>
+      <c r="C209" s="49" t="n"/>
+      <c r="D209" s="49" t="n"/>
+      <c r="G209" s="48" t="n"/>
     </row>
     <row r="210" spans="1:10">
-      <c r="C210" s="46" t="n"/>
-      <c r="D210" s="46" t="n"/>
-      <c r="G210" s="47" t="n"/>
+      <c r="C210" s="50" t="n"/>
+      <c r="D210" s="50" t="n"/>
+      <c r="G210" s="51" t="n"/>
     </row>
     <row r="211" spans="1:10">
-      <c r="C211" s="42" t="n"/>
-      <c r="D211" s="42" t="n"/>
-      <c r="G211" s="43" t="n"/>
+      <c r="C211" s="52" t="n"/>
+      <c r="D211" s="52" t="n"/>
+      <c r="G211" s="53" t="n"/>
     </row>
     <row r="212" spans="1:10">
-      <c r="C212" s="43" t="n"/>
-      <c r="D212" s="43" t="n"/>
-      <c r="G212" s="42" t="n"/>
+      <c r="C212" s="54" t="n"/>
+      <c r="D212" s="54" t="n"/>
+      <c r="G212" s="55" t="n"/>
     </row>
     <row r="213" spans="1:10">
-      <c r="C213" s="42" t="n"/>
-      <c r="D213" s="42" t="n"/>
-      <c r="G213" s="43" t="n"/>
+      <c r="C213" s="54" t="n"/>
+      <c r="D213" s="54" t="n"/>
+      <c r="G213" s="55" t="n"/>
     </row>
     <row r="214" spans="1:10">
-      <c r="C214" s="45" t="n"/>
-      <c r="D214" s="45" t="n"/>
-      <c r="G214" s="45" t="n"/>
+      <c r="C214" s="54" t="n"/>
+      <c r="D214" s="54" t="n"/>
+      <c r="G214" s="55" t="n"/>
     </row>
     <row r="215" spans="1:10">
-      <c r="C215" s="42" t="n"/>
-      <c r="D215" s="42" t="n"/>
-      <c r="G215" s="43" t="n"/>
+      <c r="C215" s="54" t="n"/>
+      <c r="D215" s="54" t="n"/>
+      <c r="G215" s="55" t="n"/>
     </row>
     <row r="216" spans="1:10">
-      <c r="C216" s="45" t="n"/>
-      <c r="D216" s="45" t="n"/>
-      <c r="G216" s="45" t="n"/>
+      <c r="C216" s="57" t="n"/>
+      <c r="D216" s="57" t="n"/>
+      <c r="G216" s="56" t="n"/>
     </row>
     <row r="217" spans="1:10">
-      <c r="C217" s="48" t="n"/>
-      <c r="D217" s="48" t="n"/>
-      <c r="G217" s="48" t="n"/>
+      <c r="C217" s="43" t="n"/>
+      <c r="D217" s="43" t="n"/>
+      <c r="G217" s="42" t="n"/>
     </row>
     <row r="218" spans="1:10">
-      <c r="C218" s="51" t="n"/>
-      <c r="D218" s="51" t="n"/>
-      <c r="G218" s="51" t="n"/>
+      <c r="C218" s="42" t="n"/>
+      <c r="D218" s="42" t="n"/>
+      <c r="G218" s="42" t="n"/>
     </row>
     <row r="219" spans="1:10">
-      <c r="C219" s="53" t="n"/>
-      <c r="D219" s="53" t="n"/>
-      <c r="G219" s="53" t="n"/>
+      <c r="C219" s="45" t="n"/>
+      <c r="D219" s="45" t="n"/>
+      <c r="G219" s="44" t="n"/>
     </row>
     <row r="220" spans="1:10">
-      <c r="C220" s="55" t="n"/>
-      <c r="D220" s="55" t="n"/>
-      <c r="G220" s="55" t="n"/>
+      <c r="C220" s="42" t="n"/>
+      <c r="D220" s="42" t="n"/>
+      <c r="G220" s="43" t="n"/>
     </row>
     <row r="221" spans="1:10">
-      <c r="C221" s="55" t="n"/>
-      <c r="D221" s="55" t="n"/>
-      <c r="G221" s="55" t="n"/>
+      <c r="C221" s="45" t="n"/>
+      <c r="D221" s="45" t="n"/>
+      <c r="G221" s="45" t="n"/>
     </row>
     <row r="222" spans="1:10">
-      <c r="C222" s="55" t="n"/>
-      <c r="D222" s="55" t="n"/>
-      <c r="G222" s="55" t="n"/>
+      <c r="C222" s="42" t="n"/>
+      <c r="D222" s="42" t="n"/>
+      <c r="G222" s="42" t="n"/>
     </row>
     <row r="223" spans="1:10">
-      <c r="C223" s="55" t="n"/>
-      <c r="D223" s="55" t="n"/>
-      <c r="G223" s="55" t="n"/>
+      <c r="C223" s="45" t="n"/>
+      <c r="D223" s="45" t="n"/>
+      <c r="G223" s="44" t="n"/>
     </row>
     <row r="224" spans="1:10">
-      <c r="C224" s="56" t="n"/>
-      <c r="D224" s="56" t="n"/>
-      <c r="G224" s="56" t="n"/>
+      <c r="C224" s="45" t="n"/>
+      <c r="D224" s="45" t="n"/>
+      <c r="G224" s="44" t="n"/>
     </row>
     <row r="225" spans="1:10">
-      <c r="C225" s="56" t="n"/>
-      <c r="D225" s="56" t="n"/>
-      <c r="G225" s="56" t="n"/>
+      <c r="C225" s="45" t="n"/>
+      <c r="D225" s="45" t="n"/>
+      <c r="G225" s="44" t="n"/>
     </row>
     <row r="226" spans="1:10">
-      <c r="C226" s="59" t="n"/>
-      <c r="D226" s="59" t="n"/>
-      <c r="G226" s="58" t="n"/>
+      <c r="C226" s="46" t="n"/>
+      <c r="D226" s="46" t="n"/>
+      <c r="G226" s="47" t="n"/>
     </row>
     <row r="227" spans="1:10">
-      <c r="C227" s="60" t="n"/>
-      <c r="D227" s="60" t="n"/>
-      <c r="G227" s="60" t="n"/>
+      <c r="C227" s="42" t="n"/>
+      <c r="D227" s="42" t="n"/>
+      <c r="G227" s="43" t="n"/>
     </row>
     <row r="228" spans="1:10">
-      <c r="C228" s="62" t="n"/>
-      <c r="D228" s="62" t="n"/>
-      <c r="G228" s="62" t="n"/>
+      <c r="C228" s="43" t="n"/>
+      <c r="D228" s="43" t="n"/>
+      <c r="G228" s="42" t="n"/>
     </row>
     <row r="229" spans="1:10">
-      <c r="C229" s="62" t="n"/>
-      <c r="D229" s="62" t="n"/>
-      <c r="G229" s="62" t="n"/>
+      <c r="C229" s="42" t="n"/>
+      <c r="D229" s="42" t="n"/>
+      <c r="G229" s="43" t="n"/>
     </row>
     <row r="230" spans="1:10">
-      <c r="C230" s="65" t="n"/>
-      <c r="D230" s="65" t="n"/>
-      <c r="G230" s="64" t="n"/>
+      <c r="C230" s="45" t="n"/>
+      <c r="D230" s="45" t="n"/>
+      <c r="G230" s="45" t="n"/>
     </row>
     <row r="231" spans="1:10">
-      <c r="C231" s="66" t="n"/>
-      <c r="D231" s="66" t="n"/>
-      <c r="G231" s="66" t="n"/>
+      <c r="C231" s="42" t="n"/>
+      <c r="D231" s="42" t="n"/>
+      <c r="G231" s="43" t="n"/>
     </row>
     <row r="232" spans="1:10">
-      <c r="C232" s="68" t="n"/>
-      <c r="D232" s="68" t="n"/>
-      <c r="G232" s="68" t="n"/>
+      <c r="C232" s="45" t="n"/>
+      <c r="D232" s="45" t="n"/>
+      <c r="G232" s="45" t="n"/>
     </row>
     <row r="233" spans="1:10">
-      <c r="C233" s="70" t="n"/>
-      <c r="D233" s="70" t="n"/>
-      <c r="G233" s="70" t="n"/>
+      <c r="C233" s="48" t="n"/>
+      <c r="D233" s="48" t="n"/>
+      <c r="G233" s="48" t="n"/>
     </row>
     <row r="234" spans="1:10">
-      <c r="C234" s="43" t="n"/>
-      <c r="D234" s="43" t="n"/>
-      <c r="G234" s="42" t="n"/>
+      <c r="C234" s="51" t="n"/>
+      <c r="D234" s="51" t="n"/>
+      <c r="G234" s="51" t="n"/>
     </row>
     <row r="235" spans="1:10">
-      <c r="C235" s="42" t="n"/>
-      <c r="D235" s="42" t="n"/>
-      <c r="G235" s="43" t="n"/>
+      <c r="C235" s="53" t="n"/>
+      <c r="D235" s="53" t="n"/>
+      <c r="G235" s="53" t="n"/>
     </row>
     <row r="236" spans="1:10">
-      <c r="C236" s="45" t="n"/>
-      <c r="D236" s="45" t="n"/>
-      <c r="G236" s="44" t="n"/>
+      <c r="C236" s="55" t="n"/>
+      <c r="D236" s="55" t="n"/>
+      <c r="G236" s="55" t="n"/>
     </row>
     <row r="237" spans="1:10">
-      <c r="C237" s="42" t="n"/>
-      <c r="D237" s="42" t="n"/>
-      <c r="G237" s="43" t="n"/>
+      <c r="C237" s="55" t="n"/>
+      <c r="D237" s="55" t="n"/>
+      <c r="G237" s="55" t="n"/>
     </row>
     <row r="238" spans="1:10">
-      <c r="C238" s="44" t="n"/>
-      <c r="D238" s="44" t="n"/>
-      <c r="G238" s="45" t="n"/>
+      <c r="C238" s="55" t="n"/>
+      <c r="D238" s="55" t="n"/>
+      <c r="G238" s="55" t="n"/>
     </row>
     <row r="239" spans="1:10">
-      <c r="C239" s="42" t="n"/>
-      <c r="D239" s="42" t="n"/>
-      <c r="G239" s="43" t="n"/>
+      <c r="C239" s="55" t="n"/>
+      <c r="D239" s="55" t="n"/>
+      <c r="G239" s="55" t="n"/>
     </row>
     <row r="240" spans="1:10">
-      <c r="C240" s="44" t="n"/>
-      <c r="D240" s="44" t="n"/>
-      <c r="G240" s="45" t="n"/>
+      <c r="C240" s="56" t="n"/>
+      <c r="D240" s="56" t="n"/>
+      <c r="G240" s="56" t="n"/>
     </row>
     <row r="241" spans="1:10">
-      <c r="C241" s="42" t="n"/>
-      <c r="D241" s="42" t="n"/>
-      <c r="G241" s="43" t="n"/>
+      <c r="C241" s="56" t="n"/>
+      <c r="D241" s="56" t="n"/>
+      <c r="G241" s="56" t="n"/>
     </row>
     <row r="242" spans="1:10">
-      <c r="C242" s="42" t="n"/>
-      <c r="D242" s="42" t="n"/>
-      <c r="G242" s="43" t="n"/>
+      <c r="C242" s="59" t="n"/>
+      <c r="D242" s="59" t="n"/>
+      <c r="G242" s="58" t="n"/>
     </row>
     <row r="243" spans="1:10">
-      <c r="C243" s="44" t="n"/>
-      <c r="D243" s="44" t="n"/>
-      <c r="G243" s="45" t="n"/>
+      <c r="C243" s="60" t="n"/>
+      <c r="D243" s="60" t="n"/>
+      <c r="G243" s="60" t="n"/>
     </row>
     <row r="244" spans="1:10">
-      <c r="C244" s="42" t="n"/>
-      <c r="D244" s="43" t="n"/>
-      <c r="G244" s="43" t="n"/>
+      <c r="C244" s="62" t="n"/>
+      <c r="D244" s="62" t="n"/>
+      <c r="G244" s="62" t="n"/>
     </row>
     <row r="245" spans="1:10">
-      <c r="C245" s="45" t="n"/>
-      <c r="D245" s="45" t="n"/>
-      <c r="G245" s="45" t="n"/>
+      <c r="C245" s="62" t="n"/>
+      <c r="D245" s="62" t="n"/>
+      <c r="G245" s="62" t="n"/>
     </row>
     <row r="246" spans="1:10">
-      <c r="C246" s="45" t="n"/>
-      <c r="D246" s="45" t="n"/>
-      <c r="G246" s="45" t="n"/>
+      <c r="C246" s="65" t="n"/>
+      <c r="D246" s="65" t="n"/>
+      <c r="G246" s="64" t="n"/>
     </row>
     <row r="247" spans="1:10">
-      <c r="C247" s="45" t="n"/>
-      <c r="D247" s="45" t="n"/>
-      <c r="G247" s="45" t="n"/>
+      <c r="C247" s="66" t="n"/>
+      <c r="D247" s="66" t="n"/>
+      <c r="G247" s="66" t="n"/>
     </row>
     <row r="248" spans="1:10">
-      <c r="C248" s="46" t="n"/>
-      <c r="D248" s="46" t="n"/>
-      <c r="G248" s="46" t="n"/>
+      <c r="C248" s="68" t="n"/>
+      <c r="D248" s="68" t="n"/>
+      <c r="G248" s="68" t="n"/>
     </row>
     <row r="249" spans="1:10">
-      <c r="C249" s="48" t="n"/>
-      <c r="D249" s="48" t="n"/>
-      <c r="G249" s="48" t="n"/>
+      <c r="C249" s="70" t="n"/>
+      <c r="D249" s="70" t="n"/>
+      <c r="G249" s="70" t="n"/>
     </row>
     <row r="250" spans="1:10">
-      <c r="C250" s="48" t="n"/>
-      <c r="D250" s="48" t="n"/>
-      <c r="G250" s="48" t="n"/>
+      <c r="C250" s="43" t="n"/>
+      <c r="D250" s="43" t="n"/>
+      <c r="G250" s="42" t="n"/>
     </row>
     <row r="251" spans="1:10">
-      <c r="C251" s="51" t="n"/>
-      <c r="D251" s="51" t="n"/>
-      <c r="G251" s="51" t="n"/>
+      <c r="C251" s="42" t="n"/>
+      <c r="D251" s="42" t="n"/>
+      <c r="G251" s="43" t="n"/>
     </row>
     <row r="252" spans="1:10">
-      <c r="C252" s="53" t="n"/>
-      <c r="D252" s="53" t="n"/>
-      <c r="G252" s="53" t="n"/>
+      <c r="C252" s="45" t="n"/>
+      <c r="D252" s="45" t="n"/>
+      <c r="G252" s="44" t="n"/>
     </row>
     <row r="253" spans="1:10">
-      <c r="C253" s="55" t="n"/>
-      <c r="D253" s="55" t="n"/>
-      <c r="G253" s="55" t="n"/>
+      <c r="C253" s="42" t="n"/>
+      <c r="D253" s="42" t="n"/>
+      <c r="G253" s="43" t="n"/>
     </row>
     <row r="254" spans="1:10">
-      <c r="C254" s="55" t="n"/>
-      <c r="D254" s="55" t="n"/>
-      <c r="G254" s="55" t="n"/>
+      <c r="C254" s="44" t="n"/>
+      <c r="D254" s="44" t="n"/>
+      <c r="G254" s="45" t="n"/>
     </row>
     <row r="255" spans="1:10">
-      <c r="C255" s="55" t="n"/>
-      <c r="D255" s="55" t="n"/>
-      <c r="G255" s="55" t="n"/>
+      <c r="C255" s="42" t="n"/>
+      <c r="D255" s="42" t="n"/>
+      <c r="G255" s="43" t="n"/>
     </row>
     <row r="256" spans="1:10">
-      <c r="C256" s="55" t="n"/>
-      <c r="D256" s="55" t="n"/>
-      <c r="G256" s="55" t="n"/>
+      <c r="C256" s="44" t="n"/>
+      <c r="D256" s="44" t="n"/>
+      <c r="G256" s="45" t="n"/>
     </row>
     <row r="257" spans="1:10">
-      <c r="C257" s="56" t="n"/>
-      <c r="D257" s="56" t="n"/>
-      <c r="G257" s="56" t="n"/>
+      <c r="C257" s="42" t="n"/>
+      <c r="D257" s="42" t="n"/>
+      <c r="G257" s="43" t="n"/>
     </row>
     <row r="258" spans="1:10">
-      <c r="C258" s="59" t="n"/>
-      <c r="D258" s="59" t="n"/>
-      <c r="G258" s="58" t="n"/>
+      <c r="C258" s="42" t="n"/>
+      <c r="D258" s="42" t="n"/>
+      <c r="G258" s="43" t="n"/>
     </row>
     <row r="259" spans="1:10">
-      <c r="C259" s="61" t="n"/>
-      <c r="D259" s="61" t="n"/>
-      <c r="G259" s="60" t="n"/>
+      <c r="C259" s="44" t="n"/>
+      <c r="D259" s="44" t="n"/>
+      <c r="G259" s="45" t="n"/>
     </row>
     <row r="260" spans="1:10">
-      <c r="C260" s="63" t="n"/>
-      <c r="D260" s="63" t="n"/>
-      <c r="G260" s="62" t="n"/>
+      <c r="C260" s="42" t="n"/>
+      <c r="D260" s="43" t="n"/>
+      <c r="G260" s="43" t="n"/>
     </row>
     <row r="261" spans="1:10">
-      <c r="C261" s="63" t="n"/>
-      <c r="D261" s="63" t="n"/>
-      <c r="G261" s="62" t="n"/>
+      <c r="C261" s="45" t="n"/>
+      <c r="D261" s="45" t="n"/>
+      <c r="G261" s="45" t="n"/>
     </row>
     <row r="262" spans="1:10">
-      <c r="C262" s="65" t="n"/>
-      <c r="D262" s="65" t="n"/>
-      <c r="G262" s="64" t="n"/>
+      <c r="C262" s="45" t="n"/>
+      <c r="D262" s="45" t="n"/>
+      <c r="G262" s="45" t="n"/>
     </row>
     <row r="263" spans="1:10">
-      <c r="C263" s="67" t="n"/>
-      <c r="D263" s="67" t="n"/>
-      <c r="G263" s="66" t="n"/>
+      <c r="C263" s="45" t="n"/>
+      <c r="D263" s="45" t="n"/>
+      <c r="G263" s="45" t="n"/>
     </row>
     <row r="264" spans="1:10">
-      <c r="C264" s="69" t="n"/>
-      <c r="D264" s="69" t="n"/>
-      <c r="G264" s="68" t="n"/>
+      <c r="C264" s="46" t="n"/>
+      <c r="D264" s="46" t="n"/>
+      <c r="G264" s="46" t="n"/>
     </row>
     <row r="265" spans="1:10">
-      <c r="C265" s="71" t="n"/>
-      <c r="D265" s="71" t="n"/>
-      <c r="G265" s="70" t="n"/>
+      <c r="C265" s="48" t="n"/>
+      <c r="D265" s="48" t="n"/>
+      <c r="G265" s="48" t="n"/>
     </row>
     <row r="266" spans="1:10">
-      <c r="C266" s="42" t="n"/>
-      <c r="D266" s="42" t="n"/>
-      <c r="G266" s="43" t="n"/>
+      <c r="C266" s="48" t="n"/>
+      <c r="D266" s="48" t="n"/>
+      <c r="G266" s="48" t="n"/>
     </row>
     <row r="267" spans="1:10">
-      <c r="C267" s="43" t="n"/>
-      <c r="D267" s="43" t="n"/>
-      <c r="G267" s="43" t="n"/>
+      <c r="C267" s="51" t="n"/>
+      <c r="D267" s="51" t="n"/>
+      <c r="G267" s="51" t="n"/>
     </row>
     <row r="268" spans="1:10">
-      <c r="C268" s="45" t="n"/>
-      <c r="D268" s="45" t="n"/>
-      <c r="G268" s="45" t="n"/>
+      <c r="C268" s="53" t="n"/>
+      <c r="D268" s="53" t="n"/>
+      <c r="G268" s="53" t="n"/>
     </row>
     <row r="269" spans="1:10">
-      <c r="C269" s="43" t="n"/>
-      <c r="D269" s="43" t="n"/>
-      <c r="G269" s="43" t="n"/>
+      <c r="C269" s="55" t="n"/>
+      <c r="D269" s="55" t="n"/>
+      <c r="G269" s="55" t="n"/>
     </row>
     <row r="270" spans="1:10">
-      <c r="C270" s="45" t="n"/>
-      <c r="D270" s="45" t="n"/>
-      <c r="G270" s="45" t="n"/>
+      <c r="C270" s="55" t="n"/>
+      <c r="D270" s="55" t="n"/>
+      <c r="G270" s="55" t="n"/>
     </row>
     <row r="271" spans="1:10">
-      <c r="C271" s="43" t="n"/>
-      <c r="D271" s="43" t="n"/>
-      <c r="G271" s="42" t="n"/>
+      <c r="C271" s="55" t="n"/>
+      <c r="D271" s="55" t="n"/>
+      <c r="G271" s="55" t="n"/>
     </row>
     <row r="272" spans="1:10">
-      <c r="C272" s="45" t="n"/>
-      <c r="D272" s="45" t="n"/>
-      <c r="G272" s="45" t="n"/>
+      <c r="C272" s="55" t="n"/>
+      <c r="D272" s="55" t="n"/>
+      <c r="G272" s="55" t="n"/>
     </row>
     <row r="273" spans="1:10">
-      <c r="C273" s="42" t="n"/>
-      <c r="D273" s="42" t="n"/>
-      <c r="G273" s="43" t="n"/>
+      <c r="C273" s="56" t="n"/>
+      <c r="D273" s="56" t="n"/>
+      <c r="G273" s="56" t="n"/>
     </row>
     <row r="274" spans="1:10">
-      <c r="C274" s="45" t="n"/>
-      <c r="D274" s="45" t="n"/>
-      <c r="G274" s="45" t="n"/>
+      <c r="C274" s="59" t="n"/>
+      <c r="D274" s="59" t="n"/>
+      <c r="G274" s="58" t="n"/>
     </row>
     <row r="275" spans="1:10">
-      <c r="C275" s="56" t="n"/>
-      <c r="D275" s="56" t="n"/>
-      <c r="G275" s="56" t="n"/>
+      <c r="C275" s="61" t="n"/>
+      <c r="D275" s="61" t="n"/>
+      <c r="G275" s="60" t="n"/>
     </row>
     <row r="276" spans="1:10">
-      <c r="C276" s="58" t="n"/>
-      <c r="D276" s="58" t="n"/>
-      <c r="G276" s="58" t="n"/>
+      <c r="C276" s="63" t="n"/>
+      <c r="D276" s="63" t="n"/>
+      <c r="G276" s="62" t="n"/>
     </row>
     <row r="277" spans="1:10">
-      <c r="C277" s="61" t="n"/>
-      <c r="D277" s="61" t="n"/>
-      <c r="G277" s="60" t="n"/>
+      <c r="C277" s="63" t="n"/>
+      <c r="D277" s="63" t="n"/>
+      <c r="G277" s="62" t="n"/>
     </row>
     <row r="278" spans="1:10">
-      <c r="C278" s="63" t="n"/>
-      <c r="D278" s="63" t="n"/>
-      <c r="G278" s="62" t="n"/>
+      <c r="C278" s="65" t="n"/>
+      <c r="D278" s="65" t="n"/>
+      <c r="G278" s="64" t="n"/>
     </row>
     <row r="279" spans="1:10">
-      <c r="C279" s="63" t="n"/>
-      <c r="D279" s="63" t="n"/>
-      <c r="G279" s="62" t="n"/>
+      <c r="C279" s="67" t="n"/>
+      <c r="D279" s="67" t="n"/>
+      <c r="G279" s="66" t="n"/>
     </row>
     <row r="280" spans="1:10">
-      <c r="C280" s="65" t="n"/>
-      <c r="D280" s="65" t="n"/>
-      <c r="G280" s="64" t="n"/>
+      <c r="C280" s="69" t="n"/>
+      <c r="D280" s="69" t="n"/>
+      <c r="G280" s="68" t="n"/>
     </row>
     <row r="281" spans="1:10">
-      <c r="C281" s="66" t="n"/>
-      <c r="D281" s="66" t="n"/>
-      <c r="G281" s="66" t="n"/>
+      <c r="C281" s="71" t="n"/>
+      <c r="D281" s="71" t="n"/>
+      <c r="G281" s="70" t="n"/>
     </row>
     <row r="282" spans="1:10">
-      <c r="C282" s="68" t="n"/>
-      <c r="D282" s="68" t="n"/>
-      <c r="G282" s="68" t="n"/>
+      <c r="C282" s="42" t="n"/>
+      <c r="D282" s="42" t="n"/>
+      <c r="G282" s="43" t="n"/>
     </row>
     <row r="283" spans="1:10">
-      <c r="C283" s="70" t="n"/>
-      <c r="D283" s="70" t="n"/>
-      <c r="G283" s="70" t="n"/>
+      <c r="C283" s="43" t="n"/>
+      <c r="D283" s="43" t="n"/>
+      <c r="G283" s="43" t="n"/>
     </row>
     <row r="284" spans="1:10">
-      <c r="C284" s="44" t="n"/>
-      <c r="D284" s="44" t="n"/>
-      <c r="G284" s="44" t="n"/>
+      <c r="C284" s="45" t="n"/>
+      <c r="D284" s="45" t="n"/>
+      <c r="G284" s="45" t="n"/>
     </row>
     <row r="285" spans="1:10">
-      <c r="C285" s="44" t="n"/>
-      <c r="D285" s="44" t="n"/>
-      <c r="G285" s="45" t="n"/>
+      <c r="C285" s="43" t="n"/>
+      <c r="D285" s="43" t="n"/>
+      <c r="G285" s="43" t="n"/>
     </row>
     <row r="286" spans="1:10">
-      <c r="C286" s="44" t="n"/>
-      <c r="D286" s="44" t="n"/>
-      <c r="G286" s="44" t="n"/>
+      <c r="C286" s="45" t="n"/>
+      <c r="D286" s="45" t="n"/>
+      <c r="G286" s="45" t="n"/>
     </row>
     <row r="287" spans="1:10">
-      <c r="C287" s="45" t="n"/>
-      <c r="D287" s="45" t="n"/>
-      <c r="G287" s="44" t="n"/>
+      <c r="C287" s="43" t="n"/>
+      <c r="D287" s="43" t="n"/>
+      <c r="G287" s="42" t="n"/>
     </row>
     <row r="288" spans="1:10">
-      <c r="C288" s="44" t="n"/>
-      <c r="D288" s="44" t="n"/>
+      <c r="C288" s="45" t="n"/>
+      <c r="D288" s="45" t="n"/>
       <c r="G288" s="45" t="n"/>
     </row>
     <row r="289" spans="1:10">
-      <c r="C289" s="45" t="n"/>
-      <c r="D289" s="45" t="n"/>
-      <c r="G289" s="45" t="n"/>
+      <c r="C289" s="42" t="n"/>
+      <c r="D289" s="42" t="n"/>
+      <c r="G289" s="43" t="n"/>
     </row>
     <row r="290" spans="1:10">
       <c r="C290" s="45" t="n"/>
@@ -3834,129 +4412,129 @@
       <c r="G290" s="45" t="n"/>
     </row>
     <row r="291" spans="1:10">
-      <c r="C291" s="45" t="n"/>
-      <c r="D291" s="45" t="n"/>
-      <c r="G291" s="44" t="n"/>
+      <c r="C291" s="56" t="n"/>
+      <c r="D291" s="56" t="n"/>
+      <c r="G291" s="56" t="n"/>
     </row>
     <row r="292" spans="1:10">
-      <c r="C292" s="44" t="n"/>
-      <c r="D292" s="44" t="n"/>
-      <c r="G292" s="45" t="n"/>
+      <c r="C292" s="58" t="n"/>
+      <c r="D292" s="58" t="n"/>
+      <c r="G292" s="58" t="n"/>
     </row>
     <row r="293" spans="1:10">
-      <c r="C293" s="56" t="n"/>
-      <c r="D293" s="56" t="n"/>
-      <c r="G293" s="56" t="n"/>
+      <c r="C293" s="61" t="n"/>
+      <c r="D293" s="61" t="n"/>
+      <c r="G293" s="60" t="n"/>
     </row>
     <row r="294" spans="1:10">
-      <c r="C294" s="41" t="n"/>
-      <c r="D294" s="41" t="n"/>
-      <c r="G294" s="41" t="n"/>
+      <c r="C294" s="63" t="n"/>
+      <c r="D294" s="63" t="n"/>
+      <c r="G294" s="62" t="n"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="C295" s="41" t="n"/>
-      <c r="D295" s="41" t="n"/>
-      <c r="G295" s="41" t="n"/>
+      <c r="C295" s="63" t="n"/>
+      <c r="D295" s="63" t="n"/>
+      <c r="G295" s="62" t="n"/>
     </row>
     <row r="296" spans="1:10">
-      <c r="C296" s="35" t="n"/>
-      <c r="D296" s="35" t="n"/>
-      <c r="G296" s="34" t="n"/>
+      <c r="C296" s="65" t="n"/>
+      <c r="D296" s="65" t="n"/>
+      <c r="G296" s="64" t="n"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="C297" s="35" t="n"/>
-      <c r="D297" s="35" t="n"/>
-      <c r="G297" s="34" t="n"/>
+      <c r="C297" s="66" t="n"/>
+      <c r="D297" s="66" t="n"/>
+      <c r="G297" s="66" t="n"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="C298" s="37" t="n"/>
-      <c r="D298" s="37" t="n"/>
-      <c r="G298" s="36" t="n"/>
+      <c r="C298" s="68" t="n"/>
+      <c r="D298" s="68" t="n"/>
+      <c r="G298" s="68" t="n"/>
     </row>
     <row r="299" spans="1:10">
-      <c r="C299" s="39" t="n"/>
-      <c r="D299" s="39" t="n"/>
-      <c r="G299" s="38" t="n"/>
+      <c r="C299" s="70" t="n"/>
+      <c r="D299" s="70" t="n"/>
+      <c r="G299" s="70" t="n"/>
     </row>
     <row r="300" spans="1:10">
-      <c r="C300" s="41" t="n"/>
-      <c r="D300" s="41" t="n"/>
-      <c r="G300" s="40" t="n"/>
+      <c r="C300" s="44" t="n"/>
+      <c r="D300" s="44" t="n"/>
+      <c r="G300" s="44" t="n"/>
     </row>
     <row r="301" spans="1:10">
-      <c r="C301" s="41" t="n"/>
-      <c r="D301" s="41" t="n"/>
-      <c r="G301" s="40" t="n"/>
+      <c r="C301" s="44" t="n"/>
+      <c r="D301" s="44" t="n"/>
+      <c r="G301" s="45" t="n"/>
     </row>
     <row r="302" spans="1:10">
-      <c r="C302" s="41" t="n"/>
-      <c r="D302" s="41" t="n"/>
-      <c r="G302" s="40" t="n"/>
+      <c r="C302" s="44" t="n"/>
+      <c r="D302" s="44" t="n"/>
+      <c r="G302" s="44" t="n"/>
     </row>
     <row r="303" spans="1:10">
-      <c r="C303" s="34" t="n"/>
-      <c r="D303" s="34" t="n"/>
-      <c r="G303" s="35" t="n"/>
+      <c r="C303" s="45" t="n"/>
+      <c r="D303" s="45" t="n"/>
+      <c r="G303" s="44" t="n"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="C304" s="34" t="n"/>
-      <c r="D304" s="34" t="n"/>
-      <c r="G304" s="35" t="n"/>
+      <c r="C304" s="44" t="n"/>
+      <c r="D304" s="44" t="n"/>
+      <c r="G304" s="45" t="n"/>
     </row>
     <row r="305" spans="1:10">
-      <c r="C305" s="36" t="n"/>
-      <c r="D305" s="36" t="n"/>
-      <c r="G305" s="37" t="n"/>
+      <c r="C305" s="45" t="n"/>
+      <c r="D305" s="45" t="n"/>
+      <c r="G305" s="45" t="n"/>
     </row>
     <row r="306" spans="1:10">
-      <c r="C306" s="38" t="n"/>
-      <c r="D306" s="38" t="n"/>
-      <c r="G306" s="39" t="n"/>
+      <c r="C306" s="45" t="n"/>
+      <c r="D306" s="45" t="n"/>
+      <c r="G306" s="45" t="n"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="C307" s="40" t="n"/>
-      <c r="D307" s="40" t="n"/>
-      <c r="G307" s="41" t="n"/>
+      <c r="C307" s="45" t="n"/>
+      <c r="D307" s="45" t="n"/>
+      <c r="G307" s="44" t="n"/>
     </row>
     <row r="308" spans="1:10">
-      <c r="C308" s="40" t="n"/>
-      <c r="D308" s="40" t="n"/>
-      <c r="G308" s="41" t="n"/>
+      <c r="C308" s="44" t="n"/>
+      <c r="D308" s="44" t="n"/>
+      <c r="G308" s="45" t="n"/>
     </row>
     <row r="309" spans="1:10">
-      <c r="C309" s="40" t="n"/>
-      <c r="D309" s="40" t="n"/>
-      <c r="G309" s="41" t="n"/>
+      <c r="C309" s="56" t="n"/>
+      <c r="D309" s="56" t="n"/>
+      <c r="G309" s="56" t="n"/>
     </row>
     <row r="310" spans="1:10">
-      <c r="C310" s="35" t="n"/>
-      <c r="D310" s="35" t="n"/>
-      <c r="G310" s="34" t="n"/>
+      <c r="C310" s="41" t="n"/>
+      <c r="D310" s="41" t="n"/>
+      <c r="G310" s="41" t="n"/>
     </row>
     <row r="311" spans="1:10">
-      <c r="C311" s="35" t="n"/>
-      <c r="D311" s="35" t="n"/>
-      <c r="G311" s="34" t="n"/>
+      <c r="C311" s="41" t="n"/>
+      <c r="D311" s="41" t="n"/>
+      <c r="G311" s="41" t="n"/>
     </row>
     <row r="312" spans="1:10">
-      <c r="C312" s="37" t="n"/>
-      <c r="D312" s="37" t="n"/>
-      <c r="G312" s="36" t="n"/>
+      <c r="C312" s="35" t="n"/>
+      <c r="D312" s="35" t="n"/>
+      <c r="G312" s="34" t="n"/>
     </row>
     <row r="313" spans="1:10">
-      <c r="C313" s="39" t="n"/>
-      <c r="D313" s="39" t="n"/>
-      <c r="G313" s="38" t="n"/>
+      <c r="C313" s="35" t="n"/>
+      <c r="D313" s="35" t="n"/>
+      <c r="G313" s="34" t="n"/>
     </row>
     <row r="314" spans="1:10">
-      <c r="C314" s="41" t="n"/>
-      <c r="D314" s="41" t="n"/>
-      <c r="G314" s="40" t="n"/>
+      <c r="C314" s="37" t="n"/>
+      <c r="D314" s="37" t="n"/>
+      <c r="G314" s="36" t="n"/>
     </row>
     <row r="315" spans="1:10">
-      <c r="C315" s="41" t="n"/>
-      <c r="D315" s="41" t="n"/>
-      <c r="G315" s="40" t="n"/>
+      <c r="C315" s="39" t="n"/>
+      <c r="D315" s="39" t="n"/>
+      <c r="G315" s="38" t="n"/>
     </row>
     <row r="316" spans="1:10">
       <c r="C316" s="41" t="n"/>
@@ -3964,174 +4542,174 @@
       <c r="G316" s="40" t="n"/>
     </row>
     <row r="317" spans="1:10">
-      <c r="C317" s="35" t="n"/>
-      <c r="D317" s="35" t="n"/>
-      <c r="G317" s="34" t="n"/>
+      <c r="C317" s="41" t="n"/>
+      <c r="D317" s="41" t="n"/>
+      <c r="G317" s="40" t="n"/>
     </row>
     <row r="318" spans="1:10">
-      <c r="C318" s="35" t="n"/>
-      <c r="D318" s="35" t="n"/>
-      <c r="G318" s="34" t="n"/>
+      <c r="C318" s="41" t="n"/>
+      <c r="D318" s="41" t="n"/>
+      <c r="G318" s="40" t="n"/>
     </row>
     <row r="319" spans="1:10">
-      <c r="C319" s="37" t="n"/>
-      <c r="D319" s="37" t="n"/>
-      <c r="G319" s="36" t="n"/>
+      <c r="C319" s="34" t="n"/>
+      <c r="D319" s="34" t="n"/>
+      <c r="G319" s="35" t="n"/>
     </row>
     <row r="320" spans="1:10">
-      <c r="C320" s="39" t="n"/>
-      <c r="D320" s="39" t="n"/>
-      <c r="G320" s="38" t="n"/>
+      <c r="C320" s="34" t="n"/>
+      <c r="D320" s="34" t="n"/>
+      <c r="G320" s="35" t="n"/>
     </row>
     <row r="321" spans="1:10">
-      <c r="C321" s="41" t="n"/>
-      <c r="D321" s="41" t="n"/>
-      <c r="G321" s="40" t="n"/>
+      <c r="C321" s="36" t="n"/>
+      <c r="D321" s="36" t="n"/>
+      <c r="G321" s="37" t="n"/>
     </row>
     <row r="322" spans="1:10">
-      <c r="C322" s="41" t="n"/>
-      <c r="D322" s="41" t="n"/>
-      <c r="G322" s="40" t="n"/>
+      <c r="C322" s="38" t="n"/>
+      <c r="D322" s="38" t="n"/>
+      <c r="G322" s="39" t="n"/>
     </row>
     <row r="323" spans="1:10">
-      <c r="C323" s="41" t="n"/>
-      <c r="D323" s="41" t="n"/>
-      <c r="G323" s="40" t="n"/>
+      <c r="C323" s="40" t="n"/>
+      <c r="D323" s="40" t="n"/>
+      <c r="G323" s="41" t="n"/>
     </row>
     <row r="324" spans="1:10">
-      <c r="C324" s="35" t="n"/>
-      <c r="D324" s="35" t="n"/>
-      <c r="G324" s="34" t="n"/>
+      <c r="C324" s="40" t="n"/>
+      <c r="D324" s="40" t="n"/>
+      <c r="G324" s="41" t="n"/>
     </row>
     <row r="325" spans="1:10">
-      <c r="C325" s="34" t="n"/>
-      <c r="D325" s="34" t="n"/>
-      <c r="G325" s="34" t="n"/>
+      <c r="C325" s="40" t="n"/>
+      <c r="D325" s="40" t="n"/>
+      <c r="G325" s="41" t="n"/>
     </row>
     <row r="326" spans="1:10">
-      <c r="C326" s="36" t="n"/>
-      <c r="D326" s="36" t="n"/>
-      <c r="G326" s="36" t="n"/>
+      <c r="C326" s="35" t="n"/>
+      <c r="D326" s="35" t="n"/>
+      <c r="G326" s="34" t="n"/>
     </row>
     <row r="327" spans="1:10">
-      <c r="C327" s="38" t="n"/>
-      <c r="D327" s="38" t="n"/>
-      <c r="G327" s="38" t="n"/>
+      <c r="C327" s="35" t="n"/>
+      <c r="D327" s="35" t="n"/>
+      <c r="G327" s="34" t="n"/>
     </row>
     <row r="328" spans="1:10">
-      <c r="C328" s="40" t="n"/>
-      <c r="D328" s="41" t="n"/>
-      <c r="G328" s="40" t="n"/>
+      <c r="C328" s="37" t="n"/>
+      <c r="D328" s="37" t="n"/>
+      <c r="G328" s="36" t="n"/>
     </row>
     <row r="329" spans="1:10">
-      <c r="C329" s="40" t="n"/>
-      <c r="D329" s="40" t="n"/>
-      <c r="G329" s="40" t="n"/>
+      <c r="C329" s="39" t="n"/>
+      <c r="D329" s="39" t="n"/>
+      <c r="G329" s="38" t="n"/>
     </row>
     <row r="330" spans="1:10">
-      <c r="C330" s="40" t="n"/>
-      <c r="D330" s="40" t="n"/>
+      <c r="C330" s="41" t="n"/>
+      <c r="D330" s="41" t="n"/>
       <c r="G330" s="40" t="n"/>
     </row>
     <row r="331" spans="1:10">
-      <c r="C331" s="34" t="n"/>
-      <c r="D331" s="34" t="n"/>
-      <c r="G331" s="35" t="n"/>
+      <c r="C331" s="41" t="n"/>
+      <c r="D331" s="41" t="n"/>
+      <c r="G331" s="40" t="n"/>
     </row>
     <row r="332" spans="1:10">
-      <c r="C332" s="34" t="n"/>
-      <c r="D332" s="34" t="n"/>
-      <c r="G332" s="35" t="n"/>
+      <c r="C332" s="41" t="n"/>
+      <c r="D332" s="41" t="n"/>
+      <c r="G332" s="40" t="n"/>
     </row>
     <row r="333" spans="1:10">
-      <c r="C333" s="36" t="n"/>
-      <c r="D333" s="36" t="n"/>
-      <c r="G333" s="37" t="n"/>
+      <c r="C333" s="35" t="n"/>
+      <c r="D333" s="35" t="n"/>
+      <c r="G333" s="34" t="n"/>
     </row>
     <row r="334" spans="1:10">
-      <c r="C334" s="38" t="n"/>
-      <c r="D334" s="38" t="n"/>
-      <c r="G334" s="39" t="n"/>
+      <c r="C334" s="35" t="n"/>
+      <c r="D334" s="35" t="n"/>
+      <c r="G334" s="34" t="n"/>
     </row>
     <row r="335" spans="1:10">
-      <c r="C335" s="40" t="n"/>
-      <c r="D335" s="40" t="n"/>
-      <c r="G335" s="41" t="n"/>
+      <c r="C335" s="37" t="n"/>
+      <c r="D335" s="37" t="n"/>
+      <c r="G335" s="36" t="n"/>
     </row>
     <row r="336" spans="1:10">
-      <c r="C336" s="40" t="n"/>
-      <c r="D336" s="40" t="n"/>
-      <c r="G336" s="41" t="n"/>
+      <c r="C336" s="39" t="n"/>
+      <c r="D336" s="39" t="n"/>
+      <c r="G336" s="38" t="n"/>
     </row>
     <row r="337" spans="1:10">
-      <c r="C337" s="40" t="n"/>
-      <c r="D337" s="40" t="n"/>
-      <c r="G337" s="41" t="n"/>
+      <c r="C337" s="41" t="n"/>
+      <c r="D337" s="41" t="n"/>
+      <c r="G337" s="40" t="n"/>
     </row>
     <row r="338" spans="1:10">
-      <c r="C338" s="34" t="n"/>
-      <c r="D338" s="34" t="n"/>
-      <c r="G338" s="34" t="n"/>
+      <c r="C338" s="41" t="n"/>
+      <c r="D338" s="41" t="n"/>
+      <c r="G338" s="40" t="n"/>
     </row>
     <row r="339" spans="1:10">
-      <c r="C339" s="34" t="n"/>
-      <c r="D339" s="34" t="n"/>
-      <c r="G339" s="34" t="n"/>
+      <c r="C339" s="41" t="n"/>
+      <c r="D339" s="41" t="n"/>
+      <c r="G339" s="40" t="n"/>
     </row>
     <row r="340" spans="1:10">
-      <c r="C340" s="36" t="n"/>
-      <c r="D340" s="36" t="n"/>
-      <c r="G340" s="36" t="n"/>
+      <c r="C340" s="35" t="n"/>
+      <c r="D340" s="35" t="n"/>
+      <c r="G340" s="34" t="n"/>
     </row>
     <row r="341" spans="1:10">
-      <c r="C341" s="38" t="n"/>
-      <c r="D341" s="38" t="n"/>
-      <c r="G341" s="38" t="n"/>
+      <c r="C341" s="34" t="n"/>
+      <c r="D341" s="34" t="n"/>
+      <c r="G341" s="34" t="n"/>
     </row>
     <row r="342" spans="1:10">
-      <c r="C342" s="40" t="n"/>
-      <c r="D342" s="40" t="n"/>
-      <c r="G342" s="40" t="n"/>
+      <c r="C342" s="36" t="n"/>
+      <c r="D342" s="36" t="n"/>
+      <c r="G342" s="36" t="n"/>
     </row>
     <row r="343" spans="1:10">
-      <c r="C343" s="40" t="n"/>
-      <c r="D343" s="40" t="n"/>
-      <c r="G343" s="40" t="n"/>
+      <c r="C343" s="38" t="n"/>
+      <c r="D343" s="38" t="n"/>
+      <c r="G343" s="38" t="n"/>
     </row>
     <row r="344" spans="1:10">
       <c r="C344" s="40" t="n"/>
-      <c r="D344" s="40" t="n"/>
+      <c r="D344" s="41" t="n"/>
       <c r="G344" s="40" t="n"/>
     </row>
     <row r="345" spans="1:10">
-      <c r="C345" s="34" t="n"/>
-      <c r="D345" s="34" t="n"/>
-      <c r="G345" s="35" t="n"/>
+      <c r="C345" s="40" t="n"/>
+      <c r="D345" s="40" t="n"/>
+      <c r="G345" s="40" t="n"/>
     </row>
     <row r="346" spans="1:10">
-      <c r="C346" s="34" t="n"/>
-      <c r="D346" s="34" t="n"/>
-      <c r="G346" s="35" t="n"/>
+      <c r="C346" s="40" t="n"/>
+      <c r="D346" s="40" t="n"/>
+      <c r="G346" s="40" t="n"/>
     </row>
     <row r="347" spans="1:10">
-      <c r="C347" s="36" t="n"/>
-      <c r="D347" s="36" t="n"/>
-      <c r="G347" s="37" t="n"/>
+      <c r="C347" s="34" t="n"/>
+      <c r="D347" s="34" t="n"/>
+      <c r="G347" s="35" t="n"/>
     </row>
     <row r="348" spans="1:10">
-      <c r="C348" s="38" t="n"/>
-      <c r="D348" s="38" t="n"/>
-      <c r="G348" s="39" t="n"/>
+      <c r="C348" s="34" t="n"/>
+      <c r="D348" s="34" t="n"/>
+      <c r="G348" s="35" t="n"/>
     </row>
     <row r="349" spans="1:10">
-      <c r="C349" s="40" t="n"/>
-      <c r="D349" s="40" t="n"/>
-      <c r="G349" s="41" t="n"/>
+      <c r="C349" s="36" t="n"/>
+      <c r="D349" s="36" t="n"/>
+      <c r="G349" s="37" t="n"/>
     </row>
     <row r="350" spans="1:10">
-      <c r="C350" s="40" t="n"/>
-      <c r="D350" s="40" t="n"/>
-      <c r="G350" s="41" t="n"/>
+      <c r="C350" s="38" t="n"/>
+      <c r="D350" s="38" t="n"/>
+      <c r="G350" s="39" t="n"/>
     </row>
     <row r="351" spans="1:10">
       <c r="C351" s="40" t="n"/>
@@ -4139,69 +4717,69 @@
       <c r="G351" s="41" t="n"/>
     </row>
     <row r="352" spans="1:10">
-      <c r="C352" s="35" t="n"/>
-      <c r="D352" s="35" t="n"/>
-      <c r="G352" s="34" t="n"/>
+      <c r="C352" s="40" t="n"/>
+      <c r="D352" s="40" t="n"/>
+      <c r="G352" s="41" t="n"/>
     </row>
     <row r="353" spans="1:10">
-      <c r="C353" s="35" t="n"/>
-      <c r="D353" s="35" t="n"/>
-      <c r="G353" s="34" t="n"/>
+      <c r="C353" s="40" t="n"/>
+      <c r="D353" s="40" t="n"/>
+      <c r="G353" s="41" t="n"/>
     </row>
     <row r="354" spans="1:10">
-      <c r="C354" s="37" t="n"/>
-      <c r="D354" s="37" t="n"/>
-      <c r="G354" s="36" t="n"/>
+      <c r="C354" s="34" t="n"/>
+      <c r="D354" s="34" t="n"/>
+      <c r="G354" s="34" t="n"/>
     </row>
     <row r="355" spans="1:10">
-      <c r="C355" s="39" t="n"/>
-      <c r="D355" s="39" t="n"/>
-      <c r="G355" s="38" t="n"/>
+      <c r="C355" s="34" t="n"/>
+      <c r="D355" s="34" t="n"/>
+      <c r="G355" s="34" t="n"/>
     </row>
     <row r="356" spans="1:10">
-      <c r="C356" s="41" t="n"/>
-      <c r="D356" s="41" t="n"/>
-      <c r="G356" s="40" t="n"/>
+      <c r="C356" s="36" t="n"/>
+      <c r="D356" s="36" t="n"/>
+      <c r="G356" s="36" t="n"/>
     </row>
     <row r="357" spans="1:10">
-      <c r="C357" s="41" t="n"/>
-      <c r="D357" s="41" t="n"/>
-      <c r="G357" s="40" t="n"/>
+      <c r="C357" s="38" t="n"/>
+      <c r="D357" s="38" t="n"/>
+      <c r="G357" s="38" t="n"/>
     </row>
     <row r="358" spans="1:10">
-      <c r="C358" s="41" t="n"/>
-      <c r="D358" s="41" t="n"/>
+      <c r="C358" s="40" t="n"/>
+      <c r="D358" s="40" t="n"/>
       <c r="G358" s="40" t="n"/>
     </row>
     <row r="359" spans="1:10">
-      <c r="C359" s="34" t="n"/>
-      <c r="D359" s="34" t="n"/>
-      <c r="G359" s="35" t="n"/>
+      <c r="C359" s="40" t="n"/>
+      <c r="D359" s="40" t="n"/>
+      <c r="G359" s="40" t="n"/>
     </row>
     <row r="360" spans="1:10">
-      <c r="C360" s="34" t="n"/>
-      <c r="D360" s="34" t="n"/>
-      <c r="G360" s="35" t="n"/>
+      <c r="C360" s="40" t="n"/>
+      <c r="D360" s="40" t="n"/>
+      <c r="G360" s="40" t="n"/>
     </row>
     <row r="361" spans="1:10">
-      <c r="C361" s="36" t="n"/>
-      <c r="D361" s="36" t="n"/>
-      <c r="G361" s="37" t="n"/>
+      <c r="C361" s="34" t="n"/>
+      <c r="D361" s="34" t="n"/>
+      <c r="G361" s="35" t="n"/>
     </row>
     <row r="362" spans="1:10">
-      <c r="C362" s="38" t="n"/>
-      <c r="D362" s="38" t="n"/>
-      <c r="G362" s="39" t="n"/>
+      <c r="C362" s="34" t="n"/>
+      <c r="D362" s="34" t="n"/>
+      <c r="G362" s="35" t="n"/>
     </row>
     <row r="363" spans="1:10">
-      <c r="C363" s="40" t="n"/>
-      <c r="D363" s="40" t="n"/>
-      <c r="G363" s="41" t="n"/>
+      <c r="C363" s="36" t="n"/>
+      <c r="D363" s="36" t="n"/>
+      <c r="G363" s="37" t="n"/>
     </row>
     <row r="364" spans="1:10">
-      <c r="C364" s="40" t="n"/>
-      <c r="D364" s="40" t="n"/>
-      <c r="G364" s="41" t="n"/>
+      <c r="C364" s="38" t="n"/>
+      <c r="D364" s="38" t="n"/>
+      <c r="G364" s="39" t="n"/>
     </row>
     <row r="365" spans="1:10">
       <c r="C365" s="40" t="n"/>
@@ -4209,104 +4787,104 @@
       <c r="G365" s="41" t="n"/>
     </row>
     <row r="366" spans="1:10">
-      <c r="C366" s="34" t="n"/>
-      <c r="D366" s="34" t="n"/>
-      <c r="G366" s="35" t="n"/>
+      <c r="C366" s="40" t="n"/>
+      <c r="D366" s="40" t="n"/>
+      <c r="G366" s="41" t="n"/>
     </row>
     <row r="367" spans="1:10">
-      <c r="C367" s="34" t="n"/>
-      <c r="D367" s="34" t="n"/>
-      <c r="G367" s="35" t="n"/>
+      <c r="C367" s="40" t="n"/>
+      <c r="D367" s="40" t="n"/>
+      <c r="G367" s="41" t="n"/>
     </row>
     <row r="368" spans="1:10">
-      <c r="C368" s="36" t="n"/>
-      <c r="D368" s="36" t="n"/>
-      <c r="G368" s="37" t="n"/>
+      <c r="C368" s="35" t="n"/>
+      <c r="D368" s="35" t="n"/>
+      <c r="G368" s="34" t="n"/>
     </row>
     <row r="369" spans="1:10">
-      <c r="C369" s="38" t="n"/>
-      <c r="D369" s="38" t="n"/>
-      <c r="G369" s="39" t="n"/>
+      <c r="C369" s="35" t="n"/>
+      <c r="D369" s="35" t="n"/>
+      <c r="G369" s="34" t="n"/>
     </row>
     <row r="370" spans="1:10">
-      <c r="C370" s="40" t="n"/>
-      <c r="D370" s="40" t="n"/>
-      <c r="G370" s="41" t="n"/>
+      <c r="C370" s="37" t="n"/>
+      <c r="D370" s="37" t="n"/>
+      <c r="G370" s="36" t="n"/>
     </row>
     <row r="371" spans="1:10">
-      <c r="C371" s="40" t="n"/>
-      <c r="D371" s="40" t="n"/>
-      <c r="G371" s="41" t="n"/>
+      <c r="C371" s="39" t="n"/>
+      <c r="D371" s="39" t="n"/>
+      <c r="G371" s="38" t="n"/>
     </row>
     <row r="372" spans="1:10">
-      <c r="C372" s="40" t="n"/>
-      <c r="D372" s="40" t="n"/>
-      <c r="G372" s="41" t="n"/>
+      <c r="C372" s="41" t="n"/>
+      <c r="D372" s="41" t="n"/>
+      <c r="G372" s="40" t="n"/>
     </row>
     <row r="373" spans="1:10">
-      <c r="C373" s="35" t="n"/>
-      <c r="D373" s="35" t="n"/>
-      <c r="G373" s="34" t="n"/>
+      <c r="C373" s="41" t="n"/>
+      <c r="D373" s="41" t="n"/>
+      <c r="G373" s="40" t="n"/>
     </row>
     <row r="374" spans="1:10">
-      <c r="C374" s="35" t="n"/>
-      <c r="D374" s="35" t="n"/>
-      <c r="G374" s="34" t="n"/>
+      <c r="C374" s="41" t="n"/>
+      <c r="D374" s="41" t="n"/>
+      <c r="G374" s="40" t="n"/>
     </row>
     <row r="375" spans="1:10">
-      <c r="C375" s="37" t="n"/>
-      <c r="D375" s="37" t="n"/>
-      <c r="G375" s="36" t="n"/>
+      <c r="C375" s="34" t="n"/>
+      <c r="D375" s="34" t="n"/>
+      <c r="G375" s="35" t="n"/>
     </row>
     <row r="376" spans="1:10">
-      <c r="C376" s="39" t="n"/>
-      <c r="D376" s="39" t="n"/>
-      <c r="G376" s="38" t="n"/>
+      <c r="C376" s="34" t="n"/>
+      <c r="D376" s="34" t="n"/>
+      <c r="G376" s="35" t="n"/>
     </row>
     <row r="377" spans="1:10">
-      <c r="C377" s="41" t="n"/>
-      <c r="D377" s="41" t="n"/>
-      <c r="G377" s="40" t="n"/>
+      <c r="C377" s="36" t="n"/>
+      <c r="D377" s="36" t="n"/>
+      <c r="G377" s="37" t="n"/>
     </row>
     <row r="378" spans="1:10">
-      <c r="C378" s="41" t="n"/>
-      <c r="D378" s="41" t="n"/>
-      <c r="G378" s="40" t="n"/>
+      <c r="C378" s="38" t="n"/>
+      <c r="D378" s="38" t="n"/>
+      <c r="G378" s="39" t="n"/>
     </row>
     <row r="379" spans="1:10">
-      <c r="C379" s="41" t="n"/>
-      <c r="D379" s="41" t="n"/>
-      <c r="G379" s="40" t="n"/>
+      <c r="C379" s="40" t="n"/>
+      <c r="D379" s="40" t="n"/>
+      <c r="G379" s="41" t="n"/>
     </row>
     <row r="380" spans="1:10">
-      <c r="C380" s="34" t="n"/>
-      <c r="D380" s="34" t="n"/>
-      <c r="G380" s="35" t="n"/>
+      <c r="C380" s="40" t="n"/>
+      <c r="D380" s="40" t="n"/>
+      <c r="G380" s="41" t="n"/>
     </row>
     <row r="381" spans="1:10">
-      <c r="C381" s="34" t="n"/>
-      <c r="D381" s="34" t="n"/>
-      <c r="G381" s="35" t="n"/>
+      <c r="C381" s="40" t="n"/>
+      <c r="D381" s="40" t="n"/>
+      <c r="G381" s="41" t="n"/>
     </row>
     <row r="382" spans="1:10">
-      <c r="C382" s="36" t="n"/>
-      <c r="D382" s="36" t="n"/>
-      <c r="G382" s="37" t="n"/>
+      <c r="C382" s="34" t="n"/>
+      <c r="D382" s="34" t="n"/>
+      <c r="G382" s="35" t="n"/>
     </row>
     <row r="383" spans="1:10">
-      <c r="C383" s="38" t="n"/>
-      <c r="D383" s="38" t="n"/>
-      <c r="G383" s="39" t="n"/>
+      <c r="C383" s="34" t="n"/>
+      <c r="D383" s="34" t="n"/>
+      <c r="G383" s="35" t="n"/>
     </row>
     <row r="384" spans="1:10">
-      <c r="C384" s="40" t="n"/>
-      <c r="D384" s="40" t="n"/>
-      <c r="G384" s="41" t="n"/>
+      <c r="C384" s="36" t="n"/>
+      <c r="D384" s="36" t="n"/>
+      <c r="G384" s="37" t="n"/>
     </row>
     <row r="385" spans="1:10">
-      <c r="C385" s="40" t="n"/>
-      <c r="D385" s="40" t="n"/>
-      <c r="G385" s="41" t="n"/>
+      <c r="C385" s="38" t="n"/>
+      <c r="D385" s="38" t="n"/>
+      <c r="G385" s="39" t="n"/>
     </row>
     <row r="386" spans="1:10">
       <c r="C386" s="40" t="n"/>
@@ -4314,69 +4892,69 @@
       <c r="G386" s="41" t="n"/>
     </row>
     <row r="387" spans="1:10">
-      <c r="C387" s="34" t="n"/>
-      <c r="D387" s="34" t="n"/>
-      <c r="G387" s="35" t="n"/>
+      <c r="C387" s="40" t="n"/>
+      <c r="D387" s="40" t="n"/>
+      <c r="G387" s="41" t="n"/>
     </row>
     <row r="388" spans="1:10">
-      <c r="C388" s="34" t="n"/>
-      <c r="D388" s="34" t="n"/>
-      <c r="G388" s="35" t="n"/>
+      <c r="C388" s="40" t="n"/>
+      <c r="D388" s="40" t="n"/>
+      <c r="G388" s="41" t="n"/>
     </row>
     <row r="389" spans="1:10">
-      <c r="C389" s="36" t="n"/>
-      <c r="D389" s="36" t="n"/>
-      <c r="G389" s="37" t="n"/>
+      <c r="C389" s="35" t="n"/>
+      <c r="D389" s="35" t="n"/>
+      <c r="G389" s="34" t="n"/>
     </row>
     <row r="390" spans="1:10">
-      <c r="C390" s="38" t="n"/>
-      <c r="D390" s="38" t="n"/>
-      <c r="G390" s="39" t="n"/>
+      <c r="C390" s="35" t="n"/>
+      <c r="D390" s="35" t="n"/>
+      <c r="G390" s="34" t="n"/>
     </row>
     <row r="391" spans="1:10">
-      <c r="C391" s="40" t="n"/>
-      <c r="D391" s="40" t="n"/>
-      <c r="G391" s="41" t="n"/>
+      <c r="C391" s="37" t="n"/>
+      <c r="D391" s="37" t="n"/>
+      <c r="G391" s="36" t="n"/>
     </row>
     <row r="392" spans="1:10">
-      <c r="C392" s="40" t="n"/>
-      <c r="D392" s="40" t="n"/>
-      <c r="G392" s="41" t="n"/>
+      <c r="C392" s="39" t="n"/>
+      <c r="D392" s="39" t="n"/>
+      <c r="G392" s="38" t="n"/>
     </row>
     <row r="393" spans="1:10">
-      <c r="C393" s="40" t="n"/>
-      <c r="D393" s="40" t="n"/>
-      <c r="G393" s="41" t="n"/>
+      <c r="C393" s="41" t="n"/>
+      <c r="D393" s="41" t="n"/>
+      <c r="G393" s="40" t="n"/>
     </row>
     <row r="394" spans="1:10">
-      <c r="C394" s="34" t="n"/>
-      <c r="D394" s="34" t="n"/>
-      <c r="G394" s="35" t="n"/>
+      <c r="C394" s="41" t="n"/>
+      <c r="D394" s="41" t="n"/>
+      <c r="G394" s="40" t="n"/>
     </row>
     <row r="395" spans="1:10">
-      <c r="C395" s="34" t="n"/>
-      <c r="D395" s="34" t="n"/>
-      <c r="G395" s="35" t="n"/>
+      <c r="C395" s="41" t="n"/>
+      <c r="D395" s="41" t="n"/>
+      <c r="G395" s="40" t="n"/>
     </row>
     <row r="396" spans="1:10">
-      <c r="C396" s="36" t="n"/>
-      <c r="D396" s="36" t="n"/>
-      <c r="G396" s="37" t="n"/>
+      <c r="C396" s="34" t="n"/>
+      <c r="D396" s="34" t="n"/>
+      <c r="G396" s="35" t="n"/>
     </row>
     <row r="397" spans="1:10">
-      <c r="C397" s="38" t="n"/>
-      <c r="D397" s="38" t="n"/>
-      <c r="G397" s="39" t="n"/>
+      <c r="C397" s="34" t="n"/>
+      <c r="D397" s="34" t="n"/>
+      <c r="G397" s="35" t="n"/>
     </row>
     <row r="398" spans="1:10">
-      <c r="C398" s="40" t="n"/>
-      <c r="D398" s="40" t="n"/>
-      <c r="G398" s="41" t="n"/>
+      <c r="C398" s="36" t="n"/>
+      <c r="D398" s="36" t="n"/>
+      <c r="G398" s="37" t="n"/>
     </row>
     <row r="399" spans="1:10">
-      <c r="C399" s="40" t="n"/>
-      <c r="D399" s="40" t="n"/>
-      <c r="G399" s="41" t="n"/>
+      <c r="C399" s="38" t="n"/>
+      <c r="D399" s="38" t="n"/>
+      <c r="G399" s="39" t="n"/>
     </row>
     <row r="400" spans="1:10">
       <c r="C400" s="40" t="n"/>
@@ -4384,34 +4962,34 @@
       <c r="G400" s="41" t="n"/>
     </row>
     <row r="401" spans="1:10">
-      <c r="C401" s="34" t="n"/>
-      <c r="D401" s="34" t="n"/>
-      <c r="G401" s="35" t="n"/>
+      <c r="C401" s="40" t="n"/>
+      <c r="D401" s="40" t="n"/>
+      <c r="G401" s="41" t="n"/>
     </row>
     <row r="402" spans="1:10">
-      <c r="C402" s="34" t="n"/>
-      <c r="D402" s="34" t="n"/>
-      <c r="G402" s="35" t="n"/>
+      <c r="C402" s="40" t="n"/>
+      <c r="D402" s="40" t="n"/>
+      <c r="G402" s="41" t="n"/>
     </row>
     <row r="403" spans="1:10">
-      <c r="C403" s="36" t="n"/>
-      <c r="D403" s="36" t="n"/>
-      <c r="G403" s="37" t="n"/>
+      <c r="C403" s="34" t="n"/>
+      <c r="D403" s="34" t="n"/>
+      <c r="G403" s="35" t="n"/>
     </row>
     <row r="404" spans="1:10">
-      <c r="C404" s="38" t="n"/>
-      <c r="D404" s="38" t="n"/>
-      <c r="G404" s="39" t="n"/>
+      <c r="C404" s="34" t="n"/>
+      <c r="D404" s="34" t="n"/>
+      <c r="G404" s="35" t="n"/>
     </row>
     <row r="405" spans="1:10">
-      <c r="C405" s="40" t="n"/>
-      <c r="D405" s="40" t="n"/>
-      <c r="G405" s="41" t="n"/>
+      <c r="C405" s="36" t="n"/>
+      <c r="D405" s="36" t="n"/>
+      <c r="G405" s="37" t="n"/>
     </row>
     <row r="406" spans="1:10">
-      <c r="C406" s="40" t="n"/>
-      <c r="D406" s="40" t="n"/>
-      <c r="G406" s="41" t="n"/>
+      <c r="C406" s="38" t="n"/>
+      <c r="D406" s="38" t="n"/>
+      <c r="G406" s="39" t="n"/>
     </row>
     <row r="407" spans="1:10">
       <c r="C407" s="40" t="n"/>
@@ -4419,34 +4997,34 @@
       <c r="G407" s="41" t="n"/>
     </row>
     <row r="408" spans="1:10">
-      <c r="C408" s="34" t="n"/>
-      <c r="D408" s="34" t="n"/>
-      <c r="G408" s="35" t="n"/>
+      <c r="C408" s="40" t="n"/>
+      <c r="D408" s="40" t="n"/>
+      <c r="G408" s="41" t="n"/>
     </row>
     <row r="409" spans="1:10">
-      <c r="C409" s="34" t="n"/>
-      <c r="D409" s="34" t="n"/>
-      <c r="G409" s="35" t="n"/>
+      <c r="C409" s="40" t="n"/>
+      <c r="D409" s="40" t="n"/>
+      <c r="G409" s="41" t="n"/>
     </row>
     <row r="410" spans="1:10">
-      <c r="C410" s="36" t="n"/>
-      <c r="D410" s="36" t="n"/>
-      <c r="G410" s="37" t="n"/>
+      <c r="C410" s="34" t="n"/>
+      <c r="D410" s="34" t="n"/>
+      <c r="G410" s="35" t="n"/>
     </row>
     <row r="411" spans="1:10">
-      <c r="C411" s="38" t="n"/>
-      <c r="D411" s="38" t="n"/>
-      <c r="G411" s="39" t="n"/>
+      <c r="C411" s="34" t="n"/>
+      <c r="D411" s="34" t="n"/>
+      <c r="G411" s="35" t="n"/>
     </row>
     <row r="412" spans="1:10">
-      <c r="C412" s="40" t="n"/>
-      <c r="D412" s="40" t="n"/>
-      <c r="G412" s="41" t="n"/>
+      <c r="C412" s="36" t="n"/>
+      <c r="D412" s="36" t="n"/>
+      <c r="G412" s="37" t="n"/>
     </row>
     <row r="413" spans="1:10">
-      <c r="C413" s="40" t="n"/>
-      <c r="D413" s="40" t="n"/>
-      <c r="G413" s="41" t="n"/>
+      <c r="C413" s="38" t="n"/>
+      <c r="D413" s="38" t="n"/>
+      <c r="G413" s="39" t="n"/>
     </row>
     <row r="414" spans="1:10">
       <c r="C414" s="40" t="n"/>
@@ -4454,69 +5032,69 @@
       <c r="G414" s="41" t="n"/>
     </row>
     <row r="415" spans="1:10">
-      <c r="C415" s="35" t="n"/>
-      <c r="D415" s="35" t="n"/>
-      <c r="G415" s="35" t="n"/>
+      <c r="C415" s="40" t="n"/>
+      <c r="D415" s="40" t="n"/>
+      <c r="G415" s="41" t="n"/>
     </row>
     <row r="416" spans="1:10">
-      <c r="C416" s="35" t="n"/>
-      <c r="D416" s="35" t="n"/>
-      <c r="G416" s="35" t="n"/>
+      <c r="C416" s="40" t="n"/>
+      <c r="D416" s="40" t="n"/>
+      <c r="G416" s="41" t="n"/>
     </row>
     <row r="417" spans="1:10">
-      <c r="C417" s="37" t="n"/>
-      <c r="D417" s="37" t="n"/>
-      <c r="G417" s="37" t="n"/>
+      <c r="C417" s="34" t="n"/>
+      <c r="D417" s="34" t="n"/>
+      <c r="G417" s="35" t="n"/>
     </row>
     <row r="418" spans="1:10">
-      <c r="C418" s="39" t="n"/>
-      <c r="D418" s="39" t="n"/>
-      <c r="G418" s="39" t="n"/>
+      <c r="C418" s="34" t="n"/>
+      <c r="D418" s="34" t="n"/>
+      <c r="G418" s="35" t="n"/>
     </row>
     <row r="419" spans="1:10">
-      <c r="C419" s="41" t="n"/>
-      <c r="D419" s="41" t="n"/>
-      <c r="G419" s="41" t="n"/>
+      <c r="C419" s="36" t="n"/>
+      <c r="D419" s="36" t="n"/>
+      <c r="G419" s="37" t="n"/>
     </row>
     <row r="420" spans="1:10">
-      <c r="C420" s="41" t="n"/>
-      <c r="D420" s="41" t="n"/>
-      <c r="G420" s="41" t="n"/>
+      <c r="C420" s="38" t="n"/>
+      <c r="D420" s="38" t="n"/>
+      <c r="G420" s="39" t="n"/>
     </row>
     <row r="421" spans="1:10">
-      <c r="C421" s="41" t="n"/>
-      <c r="D421" s="41" t="n"/>
+      <c r="C421" s="40" t="n"/>
+      <c r="D421" s="40" t="n"/>
       <c r="G421" s="41" t="n"/>
     </row>
     <row r="422" spans="1:10">
-      <c r="C422" s="34" t="n"/>
-      <c r="D422" s="34" t="n"/>
-      <c r="G422" s="35" t="n"/>
+      <c r="C422" s="40" t="n"/>
+      <c r="D422" s="40" t="n"/>
+      <c r="G422" s="41" t="n"/>
     </row>
     <row r="423" spans="1:10">
-      <c r="C423" s="34" t="n"/>
-      <c r="D423" s="34" t="n"/>
-      <c r="G423" s="35" t="n"/>
+      <c r="C423" s="40" t="n"/>
+      <c r="D423" s="40" t="n"/>
+      <c r="G423" s="41" t="n"/>
     </row>
     <row r="424" spans="1:10">
-      <c r="C424" s="36" t="n"/>
-      <c r="D424" s="36" t="n"/>
-      <c r="G424" s="37" t="n"/>
+      <c r="C424" s="34" t="n"/>
+      <c r="D424" s="34" t="n"/>
+      <c r="G424" s="35" t="n"/>
     </row>
     <row r="425" spans="1:10">
-      <c r="C425" s="38" t="n"/>
-      <c r="D425" s="38" t="n"/>
-      <c r="G425" s="39" t="n"/>
+      <c r="C425" s="34" t="n"/>
+      <c r="D425" s="34" t="n"/>
+      <c r="G425" s="35" t="n"/>
     </row>
     <row r="426" spans="1:10">
-      <c r="C426" s="40" t="n"/>
-      <c r="D426" s="40" t="n"/>
-      <c r="G426" s="41" t="n"/>
+      <c r="C426" s="36" t="n"/>
+      <c r="D426" s="36" t="n"/>
+      <c r="G426" s="37" t="n"/>
     </row>
     <row r="427" spans="1:10">
-      <c r="C427" s="40" t="n"/>
-      <c r="D427" s="40" t="n"/>
-      <c r="G427" s="41" t="n"/>
+      <c r="C427" s="38" t="n"/>
+      <c r="D427" s="38" t="n"/>
+      <c r="G427" s="39" t="n"/>
     </row>
     <row r="428" spans="1:10">
       <c r="C428" s="40" t="n"/>
@@ -4524,34 +5102,34 @@
       <c r="G428" s="41" t="n"/>
     </row>
     <row r="429" spans="1:10">
-      <c r="C429" s="35" t="n"/>
-      <c r="D429" s="35" t="n"/>
-      <c r="G429" s="35" t="n"/>
+      <c r="C429" s="40" t="n"/>
+      <c r="D429" s="40" t="n"/>
+      <c r="G429" s="41" t="n"/>
     </row>
     <row r="430" spans="1:10">
-      <c r="C430" s="35" t="n"/>
-      <c r="D430" s="35" t="n"/>
-      <c r="G430" s="35" t="n"/>
+      <c r="C430" s="40" t="n"/>
+      <c r="D430" s="40" t="n"/>
+      <c r="G430" s="41" t="n"/>
     </row>
     <row r="431" spans="1:10">
-      <c r="C431" s="37" t="n"/>
-      <c r="D431" s="37" t="n"/>
-      <c r="G431" s="37" t="n"/>
+      <c r="C431" s="35" t="n"/>
+      <c r="D431" s="35" t="n"/>
+      <c r="G431" s="35" t="n"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="C432" s="39" t="n"/>
-      <c r="D432" s="39" t="n"/>
-      <c r="G432" s="39" t="n"/>
+      <c r="C432" s="35" t="n"/>
+      <c r="D432" s="35" t="n"/>
+      <c r="G432" s="35" t="n"/>
     </row>
     <row r="433" spans="1:10">
-      <c r="C433" s="41" t="n"/>
-      <c r="D433" s="41" t="n"/>
-      <c r="G433" s="41" t="n"/>
+      <c r="C433" s="37" t="n"/>
+      <c r="D433" s="37" t="n"/>
+      <c r="G433" s="37" t="n"/>
     </row>
     <row r="434" spans="1:10">
-      <c r="C434" s="41" t="n"/>
-      <c r="D434" s="41" t="n"/>
-      <c r="G434" s="41" t="n"/>
+      <c r="C434" s="39" t="n"/>
+      <c r="D434" s="39" t="n"/>
+      <c r="G434" s="39" t="n"/>
     </row>
     <row r="435" spans="1:10">
       <c r="C435" s="41" t="n"/>
@@ -4559,204 +5137,204 @@
       <c r="G435" s="41" t="n"/>
     </row>
     <row r="436" spans="1:10">
-      <c r="C436" s="35" t="n"/>
-      <c r="D436" s="35" t="n"/>
-      <c r="G436" s="35" t="n"/>
+      <c r="C436" s="41" t="n"/>
+      <c r="D436" s="41" t="n"/>
+      <c r="G436" s="41" t="n"/>
     </row>
     <row r="437" spans="1:10">
-      <c r="C437" s="35" t="n"/>
-      <c r="D437" s="35" t="n"/>
-      <c r="G437" s="35" t="n"/>
+      <c r="C437" s="41" t="n"/>
+      <c r="D437" s="41" t="n"/>
+      <c r="G437" s="41" t="n"/>
     </row>
     <row r="438" spans="1:10">
-      <c r="C438" s="37" t="n"/>
-      <c r="D438" s="37" t="n"/>
-      <c r="G438" s="37" t="n"/>
+      <c r="C438" s="34" t="n"/>
+      <c r="D438" s="34" t="n"/>
+      <c r="G438" s="35" t="n"/>
     </row>
     <row r="439" spans="1:10">
-      <c r="C439" s="39" t="n"/>
-      <c r="D439" s="39" t="n"/>
-      <c r="G439" s="39" t="n"/>
+      <c r="C439" s="34" t="n"/>
+      <c r="D439" s="34" t="n"/>
+      <c r="G439" s="35" t="n"/>
     </row>
     <row r="440" spans="1:10">
-      <c r="C440" s="41" t="n"/>
-      <c r="D440" s="41" t="n"/>
-      <c r="G440" s="41" t="n"/>
+      <c r="C440" s="36" t="n"/>
+      <c r="D440" s="36" t="n"/>
+      <c r="G440" s="37" t="n"/>
     </row>
     <row r="441" spans="1:10">
-      <c r="C441" s="41" t="n"/>
-      <c r="D441" s="41" t="n"/>
-      <c r="G441" s="41" t="n"/>
+      <c r="C441" s="38" t="n"/>
+      <c r="D441" s="38" t="n"/>
+      <c r="G441" s="39" t="n"/>
     </row>
     <row r="442" spans="1:10">
-      <c r="C442" s="41" t="n"/>
-      <c r="D442" s="41" t="n"/>
+      <c r="C442" s="40" t="n"/>
+      <c r="D442" s="40" t="n"/>
       <c r="G442" s="41" t="n"/>
     </row>
     <row r="443" spans="1:10">
-      <c r="C443" s="35" t="n"/>
-      <c r="D443" s="35" t="n"/>
-      <c r="G443" s="34" t="n"/>
+      <c r="C443" s="40" t="n"/>
+      <c r="D443" s="40" t="n"/>
+      <c r="G443" s="41" t="n"/>
     </row>
     <row r="444" spans="1:10">
-      <c r="C444" s="35" t="n"/>
-      <c r="D444" s="35" t="n"/>
-      <c r="G444" s="34" t="n"/>
+      <c r="C444" s="40" t="n"/>
+      <c r="D444" s="40" t="n"/>
+      <c r="G444" s="41" t="n"/>
     </row>
     <row r="445" spans="1:10">
-      <c r="C445" s="37" t="n"/>
-      <c r="D445" s="37" t="n"/>
-      <c r="G445" s="36" t="n"/>
+      <c r="C445" s="35" t="n"/>
+      <c r="D445" s="35" t="n"/>
+      <c r="G445" s="35" t="n"/>
     </row>
     <row r="446" spans="1:10">
-      <c r="C446" s="39" t="n"/>
-      <c r="D446" s="39" t="n"/>
-      <c r="G446" s="38" t="n"/>
+      <c r="C446" s="35" t="n"/>
+      <c r="D446" s="35" t="n"/>
+      <c r="G446" s="35" t="n"/>
     </row>
     <row r="447" spans="1:10">
-      <c r="C447" s="41" t="n"/>
-      <c r="D447" s="41" t="n"/>
-      <c r="G447" s="40" t="n"/>
+      <c r="C447" s="37" t="n"/>
+      <c r="D447" s="37" t="n"/>
+      <c r="G447" s="37" t="n"/>
     </row>
     <row r="448" spans="1:10">
-      <c r="C448" s="41" t="n"/>
-      <c r="D448" s="41" t="n"/>
-      <c r="G448" s="40" t="n"/>
+      <c r="C448" s="39" t="n"/>
+      <c r="D448" s="39" t="n"/>
+      <c r="G448" s="39" t="n"/>
     </row>
     <row r="449" spans="1:10">
       <c r="C449" s="41" t="n"/>
       <c r="D449" s="41" t="n"/>
-      <c r="G449" s="40" t="n"/>
+      <c r="G449" s="41" t="n"/>
     </row>
     <row r="450" spans="1:10">
-      <c r="C450" s="34" t="n"/>
-      <c r="D450" s="34" t="n"/>
-      <c r="G450" s="35" t="n"/>
+      <c r="C450" s="41" t="n"/>
+      <c r="D450" s="41" t="n"/>
+      <c r="G450" s="41" t="n"/>
     </row>
     <row r="451" spans="1:10">
-      <c r="C451" s="34" t="n"/>
-      <c r="D451" s="34" t="n"/>
-      <c r="G451" s="35" t="n"/>
+      <c r="C451" s="41" t="n"/>
+      <c r="D451" s="41" t="n"/>
+      <c r="G451" s="41" t="n"/>
     </row>
     <row r="452" spans="1:10">
-      <c r="C452" s="34" t="n"/>
-      <c r="D452" s="34" t="n"/>
+      <c r="C452" s="35" t="n"/>
+      <c r="D452" s="35" t="n"/>
       <c r="G452" s="35" t="n"/>
     </row>
     <row r="453" spans="1:10">
-      <c r="C453" s="34" t="n"/>
-      <c r="D453" s="34" t="n"/>
+      <c r="C453" s="35" t="n"/>
+      <c r="D453" s="35" t="n"/>
       <c r="G453" s="35" t="n"/>
     </row>
     <row r="454" spans="1:10">
-      <c r="C454" s="36" t="n"/>
-      <c r="D454" s="36" t="n"/>
+      <c r="C454" s="37" t="n"/>
+      <c r="D454" s="37" t="n"/>
       <c r="G454" s="37" t="n"/>
     </row>
     <row r="455" spans="1:10">
-      <c r="C455" s="38" t="n"/>
-      <c r="D455" s="38" t="n"/>
+      <c r="C455" s="39" t="n"/>
+      <c r="D455" s="39" t="n"/>
       <c r="G455" s="39" t="n"/>
     </row>
     <row r="456" spans="1:10">
-      <c r="C456" s="40" t="n"/>
-      <c r="D456" s="40" t="n"/>
+      <c r="C456" s="41" t="n"/>
+      <c r="D456" s="41" t="n"/>
       <c r="G456" s="41" t="n"/>
     </row>
     <row r="457" spans="1:10">
-      <c r="C457" s="40" t="n"/>
-      <c r="D457" s="40" t="n"/>
+      <c r="C457" s="41" t="n"/>
+      <c r="D457" s="41" t="n"/>
       <c r="G457" s="41" t="n"/>
     </row>
     <row r="458" spans="1:10">
-      <c r="C458" s="40" t="n"/>
-      <c r="D458" s="40" t="n"/>
+      <c r="C458" s="41" t="n"/>
+      <c r="D458" s="41" t="n"/>
       <c r="G458" s="41" t="n"/>
     </row>
     <row r="459" spans="1:10">
-      <c r="C459" s="33" t="n"/>
-      <c r="D459" s="33" t="n"/>
-      <c r="G459" s="32" t="n"/>
+      <c r="C459" s="35" t="n"/>
+      <c r="D459" s="35" t="n"/>
+      <c r="G459" s="34" t="n"/>
     </row>
     <row r="460" spans="1:10">
-      <c r="C460" s="32" t="n"/>
-      <c r="D460" s="32" t="n"/>
-      <c r="G460" s="33" t="n"/>
+      <c r="C460" s="35" t="n"/>
+      <c r="D460" s="35" t="n"/>
+      <c r="G460" s="34" t="n"/>
     </row>
     <row r="461" spans="1:10">
-      <c r="C461" s="32" t="n"/>
-      <c r="D461" s="32" t="n"/>
-      <c r="G461" s="33" t="n"/>
+      <c r="C461" s="37" t="n"/>
+      <c r="D461" s="37" t="n"/>
+      <c r="G461" s="36" t="n"/>
     </row>
     <row r="462" spans="1:10">
-      <c r="C462" s="32" t="n"/>
-      <c r="D462" s="32" t="n"/>
-      <c r="G462" s="33" t="n"/>
+      <c r="C462" s="39" t="n"/>
+      <c r="D462" s="39" t="n"/>
+      <c r="G462" s="38" t="n"/>
     </row>
     <row r="463" spans="1:10">
-      <c r="C463" s="33" t="n"/>
-      <c r="D463" s="33" t="n"/>
-      <c r="G463" s="32" t="n"/>
+      <c r="C463" s="41" t="n"/>
+      <c r="D463" s="41" t="n"/>
+      <c r="G463" s="40" t="n"/>
     </row>
     <row r="464" spans="1:10">
-      <c r="C464" s="33" t="n"/>
-      <c r="D464" s="33" t="n"/>
-      <c r="G464" s="32" t="n"/>
+      <c r="C464" s="41" t="n"/>
+      <c r="D464" s="41" t="n"/>
+      <c r="G464" s="40" t="n"/>
     </row>
     <row r="465" spans="1:10">
-      <c r="C465" s="33" t="n"/>
-      <c r="D465" s="33" t="n"/>
-      <c r="G465" s="32" t="n"/>
+      <c r="C465" s="41" t="n"/>
+      <c r="D465" s="41" t="n"/>
+      <c r="G465" s="40" t="n"/>
     </row>
     <row r="466" spans="1:10">
-      <c r="C466" s="32" t="n"/>
-      <c r="D466" s="32" t="n"/>
-      <c r="G466" s="33" t="n"/>
+      <c r="C466" s="34" t="n"/>
+      <c r="D466" s="34" t="n"/>
+      <c r="G466" s="35" t="n"/>
     </row>
     <row r="467" spans="1:10">
-      <c r="C467" s="32" t="n"/>
-      <c r="D467" s="32" t="n"/>
-      <c r="G467" s="33" t="n"/>
+      <c r="C467" s="34" t="n"/>
+      <c r="D467" s="34" t="n"/>
+      <c r="G467" s="35" t="n"/>
     </row>
     <row r="468" spans="1:10">
-      <c r="C468" s="32" t="n"/>
-      <c r="D468" s="32" t="n"/>
-      <c r="G468" s="33" t="n"/>
+      <c r="C468" s="34" t="n"/>
+      <c r="D468" s="34" t="n"/>
+      <c r="G468" s="35" t="n"/>
     </row>
     <row r="469" spans="1:10">
-      <c r="C469" s="32" t="n"/>
-      <c r="D469" s="32" t="n"/>
-      <c r="G469" s="33" t="n"/>
+      <c r="C469" s="34" t="n"/>
+      <c r="D469" s="34" t="n"/>
+      <c r="G469" s="35" t="n"/>
     </row>
     <row r="470" spans="1:10">
-      <c r="C470" s="32" t="n"/>
-      <c r="D470" s="32" t="n"/>
-      <c r="G470" s="33" t="n"/>
+      <c r="C470" s="36" t="n"/>
+      <c r="D470" s="36" t="n"/>
+      <c r="G470" s="37" t="n"/>
     </row>
     <row r="471" spans="1:10">
-      <c r="C471" s="32" t="n"/>
-      <c r="D471" s="32" t="n"/>
-      <c r="G471" s="33" t="n"/>
+      <c r="C471" s="38" t="n"/>
+      <c r="D471" s="38" t="n"/>
+      <c r="G471" s="39" t="n"/>
     </row>
     <row r="472" spans="1:10">
-      <c r="C472" s="32" t="n"/>
-      <c r="D472" s="32" t="n"/>
-      <c r="G472" s="33" t="n"/>
+      <c r="C472" s="40" t="n"/>
+      <c r="D472" s="40" t="n"/>
+      <c r="G472" s="41" t="n"/>
     </row>
     <row r="473" spans="1:10">
-      <c r="C473" s="32" t="n"/>
-      <c r="D473" s="32" t="n"/>
-      <c r="G473" s="33" t="n"/>
+      <c r="C473" s="40" t="n"/>
+      <c r="D473" s="40" t="n"/>
+      <c r="G473" s="41" t="n"/>
     </row>
     <row r="474" spans="1:10">
-      <c r="C474" s="32" t="n"/>
-      <c r="D474" s="32" t="n"/>
-      <c r="G474" s="33" t="n"/>
+      <c r="C474" s="40" t="n"/>
+      <c r="D474" s="40" t="n"/>
+      <c r="G474" s="41" t="n"/>
     </row>
     <row r="475" spans="1:10">
-      <c r="C475" s="32" t="n"/>
-      <c r="D475" s="32" t="n"/>
-      <c r="G475" s="33" t="n"/>
+      <c r="C475" s="33" t="n"/>
+      <c r="D475" s="33" t="n"/>
+      <c r="G475" s="32" t="n"/>
     </row>
     <row r="476" spans="1:10">
       <c r="C476" s="32" t="n"/>
@@ -4774,19 +5352,19 @@
       <c r="G478" s="33" t="n"/>
     </row>
     <row r="479" spans="1:10">
-      <c r="C479" s="32" t="n"/>
-      <c r="D479" s="32" t="n"/>
-      <c r="G479" s="33" t="n"/>
+      <c r="C479" s="33" t="n"/>
+      <c r="D479" s="33" t="n"/>
+      <c r="G479" s="32" t="n"/>
     </row>
     <row r="480" spans="1:10">
-      <c r="C480" s="32" t="n"/>
-      <c r="D480" s="32" t="n"/>
-      <c r="G480" s="33" t="n"/>
+      <c r="C480" s="33" t="n"/>
+      <c r="D480" s="33" t="n"/>
+      <c r="G480" s="32" t="n"/>
     </row>
     <row r="481" spans="1:10">
-      <c r="C481" s="32" t="n"/>
-      <c r="D481" s="32" t="n"/>
-      <c r="G481" s="33" t="n"/>
+      <c r="C481" s="33" t="n"/>
+      <c r="D481" s="33" t="n"/>
+      <c r="G481" s="32" t="n"/>
     </row>
     <row r="482" spans="1:10">
       <c r="C482" s="32" t="n"/>
@@ -4814,18 +5392,18 @@
       <c r="G486" s="33" t="n"/>
     </row>
     <row r="487" spans="1:10">
-      <c r="C487" s="33" t="n"/>
-      <c r="D487" s="33" t="n"/>
+      <c r="C487" s="32" t="n"/>
+      <c r="D487" s="32" t="n"/>
       <c r="G487" s="33" t="n"/>
     </row>
     <row r="488" spans="1:10">
-      <c r="C488" s="33" t="n"/>
-      <c r="D488" s="33" t="n"/>
+      <c r="C488" s="32" t="n"/>
+      <c r="D488" s="32" t="n"/>
       <c r="G488" s="33" t="n"/>
     </row>
     <row r="489" spans="1:10">
-      <c r="C489" s="33" t="n"/>
-      <c r="D489" s="33" t="n"/>
+      <c r="C489" s="32" t="n"/>
+      <c r="D489" s="32" t="n"/>
       <c r="G489" s="33" t="n"/>
     </row>
     <row r="490" spans="1:10">
@@ -4844,34 +5422,34 @@
       <c r="G492" s="33" t="n"/>
     </row>
     <row r="493" spans="1:10">
-      <c r="C493" s="33" t="n"/>
-      <c r="D493" s="33" t="n"/>
+      <c r="C493" s="32" t="n"/>
+      <c r="D493" s="32" t="n"/>
       <c r="G493" s="33" t="n"/>
     </row>
     <row r="494" spans="1:10">
-      <c r="C494" s="33" t="n"/>
-      <c r="D494" s="33" t="n"/>
+      <c r="C494" s="32" t="n"/>
+      <c r="D494" s="32" t="n"/>
       <c r="G494" s="33" t="n"/>
     </row>
     <row r="495" spans="1:10">
-      <c r="C495" s="33" t="n"/>
-      <c r="D495" s="33" t="n"/>
+      <c r="C495" s="32" t="n"/>
+      <c r="D495" s="32" t="n"/>
       <c r="G495" s="33" t="n"/>
     </row>
     <row r="496" spans="1:10">
-      <c r="C496" s="33" t="n"/>
-      <c r="D496" s="33" t="n"/>
-      <c r="G496" s="32" t="n"/>
+      <c r="C496" s="32" t="n"/>
+      <c r="D496" s="32" t="n"/>
+      <c r="G496" s="33" t="n"/>
     </row>
     <row r="497" spans="1:10">
-      <c r="C497" s="33" t="n"/>
-      <c r="D497" s="33" t="n"/>
-      <c r="G497" s="32" t="n"/>
+      <c r="C497" s="32" t="n"/>
+      <c r="D497" s="32" t="n"/>
+      <c r="G497" s="33" t="n"/>
     </row>
     <row r="498" spans="1:10">
-      <c r="C498" s="33" t="n"/>
-      <c r="D498" s="33" t="n"/>
-      <c r="G498" s="32" t="n"/>
+      <c r="C498" s="32" t="n"/>
+      <c r="D498" s="32" t="n"/>
+      <c r="G498" s="33" t="n"/>
     </row>
     <row r="499" spans="1:10">
       <c r="C499" s="32" t="n"/>
@@ -4894,19 +5472,19 @@
       <c r="G502" s="33" t="n"/>
     </row>
     <row r="503" spans="1:10">
-      <c r="C503" s="32" t="n"/>
-      <c r="D503" s="32" t="n"/>
+      <c r="C503" s="33" t="n"/>
+      <c r="D503" s="33" t="n"/>
       <c r="G503" s="33" t="n"/>
     </row>
     <row r="504" spans="1:10">
       <c r="C504" s="33" t="n"/>
       <c r="D504" s="33" t="n"/>
-      <c r="G504" s="32" t="n"/>
+      <c r="G504" s="33" t="n"/>
     </row>
     <row r="505" spans="1:10">
       <c r="C505" s="33" t="n"/>
       <c r="D505" s="33" t="n"/>
-      <c r="G505" s="32" t="n"/>
+      <c r="G505" s="33" t="n"/>
     </row>
     <row r="506" spans="1:10">
       <c r="C506" s="32" t="n"/>
@@ -4919,964 +5497,964 @@
       <c r="G507" s="33" t="n"/>
     </row>
     <row r="508" spans="1:10">
-      <c r="C508" s="33" t="n"/>
-      <c r="D508" s="33" t="n"/>
+      <c r="C508" s="32" t="n"/>
+      <c r="D508" s="32" t="n"/>
       <c r="G508" s="33" t="n"/>
     </row>
     <row r="509" spans="1:10">
-      <c r="C509" s="24" t="n"/>
-      <c r="D509" s="24" t="n"/>
-      <c r="G509" s="25" t="n"/>
+      <c r="C509" s="33" t="n"/>
+      <c r="D509" s="33" t="n"/>
+      <c r="G509" s="33" t="n"/>
     </row>
     <row r="510" spans="1:10">
-      <c r="C510" s="24" t="n"/>
-      <c r="D510" s="24" t="n"/>
-      <c r="G510" s="25" t="n"/>
+      <c r="C510" s="33" t="n"/>
+      <c r="D510" s="33" t="n"/>
+      <c r="G510" s="33" t="n"/>
     </row>
     <row r="511" spans="1:10">
-      <c r="C511" s="24" t="n"/>
-      <c r="D511" s="24" t="n"/>
-      <c r="G511" s="25" t="n"/>
+      <c r="C511" s="33" t="n"/>
+      <c r="D511" s="33" t="n"/>
+      <c r="G511" s="33" t="n"/>
     </row>
     <row r="512" spans="1:10">
-      <c r="C512" s="24" t="n"/>
-      <c r="D512" s="24" t="n"/>
-      <c r="G512" s="25" t="n"/>
+      <c r="C512" s="33" t="n"/>
+      <c r="D512" s="33" t="n"/>
+      <c r="G512" s="32" t="n"/>
     </row>
     <row r="513" spans="1:10">
-      <c r="C513" s="24" t="n"/>
-      <c r="D513" s="24" t="n"/>
-      <c r="G513" s="25" t="n"/>
+      <c r="C513" s="33" t="n"/>
+      <c r="D513" s="33" t="n"/>
+      <c r="G513" s="32" t="n"/>
     </row>
     <row r="514" spans="1:10">
-      <c r="C514" s="24" t="n"/>
-      <c r="D514" s="24" t="n"/>
-      <c r="G514" s="25" t="n"/>
+      <c r="C514" s="33" t="n"/>
+      <c r="D514" s="33" t="n"/>
+      <c r="G514" s="32" t="n"/>
     </row>
     <row r="515" spans="1:10">
-      <c r="C515" s="24" t="n"/>
-      <c r="D515" s="24" t="n"/>
-      <c r="G515" s="25" t="n"/>
+      <c r="C515" s="32" t="n"/>
+      <c r="D515" s="32" t="n"/>
+      <c r="G515" s="33" t="n"/>
     </row>
     <row r="516" spans="1:10">
-      <c r="C516" s="24" t="n"/>
-      <c r="D516" s="24" t="n"/>
-      <c r="G516" s="25" t="n"/>
+      <c r="C516" s="32" t="n"/>
+      <c r="D516" s="32" t="n"/>
+      <c r="G516" s="33" t="n"/>
     </row>
     <row r="517" spans="1:10">
-      <c r="C517" s="26" t="n"/>
-      <c r="D517" s="26" t="n"/>
-      <c r="G517" s="27" t="n"/>
+      <c r="C517" s="32" t="n"/>
+      <c r="D517" s="32" t="n"/>
+      <c r="G517" s="33" t="n"/>
     </row>
     <row r="518" spans="1:10">
-      <c r="C518" s="26" t="n"/>
-      <c r="D518" s="26" t="n"/>
-      <c r="G518" s="27" t="n"/>
+      <c r="C518" s="32" t="n"/>
+      <c r="D518" s="32" t="n"/>
+      <c r="G518" s="33" t="n"/>
     </row>
     <row r="519" spans="1:10">
-      <c r="C519" s="26" t="n"/>
-      <c r="D519" s="26" t="n"/>
-      <c r="G519" s="27" t="n"/>
+      <c r="C519" s="32" t="n"/>
+      <c r="D519" s="32" t="n"/>
+      <c r="G519" s="33" t="n"/>
     </row>
     <row r="520" spans="1:10">
-      <c r="C520" s="26" t="n"/>
-      <c r="D520" s="26" t="n"/>
-      <c r="G520" s="27" t="n"/>
+      <c r="C520" s="33" t="n"/>
+      <c r="D520" s="33" t="n"/>
+      <c r="G520" s="32" t="n"/>
     </row>
     <row r="521" spans="1:10">
-      <c r="C521" s="28" t="n"/>
-      <c r="D521" s="28" t="n"/>
-      <c r="G521" s="29" t="n"/>
+      <c r="C521" s="33" t="n"/>
+      <c r="D521" s="33" t="n"/>
+      <c r="G521" s="32" t="n"/>
     </row>
     <row r="522" spans="1:10">
-      <c r="C522" s="30" t="n"/>
-      <c r="D522" s="30" t="n"/>
-      <c r="G522" s="31" t="n"/>
+      <c r="C522" s="32" t="n"/>
+      <c r="D522" s="32" t="n"/>
+      <c r="G522" s="33" t="n"/>
     </row>
     <row r="523" spans="1:10">
-      <c r="C523" s="30" t="n"/>
-      <c r="D523" s="30" t="n"/>
-      <c r="G523" s="31" t="n"/>
+      <c r="C523" s="32" t="n"/>
+      <c r="D523" s="32" t="n"/>
+      <c r="G523" s="33" t="n"/>
     </row>
     <row r="524" spans="1:10">
-      <c r="C524" s="30" t="n"/>
-      <c r="D524" s="30" t="n"/>
-      <c r="G524" s="31" t="n"/>
+      <c r="C524" s="33" t="n"/>
+      <c r="D524" s="33" t="n"/>
+      <c r="G524" s="33" t="n"/>
     </row>
     <row r="525" spans="1:10">
-      <c r="C525" s="30" t="n"/>
-      <c r="D525" s="30" t="n"/>
-      <c r="G525" s="31" t="n"/>
+      <c r="C525" s="24" t="n"/>
+      <c r="D525" s="24" t="n"/>
+      <c r="G525" s="25" t="n"/>
     </row>
     <row r="526" spans="1:10">
-      <c r="C526" s="30" t="n"/>
-      <c r="D526" s="30" t="n"/>
-      <c r="G526" s="31" t="n"/>
+      <c r="C526" s="24" t="n"/>
+      <c r="D526" s="24" t="n"/>
+      <c r="G526" s="25" t="n"/>
     </row>
     <row r="527" spans="1:10">
-      <c r="C527" s="7" t="n"/>
-      <c r="D527" s="7" t="n"/>
-      <c r="G527" s="7" t="n"/>
+      <c r="C527" s="24" t="n"/>
+      <c r="D527" s="24" t="n"/>
+      <c r="G527" s="25" t="n"/>
     </row>
     <row r="528" spans="1:10">
-      <c r="C528" s="7" t="n"/>
-      <c r="D528" s="7" t="n"/>
-      <c r="G528" s="7" t="n"/>
+      <c r="C528" s="24" t="n"/>
+      <c r="D528" s="24" t="n"/>
+      <c r="G528" s="25" t="n"/>
     </row>
     <row r="529" spans="1:10">
-      <c r="C529" s="7" t="n"/>
-      <c r="D529" s="7" t="n"/>
-      <c r="G529" s="7" t="n"/>
+      <c r="C529" s="24" t="n"/>
+      <c r="D529" s="24" t="n"/>
+      <c r="G529" s="25" t="n"/>
     </row>
     <row r="530" spans="1:10">
-      <c r="C530" s="10" t="n"/>
-      <c r="D530" s="10" t="n"/>
-      <c r="G530" s="10" t="n"/>
+      <c r="C530" s="24" t="n"/>
+      <c r="D530" s="24" t="n"/>
+      <c r="G530" s="25" t="n"/>
     </row>
     <row r="531" spans="1:10">
-      <c r="C531" s="9" t="n"/>
-      <c r="D531" s="9" t="n"/>
-      <c r="G531" s="10" t="n"/>
+      <c r="C531" s="24" t="n"/>
+      <c r="D531" s="24" t="n"/>
+      <c r="G531" s="25" t="n"/>
     </row>
     <row r="532" spans="1:10">
-      <c r="C532" s="9" t="n"/>
-      <c r="D532" s="9" t="n"/>
-      <c r="G532" s="10" t="n"/>
+      <c r="C532" s="24" t="n"/>
+      <c r="D532" s="24" t="n"/>
+      <c r="G532" s="25" t="n"/>
     </row>
     <row r="533" spans="1:10">
-      <c r="C533" s="10" t="n"/>
-      <c r="D533" s="10" t="n"/>
-      <c r="G533" s="10" t="n"/>
+      <c r="C533" s="26" t="n"/>
+      <c r="D533" s="26" t="n"/>
+      <c r="G533" s="27" t="n"/>
     </row>
     <row r="534" spans="1:10">
-      <c r="C534" s="13" t="n"/>
-      <c r="D534" s="13" t="n"/>
-      <c r="G534" s="13" t="n"/>
+      <c r="C534" s="26" t="n"/>
+      <c r="D534" s="26" t="n"/>
+      <c r="G534" s="27" t="n"/>
     </row>
     <row r="535" spans="1:10">
-      <c r="C535" s="15" t="n"/>
-      <c r="D535" s="15" t="n"/>
-      <c r="G535" s="15" t="n"/>
+      <c r="C535" s="26" t="n"/>
+      <c r="D535" s="26" t="n"/>
+      <c r="G535" s="27" t="n"/>
     </row>
     <row r="536" spans="1:10">
-      <c r="C536" s="17" t="n"/>
-      <c r="D536" s="17" t="n"/>
-      <c r="G536" s="17" t="n"/>
+      <c r="C536" s="26" t="n"/>
+      <c r="D536" s="26" t="n"/>
+      <c r="G536" s="27" t="n"/>
     </row>
     <row r="537" spans="1:10">
-      <c r="C537" s="19" t="n"/>
-      <c r="D537" s="19" t="n"/>
-      <c r="G537" s="19" t="n"/>
+      <c r="C537" s="28" t="n"/>
+      <c r="D537" s="28" t="n"/>
+      <c r="G537" s="29" t="n"/>
     </row>
     <row r="538" spans="1:10">
-      <c r="C538" s="21" t="n"/>
-      <c r="D538" s="21" t="n"/>
-      <c r="G538" s="21" t="n"/>
+      <c r="C538" s="30" t="n"/>
+      <c r="D538" s="30" t="n"/>
+      <c r="G538" s="31" t="n"/>
     </row>
     <row r="539" spans="1:10">
-      <c r="C539" s="21" t="n"/>
-      <c r="D539" s="21" t="n"/>
-      <c r="G539" s="21" t="n"/>
+      <c r="C539" s="30" t="n"/>
+      <c r="D539" s="30" t="n"/>
+      <c r="G539" s="31" t="n"/>
     </row>
     <row r="540" spans="1:10">
-      <c r="C540" s="21" t="n"/>
-      <c r="D540" s="21" t="n"/>
-      <c r="G540" s="21" t="n"/>
+      <c r="C540" s="30" t="n"/>
+      <c r="D540" s="30" t="n"/>
+      <c r="G540" s="31" t="n"/>
     </row>
     <row r="541" spans="1:10">
-      <c r="C541" s="21" t="n"/>
-      <c r="D541" s="21" t="n"/>
-      <c r="G541" s="21" t="n"/>
+      <c r="C541" s="30" t="n"/>
+      <c r="D541" s="30" t="n"/>
+      <c r="G541" s="31" t="n"/>
     </row>
     <row r="542" spans="1:10">
-      <c r="C542" s="23" t="n"/>
-      <c r="D542" s="23" t="n"/>
-      <c r="G542" s="23" t="n"/>
+      <c r="C542" s="30" t="n"/>
+      <c r="D542" s="30" t="n"/>
+      <c r="G542" s="31" t="n"/>
     </row>
     <row r="543" spans="1:10">
-      <c r="C543" s="23" t="n"/>
-      <c r="D543" s="23" t="n"/>
-      <c r="G543" s="23" t="n"/>
+      <c r="C543" s="7" t="n"/>
+      <c r="D543" s="7" t="n"/>
+      <c r="G543" s="7" t="n"/>
     </row>
     <row r="544" spans="1:10">
-      <c r="C544" s="23" t="n"/>
-      <c r="D544" s="23" t="n"/>
-      <c r="G544" s="23" t="n"/>
+      <c r="C544" s="7" t="n"/>
+      <c r="D544" s="7" t="n"/>
+      <c r="G544" s="7" t="n"/>
     </row>
     <row r="545" spans="1:10">
-      <c r="C545" s="23" t="n"/>
-      <c r="D545" s="23" t="n"/>
-      <c r="G545" s="23" t="n"/>
+      <c r="C545" s="7" t="n"/>
+      <c r="D545" s="7" t="n"/>
+      <c r="G545" s="7" t="n"/>
     </row>
     <row r="546" spans="1:10">
-      <c r="C546" s="25" t="n"/>
-      <c r="D546" s="25" t="n"/>
-      <c r="G546" s="25" t="n"/>
+      <c r="C546" s="10" t="n"/>
+      <c r="D546" s="10" t="n"/>
+      <c r="G546" s="10" t="n"/>
     </row>
     <row r="547" spans="1:10">
-      <c r="C547" s="25" t="n"/>
-      <c r="D547" s="25" t="n"/>
-      <c r="G547" s="25" t="n"/>
+      <c r="C547" s="9" t="n"/>
+      <c r="D547" s="9" t="n"/>
+      <c r="G547" s="10" t="n"/>
     </row>
     <row r="548" spans="1:10">
-      <c r="C548" s="25" t="n"/>
-      <c r="D548" s="25" t="n"/>
-      <c r="G548" s="25" t="n"/>
+      <c r="C548" s="9" t="n"/>
+      <c r="D548" s="9" t="n"/>
+      <c r="G548" s="10" t="n"/>
     </row>
     <row r="549" spans="1:10">
-      <c r="C549" s="25" t="n"/>
-      <c r="D549" s="25" t="n"/>
-      <c r="G549" s="25" t="n"/>
+      <c r="C549" s="10" t="n"/>
+      <c r="D549" s="10" t="n"/>
+      <c r="G549" s="10" t="n"/>
     </row>
     <row r="550" spans="1:10">
-      <c r="C550" s="25" t="n"/>
-      <c r="D550" s="25" t="n"/>
-      <c r="G550" s="25" t="n"/>
+      <c r="C550" s="13" t="n"/>
+      <c r="D550" s="13" t="n"/>
+      <c r="G550" s="13" t="n"/>
     </row>
     <row r="551" spans="1:10">
-      <c r="C551" s="25" t="n"/>
-      <c r="D551" s="25" t="n"/>
-      <c r="G551" s="25" t="n"/>
+      <c r="C551" s="15" t="n"/>
+      <c r="D551" s="15" t="n"/>
+      <c r="G551" s="15" t="n"/>
     </row>
     <row r="552" spans="1:10">
-      <c r="C552" s="25" t="n"/>
-      <c r="D552" s="25" t="n"/>
-      <c r="G552" s="25" t="n"/>
+      <c r="C552" s="17" t="n"/>
+      <c r="D552" s="17" t="n"/>
+      <c r="G552" s="17" t="n"/>
     </row>
     <row r="553" spans="1:10">
-      <c r="C553" s="25" t="n"/>
-      <c r="D553" s="25" t="n"/>
-      <c r="G553" s="25" t="n"/>
+      <c r="C553" s="19" t="n"/>
+      <c r="D553" s="19" t="n"/>
+      <c r="G553" s="19" t="n"/>
     </row>
     <row r="554" spans="1:10">
-      <c r="C554" s="27" t="n"/>
-      <c r="D554" s="27" t="n"/>
-      <c r="G554" s="27" t="n"/>
+      <c r="C554" s="21" t="n"/>
+      <c r="D554" s="21" t="n"/>
+      <c r="G554" s="21" t="n"/>
     </row>
     <row r="555" spans="1:10">
-      <c r="C555" s="27" t="n"/>
-      <c r="D555" s="27" t="n"/>
-      <c r="G555" s="27" t="n"/>
+      <c r="C555" s="21" t="n"/>
+      <c r="D555" s="21" t="n"/>
+      <c r="G555" s="21" t="n"/>
     </row>
     <row r="556" spans="1:10">
-      <c r="C556" s="27" t="n"/>
-      <c r="D556" s="27" t="n"/>
-      <c r="G556" s="27" t="n"/>
+      <c r="C556" s="21" t="n"/>
+      <c r="D556" s="21" t="n"/>
+      <c r="G556" s="21" t="n"/>
     </row>
     <row r="557" spans="1:10">
-      <c r="C557" s="27" t="n"/>
-      <c r="D557" s="27" t="n"/>
-      <c r="G557" s="27" t="n"/>
+      <c r="C557" s="21" t="n"/>
+      <c r="D557" s="21" t="n"/>
+      <c r="G557" s="21" t="n"/>
     </row>
     <row r="558" spans="1:10">
-      <c r="C558" s="29" t="n"/>
-      <c r="D558" s="29" t="n"/>
-      <c r="G558" s="29" t="n"/>
+      <c r="C558" s="23" t="n"/>
+      <c r="D558" s="23" t="n"/>
+      <c r="G558" s="23" t="n"/>
     </row>
     <row r="559" spans="1:10">
-      <c r="C559" s="31" t="n"/>
-      <c r="D559" s="31" t="n"/>
-      <c r="G559" s="31" t="n"/>
+      <c r="C559" s="23" t="n"/>
+      <c r="D559" s="23" t="n"/>
+      <c r="G559" s="23" t="n"/>
     </row>
     <row r="560" spans="1:10">
-      <c r="C560" s="31" t="n"/>
-      <c r="D560" s="31" t="n"/>
-      <c r="G560" s="31" t="n"/>
+      <c r="C560" s="23" t="n"/>
+      <c r="D560" s="23" t="n"/>
+      <c r="G560" s="23" t="n"/>
     </row>
     <row r="561" spans="1:10">
-      <c r="C561" s="31" t="n"/>
-      <c r="D561" s="31" t="n"/>
-      <c r="G561" s="31" t="n"/>
+      <c r="C561" s="23" t="n"/>
+      <c r="D561" s="23" t="n"/>
+      <c r="G561" s="23" t="n"/>
     </row>
     <row r="562" spans="1:10">
-      <c r="C562" s="31" t="n"/>
-      <c r="D562" s="31" t="n"/>
-      <c r="G562" s="31" t="n"/>
+      <c r="C562" s="25" t="n"/>
+      <c r="D562" s="25" t="n"/>
+      <c r="G562" s="25" t="n"/>
     </row>
     <row r="563" spans="1:10">
-      <c r="C563" s="31" t="n"/>
-      <c r="D563" s="31" t="n"/>
-      <c r="G563" s="31" t="n"/>
+      <c r="C563" s="25" t="n"/>
+      <c r="D563" s="25" t="n"/>
+      <c r="G563" s="25" t="n"/>
     </row>
     <row r="564" spans="1:10">
-      <c r="C564" s="7" t="n"/>
-      <c r="D564" s="7" t="n"/>
-      <c r="G564" s="7" t="n"/>
+      <c r="C564" s="25" t="n"/>
+      <c r="D564" s="25" t="n"/>
+      <c r="G564" s="25" t="n"/>
     </row>
     <row r="565" spans="1:10">
-      <c r="C565" s="7" t="n"/>
-      <c r="D565" s="7" t="n"/>
-      <c r="G565" s="7" t="n"/>
+      <c r="C565" s="25" t="n"/>
+      <c r="D565" s="25" t="n"/>
+      <c r="G565" s="25" t="n"/>
     </row>
     <row r="566" spans="1:10">
-      <c r="C566" s="30" t="n"/>
-      <c r="D566" s="30" t="n"/>
-      <c r="G566" s="31" t="n"/>
+      <c r="C566" s="25" t="n"/>
+      <c r="D566" s="25" t="n"/>
+      <c r="G566" s="25" t="n"/>
     </row>
     <row r="567" spans="1:10">
-      <c r="C567" s="30" t="n"/>
-      <c r="D567" s="30" t="n"/>
-      <c r="G567" s="31" t="n"/>
+      <c r="C567" s="25" t="n"/>
+      <c r="D567" s="25" t="n"/>
+      <c r="G567" s="25" t="n"/>
     </row>
     <row r="568" spans="1:10">
-      <c r="C568" s="30" t="n"/>
-      <c r="D568" s="30" t="n"/>
-      <c r="G568" s="31" t="n"/>
+      <c r="C568" s="25" t="n"/>
+      <c r="D568" s="25" t="n"/>
+      <c r="G568" s="25" t="n"/>
     </row>
     <row r="569" spans="1:10">
-      <c r="C569" s="7" t="n"/>
-      <c r="D569" s="7" t="n"/>
-      <c r="G569" s="7" t="n"/>
+      <c r="C569" s="25" t="n"/>
+      <c r="D569" s="25" t="n"/>
+      <c r="G569" s="25" t="n"/>
     </row>
     <row r="570" spans="1:10">
-      <c r="C570" s="7" t="n"/>
-      <c r="D570" s="7" t="n"/>
-      <c r="G570" s="7" t="n"/>
+      <c r="C570" s="27" t="n"/>
+      <c r="D570" s="27" t="n"/>
+      <c r="G570" s="27" t="n"/>
     </row>
     <row r="571" spans="1:10">
-      <c r="C571" s="7" t="n"/>
-      <c r="D571" s="7" t="n"/>
-      <c r="G571" s="7" t="n"/>
+      <c r="C571" s="27" t="n"/>
+      <c r="D571" s="27" t="n"/>
+      <c r="G571" s="27" t="n"/>
     </row>
     <row r="572" spans="1:10">
-      <c r="C572" s="9" t="n"/>
-      <c r="D572" s="9" t="n"/>
-      <c r="G572" s="10" t="n"/>
+      <c r="C572" s="27" t="n"/>
+      <c r="D572" s="27" t="n"/>
+      <c r="G572" s="27" t="n"/>
     </row>
     <row r="573" spans="1:10">
-      <c r="C573" s="9" t="n"/>
-      <c r="D573" s="9" t="n"/>
-      <c r="G573" s="10" t="n"/>
+      <c r="C573" s="27" t="n"/>
+      <c r="D573" s="27" t="n"/>
+      <c r="G573" s="27" t="n"/>
     </row>
     <row r="574" spans="1:10">
-      <c r="C574" s="9" t="n"/>
-      <c r="D574" s="9" t="n"/>
-      <c r="G574" s="10" t="n"/>
+      <c r="C574" s="29" t="n"/>
+      <c r="D574" s="29" t="n"/>
+      <c r="G574" s="29" t="n"/>
     </row>
     <row r="575" spans="1:10">
-      <c r="C575" s="9" t="n"/>
-      <c r="D575" s="9" t="n"/>
-      <c r="G575" s="10" t="n"/>
+      <c r="C575" s="31" t="n"/>
+      <c r="D575" s="31" t="n"/>
+      <c r="G575" s="31" t="n"/>
     </row>
     <row r="576" spans="1:10">
-      <c r="C576" s="13" t="n"/>
-      <c r="D576" s="13" t="n"/>
-      <c r="G576" s="13" t="n"/>
+      <c r="C576" s="31" t="n"/>
+      <c r="D576" s="31" t="n"/>
+      <c r="G576" s="31" t="n"/>
     </row>
     <row r="577" spans="1:10">
-      <c r="C577" s="14" t="n"/>
-      <c r="D577" s="14" t="n"/>
-      <c r="G577" s="15" t="n"/>
+      <c r="C577" s="31" t="n"/>
+      <c r="D577" s="31" t="n"/>
+      <c r="G577" s="31" t="n"/>
     </row>
     <row r="578" spans="1:10">
-      <c r="C578" s="16" t="n"/>
-      <c r="D578" s="17" t="n"/>
-      <c r="G578" s="17" t="n"/>
+      <c r="C578" s="31" t="n"/>
+      <c r="D578" s="31" t="n"/>
+      <c r="G578" s="31" t="n"/>
     </row>
     <row r="579" spans="1:10">
-      <c r="C579" s="19" t="n"/>
-      <c r="D579" s="19" t="n"/>
-      <c r="G579" s="19" t="n"/>
+      <c r="C579" s="31" t="n"/>
+      <c r="D579" s="31" t="n"/>
+      <c r="G579" s="31" t="n"/>
     </row>
     <row r="580" spans="1:10">
-      <c r="C580" s="21" t="n"/>
-      <c r="D580" s="21" t="n"/>
-      <c r="G580" s="21" t="n"/>
+      <c r="C580" s="7" t="n"/>
+      <c r="D580" s="7" t="n"/>
+      <c r="G580" s="7" t="n"/>
     </row>
     <row r="581" spans="1:10">
-      <c r="C581" s="21" t="n"/>
-      <c r="D581" s="21" t="n"/>
-      <c r="G581" s="21" t="n"/>
+      <c r="C581" s="7" t="n"/>
+      <c r="D581" s="7" t="n"/>
+      <c r="G581" s="7" t="n"/>
     </row>
     <row r="582" spans="1:10">
-      <c r="C582" s="21" t="n"/>
-      <c r="D582" s="21" t="n"/>
-      <c r="G582" s="21" t="n"/>
+      <c r="C582" s="30" t="n"/>
+      <c r="D582" s="30" t="n"/>
+      <c r="G582" s="31" t="n"/>
     </row>
     <row r="583" spans="1:10">
-      <c r="C583" s="21" t="n"/>
-      <c r="D583" s="21" t="n"/>
-      <c r="G583" s="21" t="n"/>
+      <c r="C583" s="30" t="n"/>
+      <c r="D583" s="30" t="n"/>
+      <c r="G583" s="31" t="n"/>
     </row>
     <row r="584" spans="1:10">
-      <c r="C584" s="23" t="n"/>
-      <c r="D584" s="23" t="n"/>
-      <c r="G584" s="23" t="n"/>
+      <c r="C584" s="30" t="n"/>
+      <c r="D584" s="30" t="n"/>
+      <c r="G584" s="31" t="n"/>
     </row>
     <row r="585" spans="1:10">
-      <c r="C585" s="23" t="n"/>
-      <c r="D585" s="23" t="n"/>
-      <c r="G585" s="23" t="n"/>
+      <c r="C585" s="7" t="n"/>
+      <c r="D585" s="7" t="n"/>
+      <c r="G585" s="7" t="n"/>
     </row>
     <row r="586" spans="1:10">
-      <c r="C586" s="23" t="n"/>
-      <c r="D586" s="23" t="n"/>
-      <c r="G586" s="23" t="n"/>
+      <c r="C586" s="7" t="n"/>
+      <c r="D586" s="7" t="n"/>
+      <c r="G586" s="7" t="n"/>
     </row>
     <row r="587" spans="1:10">
-      <c r="C587" s="23" t="n"/>
-      <c r="D587" s="23" t="n"/>
-      <c r="G587" s="23" t="n"/>
+      <c r="C587" s="7" t="n"/>
+      <c r="D587" s="7" t="n"/>
+      <c r="G587" s="7" t="n"/>
     </row>
     <row r="588" spans="1:10">
-      <c r="C588" s="25" t="n"/>
-      <c r="D588" s="25" t="n"/>
-      <c r="G588" s="25" t="n"/>
+      <c r="C588" s="9" t="n"/>
+      <c r="D588" s="9" t="n"/>
+      <c r="G588" s="10" t="n"/>
     </row>
     <row r="589" spans="1:10">
-      <c r="C589" s="25" t="n"/>
-      <c r="D589" s="25" t="n"/>
-      <c r="G589" s="25" t="n"/>
+      <c r="C589" s="9" t="n"/>
+      <c r="D589" s="9" t="n"/>
+      <c r="G589" s="10" t="n"/>
     </row>
     <row r="590" spans="1:10">
-      <c r="C590" s="25" t="n"/>
-      <c r="D590" s="25" t="n"/>
-      <c r="G590" s="25" t="n"/>
+      <c r="C590" s="9" t="n"/>
+      <c r="D590" s="9" t="n"/>
+      <c r="G590" s="10" t="n"/>
     </row>
     <row r="591" spans="1:10">
-      <c r="C591" s="25" t="n"/>
-      <c r="D591" s="25" t="n"/>
-      <c r="G591" s="25" t="n"/>
+      <c r="C591" s="9" t="n"/>
+      <c r="D591" s="9" t="n"/>
+      <c r="G591" s="10" t="n"/>
     </row>
     <row r="592" spans="1:10">
-      <c r="C592" s="25" t="n"/>
-      <c r="D592" s="25" t="n"/>
-      <c r="G592" s="25" t="n"/>
+      <c r="C592" s="13" t="n"/>
+      <c r="D592" s="13" t="n"/>
+      <c r="G592" s="13" t="n"/>
     </row>
     <row r="593" spans="1:10">
-      <c r="C593" s="25" t="n"/>
-      <c r="D593" s="25" t="n"/>
-      <c r="G593" s="25" t="n"/>
+      <c r="C593" s="14" t="n"/>
+      <c r="D593" s="14" t="n"/>
+      <c r="G593" s="15" t="n"/>
     </row>
     <row r="594" spans="1:10">
-      <c r="C594" s="25" t="n"/>
-      <c r="D594" s="25" t="n"/>
-      <c r="G594" s="25" t="n"/>
+      <c r="C594" s="16" t="n"/>
+      <c r="D594" s="17" t="n"/>
+      <c r="G594" s="17" t="n"/>
     </row>
     <row r="595" spans="1:10">
-      <c r="C595" s="25" t="n"/>
-      <c r="D595" s="25" t="n"/>
-      <c r="G595" s="25" t="n"/>
+      <c r="C595" s="19" t="n"/>
+      <c r="D595" s="19" t="n"/>
+      <c r="G595" s="19" t="n"/>
     </row>
     <row r="596" spans="1:10">
-      <c r="C596" s="27" t="n"/>
-      <c r="D596" s="27" t="n"/>
-      <c r="G596" s="27" t="n"/>
+      <c r="C596" s="21" t="n"/>
+      <c r="D596" s="21" t="n"/>
+      <c r="G596" s="21" t="n"/>
     </row>
     <row r="597" spans="1:10">
-      <c r="C597" s="27" t="n"/>
-      <c r="D597" s="27" t="n"/>
-      <c r="G597" s="27" t="n"/>
+      <c r="C597" s="21" t="n"/>
+      <c r="D597" s="21" t="n"/>
+      <c r="G597" s="21" t="n"/>
     </row>
     <row r="598" spans="1:10">
-      <c r="C598" s="27" t="n"/>
-      <c r="D598" s="27" t="n"/>
-      <c r="G598" s="27" t="n"/>
+      <c r="C598" s="21" t="n"/>
+      <c r="D598" s="21" t="n"/>
+      <c r="G598" s="21" t="n"/>
     </row>
     <row r="599" spans="1:10">
-      <c r="C599" s="27" t="n"/>
-      <c r="D599" s="27" t="n"/>
-      <c r="G599" s="27" t="n"/>
+      <c r="C599" s="21" t="n"/>
+      <c r="D599" s="21" t="n"/>
+      <c r="G599" s="21" t="n"/>
     </row>
     <row r="600" spans="1:10">
-      <c r="C600" s="29" t="n"/>
-      <c r="D600" s="29" t="n"/>
-      <c r="G600" s="29" t="n"/>
+      <c r="C600" s="23" t="n"/>
+      <c r="D600" s="23" t="n"/>
+      <c r="G600" s="23" t="n"/>
     </row>
     <row r="601" spans="1:10">
-      <c r="C601" s="31" t="n"/>
-      <c r="D601" s="31" t="n"/>
-      <c r="G601" s="31" t="n"/>
+      <c r="C601" s="23" t="n"/>
+      <c r="D601" s="23" t="n"/>
+      <c r="G601" s="23" t="n"/>
     </row>
     <row r="602" spans="1:10">
-      <c r="C602" s="31" t="n"/>
-      <c r="D602" s="31" t="n"/>
-      <c r="G602" s="31" t="n"/>
+      <c r="C602" s="23" t="n"/>
+      <c r="D602" s="23" t="n"/>
+      <c r="G602" s="23" t="n"/>
     </row>
     <row r="603" spans="1:10">
-      <c r="C603" s="31" t="n"/>
-      <c r="D603" s="31" t="n"/>
-      <c r="G603" s="31" t="n"/>
+      <c r="C603" s="23" t="n"/>
+      <c r="D603" s="23" t="n"/>
+      <c r="G603" s="23" t="n"/>
     </row>
     <row r="604" spans="1:10">
-      <c r="C604" s="31" t="n"/>
-      <c r="D604" s="31" t="n"/>
-      <c r="G604" s="31" t="n"/>
+      <c r="C604" s="25" t="n"/>
+      <c r="D604" s="25" t="n"/>
+      <c r="G604" s="25" t="n"/>
     </row>
     <row r="605" spans="1:10">
-      <c r="C605" s="31" t="n"/>
-      <c r="D605" s="31" t="n"/>
-      <c r="G605" s="31" t="n"/>
+      <c r="C605" s="25" t="n"/>
+      <c r="D605" s="25" t="n"/>
+      <c r="G605" s="25" t="n"/>
     </row>
     <row r="606" spans="1:10">
-      <c r="C606" s="7" t="n"/>
-      <c r="D606" s="7" t="n"/>
-      <c r="G606" s="7" t="n"/>
+      <c r="C606" s="25" t="n"/>
+      <c r="D606" s="25" t="n"/>
+      <c r="G606" s="25" t="n"/>
     </row>
     <row r="607" spans="1:10">
-      <c r="C607" s="7" t="n"/>
-      <c r="D607" s="7" t="n"/>
-      <c r="G607" s="7" t="n"/>
+      <c r="C607" s="25" t="n"/>
+      <c r="D607" s="25" t="n"/>
+      <c r="G607" s="25" t="n"/>
     </row>
     <row r="608" spans="1:10">
-      <c r="C608" s="9" t="n"/>
-      <c r="D608" s="9" t="n"/>
-      <c r="G608" s="10" t="n"/>
+      <c r="C608" s="25" t="n"/>
+      <c r="D608" s="25" t="n"/>
+      <c r="G608" s="25" t="n"/>
     </row>
     <row r="609" spans="1:10">
-      <c r="C609" s="9" t="n"/>
-      <c r="D609" s="9" t="n"/>
-      <c r="G609" s="10" t="n"/>
+      <c r="C609" s="25" t="n"/>
+      <c r="D609" s="25" t="n"/>
+      <c r="G609" s="25" t="n"/>
     </row>
     <row r="610" spans="1:10">
-      <c r="C610" s="9" t="n"/>
-      <c r="D610" s="9" t="n"/>
-      <c r="G610" s="10" t="n"/>
+      <c r="C610" s="25" t="n"/>
+      <c r="D610" s="25" t="n"/>
+      <c r="G610" s="25" t="n"/>
     </row>
     <row r="611" spans="1:10">
-      <c r="C611" s="9" t="n"/>
-      <c r="D611" s="9" t="n"/>
-      <c r="G611" s="10" t="n"/>
+      <c r="C611" s="25" t="n"/>
+      <c r="D611" s="25" t="n"/>
+      <c r="G611" s="25" t="n"/>
     </row>
     <row r="612" spans="1:10">
-      <c r="C612" s="13" t="n"/>
-      <c r="D612" s="13" t="n"/>
-      <c r="G612" s="13" t="n"/>
+      <c r="C612" s="27" t="n"/>
+      <c r="D612" s="27" t="n"/>
+      <c r="G612" s="27" t="n"/>
     </row>
     <row r="613" spans="1:10">
-      <c r="C613" s="15" t="n"/>
-      <c r="D613" s="15" t="n"/>
-      <c r="G613" s="15" t="n"/>
+      <c r="C613" s="27" t="n"/>
+      <c r="D613" s="27" t="n"/>
+      <c r="G613" s="27" t="n"/>
     </row>
     <row r="614" spans="1:10">
-      <c r="C614" s="17" t="n"/>
-      <c r="D614" s="17" t="n"/>
-      <c r="G614" s="17" t="n"/>
+      <c r="C614" s="27" t="n"/>
+      <c r="D614" s="27" t="n"/>
+      <c r="G614" s="27" t="n"/>
     </row>
     <row r="615" spans="1:10">
-      <c r="C615" s="19" t="n"/>
-      <c r="D615" s="19" t="n"/>
-      <c r="G615" s="19" t="n"/>
+      <c r="C615" s="27" t="n"/>
+      <c r="D615" s="27" t="n"/>
+      <c r="G615" s="27" t="n"/>
     </row>
     <row r="616" spans="1:10">
-      <c r="C616" s="21" t="n"/>
-      <c r="D616" s="21" t="n"/>
-      <c r="G616" s="21" t="n"/>
+      <c r="C616" s="29" t="n"/>
+      <c r="D616" s="29" t="n"/>
+      <c r="G616" s="29" t="n"/>
     </row>
     <row r="617" spans="1:10">
-      <c r="C617" s="21" t="n"/>
-      <c r="D617" s="21" t="n"/>
-      <c r="G617" s="21" t="n"/>
+      <c r="C617" s="31" t="n"/>
+      <c r="D617" s="31" t="n"/>
+      <c r="G617" s="31" t="n"/>
     </row>
     <row r="618" spans="1:10">
-      <c r="C618" s="20" t="n"/>
-      <c r="D618" s="20" t="n"/>
-      <c r="G618" s="21" t="n"/>
+      <c r="C618" s="31" t="n"/>
+      <c r="D618" s="31" t="n"/>
+      <c r="G618" s="31" t="n"/>
     </row>
     <row r="619" spans="1:10">
-      <c r="C619" s="20" t="n"/>
-      <c r="D619" s="20" t="n"/>
-      <c r="G619" s="21" t="n"/>
+      <c r="C619" s="31" t="n"/>
+      <c r="D619" s="31" t="n"/>
+      <c r="G619" s="31" t="n"/>
     </row>
     <row r="620" spans="1:10">
-      <c r="C620" s="23" t="n"/>
-      <c r="D620" s="23" t="n"/>
-      <c r="G620" s="23" t="n"/>
+      <c r="C620" s="31" t="n"/>
+      <c r="D620" s="31" t="n"/>
+      <c r="G620" s="31" t="n"/>
     </row>
     <row r="621" spans="1:10">
-      <c r="C621" s="23" t="n"/>
-      <c r="D621" s="23" t="n"/>
-      <c r="G621" s="23" t="n"/>
+      <c r="C621" s="31" t="n"/>
+      <c r="D621" s="31" t="n"/>
+      <c r="G621" s="31" t="n"/>
     </row>
     <row r="622" spans="1:10">
-      <c r="C622" s="23" t="n"/>
-      <c r="D622" s="23" t="n"/>
-      <c r="G622" s="23" t="n"/>
+      <c r="C622" s="7" t="n"/>
+      <c r="D622" s="7" t="n"/>
+      <c r="G622" s="7" t="n"/>
     </row>
     <row r="623" spans="1:10">
-      <c r="C623" s="23" t="n"/>
-      <c r="D623" s="23" t="n"/>
-      <c r="G623" s="23" t="n"/>
+      <c r="C623" s="7" t="n"/>
+      <c r="D623" s="7" t="n"/>
+      <c r="G623" s="7" t="n"/>
     </row>
     <row r="624" spans="1:10">
-      <c r="C624" s="25" t="n"/>
-      <c r="D624" s="25" t="n"/>
-      <c r="G624" s="25" t="n"/>
+      <c r="C624" s="9" t="n"/>
+      <c r="D624" s="9" t="n"/>
+      <c r="G624" s="10" t="n"/>
     </row>
     <row r="625" spans="1:10">
-      <c r="C625" s="25" t="n"/>
-      <c r="D625" s="25" t="n"/>
-      <c r="G625" s="25" t="n"/>
+      <c r="C625" s="9" t="n"/>
+      <c r="D625" s="9" t="n"/>
+      <c r="G625" s="10" t="n"/>
     </row>
     <row r="626" spans="1:10">
-      <c r="C626" s="25" t="n"/>
-      <c r="D626" s="25" t="n"/>
-      <c r="G626" s="25" t="n"/>
+      <c r="C626" s="9" t="n"/>
+      <c r="D626" s="9" t="n"/>
+      <c r="G626" s="10" t="n"/>
     </row>
     <row r="627" spans="1:10">
-      <c r="C627" s="25" t="n"/>
-      <c r="D627" s="25" t="n"/>
-      <c r="G627" s="25" t="n"/>
+      <c r="C627" s="9" t="n"/>
+      <c r="D627" s="9" t="n"/>
+      <c r="G627" s="10" t="n"/>
     </row>
     <row r="628" spans="1:10">
-      <c r="C628" s="25" t="n"/>
-      <c r="D628" s="25" t="n"/>
-      <c r="G628" s="25" t="n"/>
+      <c r="C628" s="13" t="n"/>
+      <c r="D628" s="13" t="n"/>
+      <c r="G628" s="13" t="n"/>
     </row>
     <row r="629" spans="1:10">
-      <c r="C629" s="25" t="n"/>
-      <c r="D629" s="25" t="n"/>
-      <c r="G629" s="25" t="n"/>
+      <c r="C629" s="15" t="n"/>
+      <c r="D629" s="15" t="n"/>
+      <c r="G629" s="15" t="n"/>
     </row>
     <row r="630" spans="1:10">
-      <c r="C630" s="25" t="n"/>
-      <c r="D630" s="25" t="n"/>
-      <c r="G630" s="25" t="n"/>
+      <c r="C630" s="17" t="n"/>
+      <c r="D630" s="17" t="n"/>
+      <c r="G630" s="17" t="n"/>
     </row>
     <row r="631" spans="1:10">
-      <c r="C631" s="25" t="n"/>
-      <c r="D631" s="25" t="n"/>
-      <c r="G631" s="25" t="n"/>
+      <c r="C631" s="19" t="n"/>
+      <c r="D631" s="19" t="n"/>
+      <c r="G631" s="19" t="n"/>
     </row>
     <row r="632" spans="1:10">
-      <c r="C632" s="27" t="n"/>
-      <c r="D632" s="27" t="n"/>
-      <c r="G632" s="27" t="n"/>
+      <c r="C632" s="21" t="n"/>
+      <c r="D632" s="21" t="n"/>
+      <c r="G632" s="21" t="n"/>
     </row>
     <row r="633" spans="1:10">
-      <c r="C633" s="27" t="n"/>
-      <c r="D633" s="27" t="n"/>
-      <c r="G633" s="27" t="n"/>
+      <c r="C633" s="21" t="n"/>
+      <c r="D633" s="21" t="n"/>
+      <c r="G633" s="21" t="n"/>
     </row>
     <row r="634" spans="1:10">
-      <c r="C634" s="27" t="n"/>
-      <c r="D634" s="27" t="n"/>
-      <c r="G634" s="27" t="n"/>
+      <c r="C634" s="20" t="n"/>
+      <c r="D634" s="20" t="n"/>
+      <c r="G634" s="21" t="n"/>
     </row>
     <row r="635" spans="1:10">
-      <c r="C635" s="27" t="n"/>
-      <c r="D635" s="27" t="n"/>
-      <c r="G635" s="27" t="n"/>
+      <c r="C635" s="20" t="n"/>
+      <c r="D635" s="20" t="n"/>
+      <c r="G635" s="21" t="n"/>
     </row>
     <row r="636" spans="1:10">
-      <c r="C636" s="28" t="n"/>
-      <c r="D636" s="28" t="n"/>
-      <c r="G636" s="29" t="n"/>
+      <c r="C636" s="23" t="n"/>
+      <c r="D636" s="23" t="n"/>
+      <c r="G636" s="23" t="n"/>
     </row>
     <row r="637" spans="1:10">
-      <c r="C637" s="30" t="n"/>
-      <c r="D637" s="30" t="n"/>
-      <c r="G637" s="31" t="n"/>
+      <c r="C637" s="23" t="n"/>
+      <c r="D637" s="23" t="n"/>
+      <c r="G637" s="23" t="n"/>
     </row>
     <row r="638" spans="1:10">
-      <c r="C638" s="30" t="n"/>
-      <c r="D638" s="30" t="n"/>
-      <c r="G638" s="31" t="n"/>
+      <c r="C638" s="23" t="n"/>
+      <c r="D638" s="23" t="n"/>
+      <c r="G638" s="23" t="n"/>
     </row>
     <row r="639" spans="1:10">
-      <c r="C639" s="30" t="n"/>
-      <c r="D639" s="30" t="n"/>
-      <c r="G639" s="31" t="n"/>
+      <c r="C639" s="23" t="n"/>
+      <c r="D639" s="23" t="n"/>
+      <c r="G639" s="23" t="n"/>
     </row>
     <row r="640" spans="1:10">
-      <c r="C640" s="30" t="n"/>
-      <c r="D640" s="30" t="n"/>
-      <c r="G640" s="31" t="n"/>
+      <c r="C640" s="25" t="n"/>
+      <c r="D640" s="25" t="n"/>
+      <c r="G640" s="25" t="n"/>
     </row>
     <row r="641" spans="1:10">
-      <c r="C641" s="30" t="n"/>
-      <c r="D641" s="30" t="n"/>
-      <c r="G641" s="31" t="n"/>
+      <c r="C641" s="25" t="n"/>
+      <c r="D641" s="25" t="n"/>
+      <c r="G641" s="25" t="n"/>
     </row>
     <row r="642" spans="1:10">
-      <c r="C642" s="8" t="n"/>
-      <c r="D642" s="8" t="n"/>
-      <c r="G642" s="7" t="n"/>
+      <c r="C642" s="25" t="n"/>
+      <c r="D642" s="25" t="n"/>
+      <c r="G642" s="25" t="n"/>
     </row>
     <row r="643" spans="1:10">
-      <c r="C643" s="30" t="n"/>
-      <c r="D643" s="30" t="n"/>
-      <c r="G643" s="31" t="n"/>
+      <c r="C643" s="25" t="n"/>
+      <c r="D643" s="25" t="n"/>
+      <c r="G643" s="25" t="n"/>
     </row>
     <row r="644" spans="1:10">
-      <c r="C644" s="30" t="n"/>
-      <c r="D644" s="30" t="n"/>
-      <c r="G644" s="31" t="n"/>
+      <c r="C644" s="25" t="n"/>
+      <c r="D644" s="25" t="n"/>
+      <c r="G644" s="25" t="n"/>
     </row>
     <row r="645" spans="1:10">
-      <c r="C645" s="30" t="n"/>
-      <c r="D645" s="30" t="n"/>
-      <c r="G645" s="31" t="n"/>
+      <c r="C645" s="25" t="n"/>
+      <c r="D645" s="25" t="n"/>
+      <c r="G645" s="25" t="n"/>
     </row>
     <row r="646" spans="1:10">
-      <c r="C646" s="8" t="n"/>
-      <c r="D646" s="8" t="n"/>
-      <c r="G646" s="7" t="n"/>
+      <c r="C646" s="25" t="n"/>
+      <c r="D646" s="25" t="n"/>
+      <c r="G646" s="25" t="n"/>
     </row>
     <row r="647" spans="1:10">
-      <c r="C647" s="9" t="n"/>
-      <c r="D647" s="9" t="n"/>
-      <c r="G647" s="10" t="n"/>
+      <c r="C647" s="25" t="n"/>
+      <c r="D647" s="25" t="n"/>
+      <c r="G647" s="25" t="n"/>
     </row>
     <row r="648" spans="1:10">
-      <c r="C648" s="9" t="n"/>
-      <c r="D648" s="9" t="n"/>
-      <c r="G648" s="10" t="n"/>
+      <c r="C648" s="27" t="n"/>
+      <c r="D648" s="27" t="n"/>
+      <c r="G648" s="27" t="n"/>
     </row>
     <row r="649" spans="1:10">
-      <c r="C649" s="9" t="n"/>
-      <c r="D649" s="9" t="n"/>
-      <c r="G649" s="10" t="n"/>
+      <c r="C649" s="27" t="n"/>
+      <c r="D649" s="27" t="n"/>
+      <c r="G649" s="27" t="n"/>
     </row>
     <row r="650" spans="1:10">
-      <c r="C650" s="9" t="n"/>
-      <c r="D650" s="9" t="n"/>
-      <c r="G650" s="10" t="n"/>
+      <c r="C650" s="27" t="n"/>
+      <c r="D650" s="27" t="n"/>
+      <c r="G650" s="27" t="n"/>
     </row>
     <row r="651" spans="1:10">
-      <c r="C651" s="12" t="n"/>
-      <c r="D651" s="12" t="n"/>
-      <c r="G651" s="13" t="n"/>
+      <c r="C651" s="27" t="n"/>
+      <c r="D651" s="27" t="n"/>
+      <c r="G651" s="27" t="n"/>
     </row>
     <row r="652" spans="1:10">
-      <c r="C652" s="14" t="n"/>
-      <c r="D652" s="14" t="n"/>
-      <c r="G652" s="15" t="n"/>
+      <c r="C652" s="28" t="n"/>
+      <c r="D652" s="28" t="n"/>
+      <c r="G652" s="29" t="n"/>
     </row>
     <row r="653" spans="1:10">
-      <c r="C653" s="16" t="n"/>
-      <c r="D653" s="16" t="n"/>
-      <c r="G653" s="17" t="n"/>
+      <c r="C653" s="30" t="n"/>
+      <c r="D653" s="30" t="n"/>
+      <c r="G653" s="31" t="n"/>
     </row>
     <row r="654" spans="1:10">
-      <c r="C654" s="18" t="n"/>
-      <c r="D654" s="18" t="n"/>
-      <c r="G654" s="19" t="n"/>
+      <c r="C654" s="30" t="n"/>
+      <c r="D654" s="30" t="n"/>
+      <c r="G654" s="31" t="n"/>
     </row>
     <row r="655" spans="1:10">
-      <c r="C655" s="20" t="n"/>
-      <c r="D655" s="20" t="n"/>
-      <c r="G655" s="21" t="n"/>
+      <c r="C655" s="30" t="n"/>
+      <c r="D655" s="30" t="n"/>
+      <c r="G655" s="31" t="n"/>
     </row>
     <row r="656" spans="1:10">
-      <c r="C656" s="20" t="n"/>
-      <c r="D656" s="20" t="n"/>
-      <c r="G656" s="21" t="n"/>
+      <c r="C656" s="30" t="n"/>
+      <c r="D656" s="30" t="n"/>
+      <c r="G656" s="31" t="n"/>
     </row>
     <row r="657" spans="1:10">
-      <c r="C657" s="20" t="n"/>
-      <c r="D657" s="20" t="n"/>
-      <c r="G657" s="21" t="n"/>
+      <c r="C657" s="30" t="n"/>
+      <c r="D657" s="30" t="n"/>
+      <c r="G657" s="31" t="n"/>
     </row>
     <row r="658" spans="1:10">
-      <c r="C658" s="20" t="n"/>
-      <c r="D658" s="20" t="n"/>
-      <c r="G658" s="21" t="n"/>
+      <c r="C658" s="8" t="n"/>
+      <c r="D658" s="8" t="n"/>
+      <c r="G658" s="7" t="n"/>
     </row>
     <row r="659" spans="1:10">
-      <c r="C659" s="22" t="n"/>
-      <c r="D659" s="22" t="n"/>
-      <c r="G659" s="23" t="n"/>
+      <c r="C659" s="30" t="n"/>
+      <c r="D659" s="30" t="n"/>
+      <c r="G659" s="31" t="n"/>
     </row>
     <row r="660" spans="1:10">
-      <c r="C660" s="22" t="n"/>
-      <c r="D660" s="22" t="n"/>
-      <c r="G660" s="23" t="n"/>
+      <c r="C660" s="30" t="n"/>
+      <c r="D660" s="30" t="n"/>
+      <c r="G660" s="31" t="n"/>
     </row>
     <row r="661" spans="1:10">
-      <c r="C661" s="22" t="n"/>
-      <c r="D661" s="22" t="n"/>
-      <c r="G661" s="23" t="n"/>
+      <c r="C661" s="30" t="n"/>
+      <c r="D661" s="30" t="n"/>
+      <c r="G661" s="31" t="n"/>
     </row>
     <row r="662" spans="1:10">
-      <c r="C662" s="22" t="n"/>
-      <c r="D662" s="22" t="n"/>
-      <c r="G662" s="23" t="n"/>
+      <c r="C662" s="8" t="n"/>
+      <c r="D662" s="8" t="n"/>
+      <c r="G662" s="7" t="n"/>
     </row>
     <row r="663" spans="1:10">
-      <c r="C663" s="24" t="n"/>
-      <c r="D663" s="24" t="n"/>
-      <c r="G663" s="25" t="n"/>
+      <c r="C663" s="9" t="n"/>
+      <c r="D663" s="9" t="n"/>
+      <c r="G663" s="10" t="n"/>
     </row>
     <row r="664" spans="1:10">
-      <c r="C664" s="24" t="n"/>
-      <c r="D664" s="24" t="n"/>
-      <c r="G664" s="25" t="n"/>
+      <c r="C664" s="9" t="n"/>
+      <c r="D664" s="9" t="n"/>
+      <c r="G664" s="10" t="n"/>
     </row>
     <row r="665" spans="1:10">
-      <c r="C665" s="24" t="n"/>
-      <c r="D665" s="24" t="n"/>
-      <c r="G665" s="25" t="n"/>
+      <c r="C665" s="9" t="n"/>
+      <c r="D665" s="9" t="n"/>
+      <c r="G665" s="10" t="n"/>
     </row>
     <row r="666" spans="1:10">
-      <c r="C666" s="24" t="n"/>
-      <c r="D666" s="24" t="n"/>
-      <c r="G666" s="25" t="n"/>
+      <c r="C666" s="9" t="n"/>
+      <c r="D666" s="9" t="n"/>
+      <c r="G666" s="10" t="n"/>
     </row>
     <row r="667" spans="1:10">
-      <c r="C667" s="24" t="n"/>
-      <c r="D667" s="24" t="n"/>
-      <c r="G667" s="25" t="n"/>
+      <c r="C667" s="12" t="n"/>
+      <c r="D667" s="12" t="n"/>
+      <c r="G667" s="13" t="n"/>
     </row>
     <row r="668" spans="1:10">
-      <c r="C668" s="24" t="n"/>
-      <c r="D668" s="24" t="n"/>
-      <c r="G668" s="25" t="n"/>
+      <c r="C668" s="14" t="n"/>
+      <c r="D668" s="14" t="n"/>
+      <c r="G668" s="15" t="n"/>
     </row>
     <row r="669" spans="1:10">
-      <c r="C669" s="24" t="n"/>
-      <c r="D669" s="24" t="n"/>
-      <c r="G669" s="25" t="n"/>
+      <c r="C669" s="16" t="n"/>
+      <c r="D669" s="16" t="n"/>
+      <c r="G669" s="17" t="n"/>
     </row>
     <row r="670" spans="1:10">
-      <c r="C670" s="24" t="n"/>
-      <c r="D670" s="24" t="n"/>
-      <c r="G670" s="25" t="n"/>
+      <c r="C670" s="18" t="n"/>
+      <c r="D670" s="18" t="n"/>
+      <c r="G670" s="19" t="n"/>
     </row>
     <row r="671" spans="1:10">
-      <c r="C671" s="26" t="n"/>
-      <c r="D671" s="26" t="n"/>
-      <c r="G671" s="27" t="n"/>
+      <c r="C671" s="20" t="n"/>
+      <c r="D671" s="20" t="n"/>
+      <c r="G671" s="21" t="n"/>
     </row>
     <row r="672" spans="1:10">
-      <c r="C672" s="26" t="n"/>
-      <c r="D672" s="26" t="n"/>
-      <c r="G672" s="27" t="n"/>
+      <c r="C672" s="20" t="n"/>
+      <c r="D672" s="20" t="n"/>
+      <c r="G672" s="21" t="n"/>
     </row>
     <row r="673" spans="1:10">
-      <c r="C673" s="26" t="n"/>
-      <c r="D673" s="26" t="n"/>
-      <c r="G673" s="27" t="n"/>
+      <c r="C673" s="20" t="n"/>
+      <c r="D673" s="20" t="n"/>
+      <c r="G673" s="21" t="n"/>
     </row>
     <row r="674" spans="1:10">
-      <c r="C674" s="26" t="n"/>
-      <c r="D674" s="26" t="n"/>
-      <c r="G674" s="27" t="n"/>
+      <c r="C674" s="20" t="n"/>
+      <c r="D674" s="20" t="n"/>
+      <c r="G674" s="21" t="n"/>
     </row>
     <row r="675" spans="1:10">
-      <c r="C675" s="28" t="n"/>
-      <c r="D675" s="28" t="n"/>
-      <c r="G675" s="29" t="n"/>
+      <c r="C675" s="22" t="n"/>
+      <c r="D675" s="22" t="n"/>
+      <c r="G675" s="23" t="n"/>
     </row>
     <row r="676" spans="1:10">
-      <c r="C676" s="30" t="n"/>
-      <c r="D676" s="30" t="n"/>
-      <c r="G676" s="31" t="n"/>
+      <c r="C676" s="22" t="n"/>
+      <c r="D676" s="22" t="n"/>
+      <c r="G676" s="23" t="n"/>
     </row>
     <row r="677" spans="1:10">
-      <c r="C677" s="30" t="n"/>
-      <c r="D677" s="30" t="n"/>
-      <c r="G677" s="31" t="n"/>
+      <c r="C677" s="22" t="n"/>
+      <c r="D677" s="22" t="n"/>
+      <c r="G677" s="23" t="n"/>
     </row>
     <row r="678" spans="1:10">
-      <c r="C678" s="30" t="n"/>
-      <c r="D678" s="30" t="n"/>
-      <c r="G678" s="31" t="n"/>
+      <c r="C678" s="22" t="n"/>
+      <c r="D678" s="22" t="n"/>
+      <c r="G678" s="23" t="n"/>
     </row>
     <row r="679" spans="1:10">
-      <c r="C679" s="30" t="n"/>
-      <c r="D679" s="30" t="n"/>
-      <c r="G679" s="31" t="n"/>
+      <c r="C679" s="24" t="n"/>
+      <c r="D679" s="24" t="n"/>
+      <c r="G679" s="25" t="n"/>
     </row>
     <row r="680" spans="1:10">
-      <c r="C680" s="30" t="n"/>
-      <c r="D680" s="30" t="n"/>
-      <c r="G680" s="31" t="n"/>
+      <c r="C680" s="24" t="n"/>
+      <c r="D680" s="24" t="n"/>
+      <c r="G680" s="25" t="n"/>
     </row>
     <row r="681" spans="1:10">
-      <c r="C681" s="30" t="n"/>
-      <c r="D681" s="30" t="n"/>
-      <c r="G681" s="31" t="n"/>
+      <c r="C681" s="24" t="n"/>
+      <c r="D681" s="24" t="n"/>
+      <c r="G681" s="25" t="n"/>
     </row>
     <row r="682" spans="1:10">
-      <c r="C682" s="30" t="n"/>
-      <c r="D682" s="30" t="n"/>
-      <c r="G682" s="31" t="n"/>
+      <c r="C682" s="24" t="n"/>
+      <c r="D682" s="24" t="n"/>
+      <c r="G682" s="25" t="n"/>
     </row>
     <row r="683" spans="1:10">
-      <c r="C683" s="30" t="n"/>
-      <c r="D683" s="30" t="n"/>
-      <c r="G683" s="31" t="n"/>
+      <c r="C683" s="24" t="n"/>
+      <c r="D683" s="24" t="n"/>
+      <c r="G683" s="25" t="n"/>
     </row>
     <row r="684" spans="1:10">
-      <c r="C684" s="31" t="n"/>
-      <c r="D684" s="31" t="n"/>
-      <c r="G684" s="30" t="n"/>
+      <c r="C684" s="24" t="n"/>
+      <c r="D684" s="24" t="n"/>
+      <c r="G684" s="25" t="n"/>
     </row>
     <row r="685" spans="1:10">
-      <c r="C685" s="31" t="n"/>
-      <c r="D685" s="31" t="n"/>
-      <c r="G685" s="30" t="n"/>
+      <c r="C685" s="24" t="n"/>
+      <c r="D685" s="24" t="n"/>
+      <c r="G685" s="25" t="n"/>
     </row>
     <row r="686" spans="1:10">
-      <c r="C686" s="31" t="n"/>
-      <c r="D686" s="31" t="n"/>
-      <c r="G686" s="30" t="n"/>
+      <c r="C686" s="24" t="n"/>
+      <c r="D686" s="24" t="n"/>
+      <c r="G686" s="25" t="n"/>
     </row>
     <row r="687" spans="1:10">
-      <c r="C687" s="31" t="n"/>
-      <c r="D687" s="31" t="n"/>
-      <c r="G687" s="30" t="n"/>
+      <c r="C687" s="26" t="n"/>
+      <c r="D687" s="26" t="n"/>
+      <c r="G687" s="27" t="n"/>
     </row>
     <row r="688" spans="1:10">
-      <c r="C688" s="31" t="n"/>
-      <c r="D688" s="31" t="n"/>
-      <c r="G688" s="30" t="n"/>
+      <c r="C688" s="26" t="n"/>
+      <c r="D688" s="26" t="n"/>
+      <c r="G688" s="27" t="n"/>
     </row>
     <row r="689" spans="1:10">
-      <c r="C689" s="31" t="n"/>
-      <c r="D689" s="31" t="n"/>
-      <c r="G689" s="30" t="n"/>
+      <c r="C689" s="26" t="n"/>
+      <c r="D689" s="26" t="n"/>
+      <c r="G689" s="27" t="n"/>
     </row>
     <row r="690" spans="1:10">
-      <c r="C690" s="31" t="n"/>
-      <c r="D690" s="31" t="n"/>
-      <c r="G690" s="30" t="n"/>
+      <c r="C690" s="26" t="n"/>
+      <c r="D690" s="26" t="n"/>
+      <c r="G690" s="27" t="n"/>
     </row>
     <row r="691" spans="1:10">
-      <c r="C691" s="31" t="n"/>
-      <c r="D691" s="31" t="n"/>
-      <c r="G691" s="30" t="n"/>
+      <c r="C691" s="28" t="n"/>
+      <c r="D691" s="28" t="n"/>
+      <c r="G691" s="29" t="n"/>
     </row>
     <row r="692" spans="1:10">
-      <c r="C692" s="31" t="n"/>
-      <c r="D692" s="31" t="n"/>
-      <c r="G692" s="30" t="n"/>
+      <c r="C692" s="30" t="n"/>
+      <c r="D692" s="30" t="n"/>
+      <c r="G692" s="31" t="n"/>
     </row>
     <row r="693" spans="1:10">
-      <c r="C693" s="31" t="n"/>
-      <c r="D693" s="31" t="n"/>
-      <c r="G693" s="30" t="n"/>
+      <c r="C693" s="30" t="n"/>
+      <c r="D693" s="30" t="n"/>
+      <c r="G693" s="31" t="n"/>
     </row>
     <row r="694" spans="1:10">
-      <c r="C694" s="31" t="n"/>
-      <c r="D694" s="31" t="n"/>
-      <c r="G694" s="30" t="n"/>
+      <c r="C694" s="30" t="n"/>
+      <c r="D694" s="30" t="n"/>
+      <c r="G694" s="31" t="n"/>
     </row>
     <row r="695" spans="1:10">
-      <c r="C695" s="31" t="n"/>
-      <c r="D695" s="31" t="n"/>
-      <c r="G695" s="30" t="n"/>
+      <c r="C695" s="30" t="n"/>
+      <c r="D695" s="30" t="n"/>
+      <c r="G695" s="31" t="n"/>
     </row>
     <row r="696" spans="1:10">
-      <c r="C696" s="31" t="n"/>
-      <c r="D696" s="31" t="n"/>
+      <c r="C696" s="30" t="n"/>
+      <c r="D696" s="30" t="n"/>
       <c r="G696" s="31" t="n"/>
     </row>
     <row r="697" spans="1:10">
-      <c r="C697" s="31" t="n"/>
-      <c r="D697" s="31" t="n"/>
+      <c r="C697" s="30" t="n"/>
+      <c r="D697" s="30" t="n"/>
       <c r="G697" s="31" t="n"/>
     </row>
     <row r="698" spans="1:10">
-      <c r="C698" s="31" t="n"/>
-      <c r="D698" s="31" t="n"/>
+      <c r="C698" s="30" t="n"/>
+      <c r="D698" s="30" t="n"/>
       <c r="G698" s="31" t="n"/>
     </row>
     <row r="699" spans="1:10">
-      <c r="C699" s="31" t="n"/>
-      <c r="D699" s="31" t="n"/>
-      <c r="G699" s="30" t="n"/>
+      <c r="C699" s="30" t="n"/>
+      <c r="D699" s="30" t="n"/>
+      <c r="G699" s="31" t="n"/>
     </row>
     <row r="700" spans="1:10">
       <c r="C700" s="31" t="n"/>
@@ -5889,19 +6467,19 @@
       <c r="G701" s="30" t="n"/>
     </row>
     <row r="702" spans="1:10">
-      <c r="C702" s="30" t="n"/>
-      <c r="D702" s="30" t="n"/>
-      <c r="G702" s="31" t="n"/>
+      <c r="C702" s="31" t="n"/>
+      <c r="D702" s="31" t="n"/>
+      <c r="G702" s="30" t="n"/>
     </row>
     <row r="703" spans="1:10">
-      <c r="C703" s="30" t="n"/>
-      <c r="D703" s="30" t="n"/>
-      <c r="G703" s="31" t="n"/>
+      <c r="C703" s="31" t="n"/>
+      <c r="D703" s="31" t="n"/>
+      <c r="G703" s="30" t="n"/>
     </row>
     <row r="704" spans="1:10">
-      <c r="C704" s="30" t="n"/>
-      <c r="D704" s="30" t="n"/>
-      <c r="G704" s="31" t="n"/>
+      <c r="C704" s="31" t="n"/>
+      <c r="D704" s="31" t="n"/>
+      <c r="G704" s="30" t="n"/>
     </row>
     <row r="705" spans="1:10">
       <c r="C705" s="31" t="n"/>
@@ -5934,39 +6512,39 @@
       <c r="G710" s="30" t="n"/>
     </row>
     <row r="711" spans="1:10">
-      <c r="C711" s="30" t="n"/>
-      <c r="D711" s="30" t="n"/>
-      <c r="G711" s="31" t="n"/>
+      <c r="C711" s="31" t="n"/>
+      <c r="D711" s="31" t="n"/>
+      <c r="G711" s="30" t="n"/>
     </row>
     <row r="712" spans="1:10">
-      <c r="C712" s="30" t="n"/>
-      <c r="D712" s="30" t="n"/>
+      <c r="C712" s="31" t="n"/>
+      <c r="D712" s="31" t="n"/>
       <c r="G712" s="31" t="n"/>
     </row>
     <row r="713" spans="1:10">
-      <c r="C713" s="30" t="n"/>
-      <c r="D713" s="30" t="n"/>
+      <c r="C713" s="31" t="n"/>
+      <c r="D713" s="31" t="n"/>
       <c r="G713" s="31" t="n"/>
     </row>
     <row r="714" spans="1:10">
-      <c r="C714" s="30" t="n"/>
-      <c r="D714" s="30" t="n"/>
+      <c r="C714" s="31" t="n"/>
+      <c r="D714" s="31" t="n"/>
       <c r="G714" s="31" t="n"/>
     </row>
     <row r="715" spans="1:10">
-      <c r="C715" s="30" t="n"/>
-      <c r="D715" s="30" t="n"/>
-      <c r="G715" s="31" t="n"/>
+      <c r="C715" s="31" t="n"/>
+      <c r="D715" s="31" t="n"/>
+      <c r="G715" s="30" t="n"/>
     </row>
     <row r="716" spans="1:10">
-      <c r="C716" s="30" t="n"/>
-      <c r="D716" s="30" t="n"/>
-      <c r="G716" s="31" t="n"/>
+      <c r="C716" s="31" t="n"/>
+      <c r="D716" s="31" t="n"/>
+      <c r="G716" s="30" t="n"/>
     </row>
     <row r="717" spans="1:10">
-      <c r="C717" s="30" t="n"/>
-      <c r="D717" s="30" t="n"/>
-      <c r="G717" s="31" t="n"/>
+      <c r="C717" s="31" t="n"/>
+      <c r="D717" s="31" t="n"/>
+      <c r="G717" s="30" t="n"/>
     </row>
     <row r="718" spans="1:10">
       <c r="C718" s="30" t="n"/>
@@ -5984,34 +6562,34 @@
       <c r="G720" s="31" t="n"/>
     </row>
     <row r="721" spans="1:10">
-      <c r="C721" s="30" t="n"/>
-      <c r="D721" s="30" t="n"/>
-      <c r="G721" s="31" t="n"/>
+      <c r="C721" s="31" t="n"/>
+      <c r="D721" s="31" t="n"/>
+      <c r="G721" s="30" t="n"/>
     </row>
     <row r="722" spans="1:10">
-      <c r="C722" s="30" t="n"/>
-      <c r="D722" s="30" t="n"/>
-      <c r="G722" s="31" t="n"/>
+      <c r="C722" s="31" t="n"/>
+      <c r="D722" s="31" t="n"/>
+      <c r="G722" s="30" t="n"/>
     </row>
     <row r="723" spans="1:10">
-      <c r="C723" s="30" t="n"/>
-      <c r="D723" s="30" t="n"/>
-      <c r="G723" s="31" t="n"/>
+      <c r="C723" s="31" t="n"/>
+      <c r="D723" s="31" t="n"/>
+      <c r="G723" s="30" t="n"/>
     </row>
     <row r="724" spans="1:10">
-      <c r="C724" s="30" t="n"/>
-      <c r="D724" s="30" t="n"/>
-      <c r="G724" s="31" t="n"/>
+      <c r="C724" s="31" t="n"/>
+      <c r="D724" s="31" t="n"/>
+      <c r="G724" s="30" t="n"/>
     </row>
     <row r="725" spans="1:10">
-      <c r="C725" s="30" t="n"/>
-      <c r="D725" s="30" t="n"/>
-      <c r="G725" s="31" t="n"/>
+      <c r="C725" s="31" t="n"/>
+      <c r="D725" s="31" t="n"/>
+      <c r="G725" s="30" t="n"/>
     </row>
     <row r="726" spans="1:10">
-      <c r="C726" s="30" t="n"/>
-      <c r="D726" s="30" t="n"/>
-      <c r="G726" s="31" t="n"/>
+      <c r="C726" s="31" t="n"/>
+      <c r="D726" s="31" t="n"/>
+      <c r="G726" s="30" t="n"/>
     </row>
     <row r="727" spans="1:10">
       <c r="C727" s="30" t="n"/>
@@ -6024,49 +6602,49 @@
       <c r="G728" s="31" t="n"/>
     </row>
     <row r="729" spans="1:10">
-      <c r="C729" s="31" t="n"/>
-      <c r="D729" s="31" t="n"/>
+      <c r="C729" s="30" t="n"/>
+      <c r="D729" s="30" t="n"/>
       <c r="G729" s="31" t="n"/>
     </row>
     <row r="730" spans="1:10">
-      <c r="C730" s="31" t="n"/>
-      <c r="D730" s="31" t="n"/>
+      <c r="C730" s="30" t="n"/>
+      <c r="D730" s="30" t="n"/>
       <c r="G730" s="31" t="n"/>
     </row>
     <row r="731" spans="1:10">
-      <c r="C731" s="31" t="n"/>
-      <c r="D731" s="31" t="n"/>
+      <c r="C731" s="30" t="n"/>
+      <c r="D731" s="30" t="n"/>
       <c r="G731" s="31" t="n"/>
     </row>
     <row r="732" spans="1:10">
-      <c r="C732" s="31" t="n"/>
-      <c r="D732" s="31" t="n"/>
+      <c r="C732" s="30" t="n"/>
+      <c r="D732" s="30" t="n"/>
       <c r="G732" s="31" t="n"/>
     </row>
     <row r="733" spans="1:10">
-      <c r="C733" s="31" t="n"/>
-      <c r="D733" s="31" t="n"/>
+      <c r="C733" s="30" t="n"/>
+      <c r="D733" s="30" t="n"/>
       <c r="G733" s="31" t="n"/>
     </row>
     <row r="734" spans="1:10">
-      <c r="C734" s="31" t="n"/>
-      <c r="D734" s="31" t="n"/>
+      <c r="C734" s="30" t="n"/>
+      <c r="D734" s="30" t="n"/>
       <c r="G734" s="31" t="n"/>
     </row>
     <row r="735" spans="1:10">
-      <c r="C735" s="31" t="n"/>
-      <c r="D735" s="31" t="n"/>
-      <c r="G735" s="30" t="n"/>
+      <c r="C735" s="30" t="n"/>
+      <c r="D735" s="30" t="n"/>
+      <c r="G735" s="31" t="n"/>
     </row>
     <row r="736" spans="1:10">
-      <c r="C736" s="31" t="n"/>
-      <c r="D736" s="31" t="n"/>
-      <c r="G736" s="30" t="n"/>
+      <c r="C736" s="30" t="n"/>
+      <c r="D736" s="30" t="n"/>
+      <c r="G736" s="31" t="n"/>
     </row>
     <row r="737" spans="1:10">
-      <c r="C737" s="31" t="n"/>
-      <c r="D737" s="31" t="n"/>
-      <c r="G737" s="30" t="n"/>
+      <c r="C737" s="30" t="n"/>
+      <c r="D737" s="30" t="n"/>
+      <c r="G737" s="31" t="n"/>
     </row>
     <row r="738" spans="1:10">
       <c r="C738" s="30" t="n"/>
@@ -6099,139 +6677,139 @@
       <c r="G743" s="31" t="n"/>
     </row>
     <row r="744" spans="1:10">
-      <c r="C744" s="6" t="n"/>
-      <c r="D744" s="6" t="n"/>
-      <c r="G744" s="6" t="n"/>
+      <c r="C744" s="30" t="n"/>
+      <c r="D744" s="30" t="n"/>
+      <c r="G744" s="31" t="n"/>
     </row>
     <row r="745" spans="1:10">
-      <c r="C745" s="6" t="n"/>
-      <c r="D745" s="6" t="n"/>
-      <c r="G745" s="5" t="n"/>
+      <c r="C745" s="31" t="n"/>
+      <c r="D745" s="31" t="n"/>
+      <c r="G745" s="31" t="n"/>
     </row>
     <row r="746" spans="1:10">
-      <c r="C746" s="5" t="n"/>
-      <c r="D746" s="5" t="n"/>
-      <c r="G746" s="6" t="n"/>
+      <c r="C746" s="31" t="n"/>
+      <c r="D746" s="31" t="n"/>
+      <c r="G746" s="31" t="n"/>
     </row>
     <row r="747" spans="1:10">
-      <c r="C747" s="1" t="n"/>
-      <c r="D747" s="1" t="n"/>
-      <c r="G747" s="2" t="n"/>
+      <c r="C747" s="31" t="n"/>
+      <c r="D747" s="31" t="n"/>
+      <c r="G747" s="31" t="n"/>
     </row>
     <row r="748" spans="1:10">
-      <c r="C748" s="2" t="n"/>
-      <c r="D748" s="2" t="n"/>
-      <c r="G748" s="2" t="n"/>
+      <c r="C748" s="31" t="n"/>
+      <c r="D748" s="31" t="n"/>
+      <c r="G748" s="31" t="n"/>
     </row>
     <row r="749" spans="1:10">
-      <c r="C749" s="1" t="n"/>
-      <c r="D749" s="1" t="n"/>
-      <c r="G749" s="2" t="n"/>
+      <c r="C749" s="31" t="n"/>
+      <c r="D749" s="31" t="n"/>
+      <c r="G749" s="31" t="n"/>
     </row>
     <row r="750" spans="1:10">
-      <c r="C750" s="2" t="n"/>
-      <c r="D750" s="2" t="n"/>
-      <c r="G750" s="2" t="n"/>
+      <c r="C750" s="31" t="n"/>
+      <c r="D750" s="31" t="n"/>
+      <c r="G750" s="31" t="n"/>
     </row>
     <row r="751" spans="1:10">
-      <c r="C751" s="2" t="n"/>
-      <c r="D751" s="2" t="n"/>
-      <c r="G751" s="2" t="n"/>
+      <c r="C751" s="31" t="n"/>
+      <c r="D751" s="31" t="n"/>
+      <c r="G751" s="30" t="n"/>
     </row>
     <row r="752" spans="1:10">
-      <c r="C752" s="2" t="n"/>
-      <c r="D752" s="2" t="n"/>
-      <c r="G752" s="2" t="n"/>
+      <c r="C752" s="31" t="n"/>
+      <c r="D752" s="31" t="n"/>
+      <c r="G752" s="30" t="n"/>
     </row>
     <row r="753" spans="1:10">
-      <c r="C753" s="1" t="n"/>
-      <c r="D753" s="1" t="n"/>
-      <c r="G753" s="2" t="n"/>
+      <c r="C753" s="31" t="n"/>
+      <c r="D753" s="31" t="n"/>
+      <c r="G753" s="30" t="n"/>
     </row>
     <row r="754" spans="1:10">
-      <c r="C754" s="3" t="n"/>
-      <c r="D754" s="3" t="n"/>
-      <c r="G754" s="4" t="n"/>
+      <c r="C754" s="30" t="n"/>
+      <c r="D754" s="30" t="n"/>
+      <c r="G754" s="31" t="n"/>
     </row>
     <row r="755" spans="1:10">
-      <c r="C755" s="4" t="n"/>
-      <c r="D755" s="4" t="n"/>
-      <c r="G755" s="4" t="n"/>
+      <c r="C755" s="30" t="n"/>
+      <c r="D755" s="30" t="n"/>
+      <c r="G755" s="31" t="n"/>
     </row>
     <row r="756" spans="1:10">
-      <c r="C756" s="3" t="n"/>
-      <c r="D756" s="3" t="n"/>
-      <c r="G756" s="3" t="n"/>
+      <c r="C756" s="30" t="n"/>
+      <c r="D756" s="30" t="n"/>
+      <c r="G756" s="31" t="n"/>
     </row>
     <row r="757" spans="1:10">
-      <c r="C757" s="3" t="n"/>
-      <c r="D757" s="3" t="n"/>
-      <c r="G757" s="3" t="n"/>
+      <c r="C757" s="30" t="n"/>
+      <c r="D757" s="30" t="n"/>
+      <c r="G757" s="31" t="n"/>
     </row>
     <row r="758" spans="1:10">
-      <c r="C758" s="4" t="n"/>
-      <c r="D758" s="4" t="n"/>
-      <c r="G758" s="4" t="n"/>
+      <c r="C758" s="30" t="n"/>
+      <c r="D758" s="30" t="n"/>
+      <c r="G758" s="31" t="n"/>
     </row>
     <row r="759" spans="1:10">
-      <c r="C759" s="4" t="n"/>
-      <c r="D759" s="4" t="n"/>
-      <c r="G759" s="4" t="n"/>
+      <c r="C759" s="30" t="n"/>
+      <c r="D759" s="30" t="n"/>
+      <c r="G759" s="31" t="n"/>
     </row>
     <row r="760" spans="1:10">
-      <c r="C760" s="4" t="n"/>
-      <c r="D760" s="4" t="n"/>
-      <c r="G760" s="4" t="n"/>
+      <c r="C760" s="6" t="n"/>
+      <c r="D760" s="6" t="n"/>
+      <c r="G760" s="6" t="n"/>
     </row>
     <row r="761" spans="1:10">
-      <c r="C761" s="3" t="n"/>
-      <c r="D761" s="3" t="n"/>
-      <c r="G761" s="3" t="n"/>
+      <c r="C761" s="6" t="n"/>
+      <c r="D761" s="6" t="n"/>
+      <c r="G761" s="5" t="n"/>
     </row>
     <row r="762" spans="1:10">
-      <c r="C762" s="4" t="n"/>
-      <c r="D762" s="4" t="n"/>
-      <c r="G762" s="3" t="n"/>
+      <c r="C762" s="5" t="n"/>
+      <c r="D762" s="5" t="n"/>
+      <c r="G762" s="6" t="n"/>
     </row>
     <row r="763" spans="1:10">
-      <c r="C763" s="4" t="n"/>
-      <c r="D763" s="4" t="n"/>
-      <c r="G763" s="3" t="n"/>
+      <c r="C763" s="1" t="n"/>
+      <c r="D763" s="1" t="n"/>
+      <c r="G763" s="2" t="n"/>
     </row>
     <row r="764" spans="1:10">
-      <c r="C764" s="4" t="n"/>
-      <c r="D764" s="4" t="n"/>
-      <c r="G764" s="4" t="n"/>
+      <c r="C764" s="2" t="n"/>
+      <c r="D764" s="2" t="n"/>
+      <c r="G764" s="2" t="n"/>
     </row>
     <row r="765" spans="1:10">
-      <c r="C765" s="4" t="n"/>
-      <c r="D765" s="4" t="n"/>
-      <c r="G765" s="3" t="n"/>
+      <c r="C765" s="1" t="n"/>
+      <c r="D765" s="1" t="n"/>
+      <c r="G765" s="2" t="n"/>
     </row>
     <row r="766" spans="1:10">
-      <c r="C766" s="4" t="n"/>
-      <c r="D766" s="4" t="n"/>
-      <c r="G766" s="4" t="n"/>
+      <c r="C766" s="2" t="n"/>
+      <c r="D766" s="2" t="n"/>
+      <c r="G766" s="2" t="n"/>
     </row>
     <row r="767" spans="1:10">
-      <c r="C767" s="4" t="n"/>
-      <c r="D767" s="4" t="n"/>
-      <c r="G767" s="4" t="n"/>
+      <c r="C767" s="2" t="n"/>
+      <c r="D767" s="2" t="n"/>
+      <c r="G767" s="2" t="n"/>
     </row>
     <row r="768" spans="1:10">
-      <c r="C768" s="3" t="n"/>
-      <c r="D768" s="3" t="n"/>
-      <c r="G768" s="4" t="n"/>
+      <c r="C768" s="2" t="n"/>
+      <c r="D768" s="2" t="n"/>
+      <c r="G768" s="2" t="n"/>
     </row>
     <row r="769" spans="1:10">
-      <c r="C769" s="3" t="n"/>
-      <c r="D769" s="3" t="n"/>
-      <c r="G769" s="4" t="n"/>
+      <c r="C769" s="1" t="n"/>
+      <c r="D769" s="1" t="n"/>
+      <c r="G769" s="2" t="n"/>
     </row>
     <row r="770" spans="1:10">
       <c r="C770" s="3" t="n"/>
       <c r="D770" s="3" t="n"/>
-      <c r="G770" s="3" t="n"/>
+      <c r="G770" s="4" t="n"/>
     </row>
     <row r="771" spans="1:10">
       <c r="C771" s="4" t="n"/>
@@ -6239,9 +6817,9 @@
       <c r="G771" s="4" t="n"/>
     </row>
     <row r="772" spans="1:10">
-      <c r="C772" s="4" t="n"/>
-      <c r="D772" s="4" t="n"/>
-      <c r="G772" s="4" t="n"/>
+      <c r="C772" s="3" t="n"/>
+      <c r="D772" s="3" t="n"/>
+      <c r="G772" s="3" t="n"/>
     </row>
     <row r="773" spans="1:10">
       <c r="C773" s="3" t="n"/>
@@ -6251,7 +6829,7 @@
     <row r="774" spans="1:10">
       <c r="C774" s="4" t="n"/>
       <c r="D774" s="4" t="n"/>
-      <c r="G774" s="3" t="n"/>
+      <c r="G774" s="4" t="n"/>
     </row>
     <row r="775" spans="1:10">
       <c r="C775" s="4" t="n"/>
@@ -6266,62 +6844,142 @@
     <row r="777" spans="1:10">
       <c r="C777" s="3" t="n"/>
       <c r="D777" s="3" t="n"/>
-      <c r="G777" s="4" t="n"/>
+      <c r="G777" s="3" t="n"/>
     </row>
     <row r="778" spans="1:10">
       <c r="C778" s="4" t="n"/>
       <c r="D778" s="4" t="n"/>
-      <c r="G778" s="4" t="n"/>
+      <c r="G778" s="3" t="n"/>
     </row>
     <row r="779" spans="1:10">
-      <c r="C779" s="3" t="n"/>
-      <c r="D779" s="3" t="n"/>
-      <c r="G779" s="4" t="n"/>
+      <c r="C779" s="4" t="n"/>
+      <c r="D779" s="4" t="n"/>
+      <c r="G779" s="3" t="n"/>
     </row>
     <row r="780" spans="1:10">
       <c r="C780" s="4" t="n"/>
       <c r="D780" s="4" t="n"/>
-      <c r="G780" s="3" t="n"/>
+      <c r="G780" s="4" t="n"/>
     </row>
     <row r="781" spans="1:10">
       <c r="C781" s="4" t="n"/>
       <c r="D781" s="4" t="n"/>
-      <c r="G781" s="4" t="n"/>
+      <c r="G781" s="3" t="n"/>
     </row>
     <row r="782" spans="1:10">
       <c r="C782" s="4" t="n"/>
       <c r="D782" s="4" t="n"/>
-      <c r="G782" s="3" t="n"/>
+      <c r="G782" s="4" t="n"/>
     </row>
     <row r="783" spans="1:10">
-      <c r="C783" s="3" t="n"/>
-      <c r="D783" s="3" t="n"/>
+      <c r="C783" s="4" t="n"/>
+      <c r="D783" s="4" t="n"/>
       <c r="G783" s="4" t="n"/>
     </row>
     <row r="784" spans="1:10">
-      <c r="C784" s="7" t="n"/>
-      <c r="D784" s="7" t="n"/>
-      <c r="G784" s="7" t="n"/>
+      <c r="C784" s="3" t="n"/>
+      <c r="D784" s="3" t="n"/>
+      <c r="G784" s="4" t="n"/>
     </row>
     <row r="785" spans="1:10">
-      <c r="C785" s="7" t="n"/>
-      <c r="D785" s="7" t="n"/>
-      <c r="G785" s="7" t="n"/>
+      <c r="C785" s="3" t="n"/>
+      <c r="D785" s="3" t="n"/>
+      <c r="G785" s="4" t="n"/>
     </row>
     <row r="786" spans="1:10">
-      <c r="C786" s="7" t="n"/>
-      <c r="D786" s="7" t="n"/>
-      <c r="G786" s="7" t="n"/>
+      <c r="C786" s="3" t="n"/>
+      <c r="D786" s="3" t="n"/>
+      <c r="G786" s="3" t="n"/>
     </row>
     <row r="787" spans="1:10">
-      <c r="C787" s="7" t="n"/>
-      <c r="D787" s="7" t="n"/>
-      <c r="G787" s="7" t="n"/>
+      <c r="C787" s="4" t="n"/>
+      <c r="D787" s="4" t="n"/>
+      <c r="G787" s="4" t="n"/>
     </row>
     <row r="788" spans="1:10">
-      <c r="C788" s="7" t="n"/>
-      <c r="D788" s="7" t="n"/>
-      <c r="G788" s="7" t="n"/>
+      <c r="C788" s="4" t="n"/>
+      <c r="D788" s="4" t="n"/>
+      <c r="G788" s="4" t="n"/>
+    </row>
+    <row r="789" spans="1:10">
+      <c r="C789" s="3" t="n"/>
+      <c r="D789" s="3" t="n"/>
+      <c r="G789" s="3" t="n"/>
+    </row>
+    <row r="790" spans="1:10">
+      <c r="C790" s="4" t="n"/>
+      <c r="D790" s="4" t="n"/>
+      <c r="G790" s="3" t="n"/>
+    </row>
+    <row r="791" spans="1:10">
+      <c r="C791" s="4" t="n"/>
+      <c r="D791" s="4" t="n"/>
+      <c r="G791" s="4" t="n"/>
+    </row>
+    <row r="792" spans="1:10">
+      <c r="C792" s="4" t="n"/>
+      <c r="D792" s="4" t="n"/>
+      <c r="G792" s="4" t="n"/>
+    </row>
+    <row r="793" spans="1:10">
+      <c r="C793" s="3" t="n"/>
+      <c r="D793" s="3" t="n"/>
+      <c r="G793" s="4" t="n"/>
+    </row>
+    <row r="794" spans="1:10">
+      <c r="C794" s="4" t="n"/>
+      <c r="D794" s="4" t="n"/>
+      <c r="G794" s="4" t="n"/>
+    </row>
+    <row r="795" spans="1:10">
+      <c r="C795" s="3" t="n"/>
+      <c r="D795" s="3" t="n"/>
+      <c r="G795" s="4" t="n"/>
+    </row>
+    <row r="796" spans="1:10">
+      <c r="C796" s="4" t="n"/>
+      <c r="D796" s="4" t="n"/>
+      <c r="G796" s="3" t="n"/>
+    </row>
+    <row r="797" spans="1:10">
+      <c r="C797" s="4" t="n"/>
+      <c r="D797" s="4" t="n"/>
+      <c r="G797" s="4" t="n"/>
+    </row>
+    <row r="798" spans="1:10">
+      <c r="C798" s="4" t="n"/>
+      <c r="D798" s="4" t="n"/>
+      <c r="G798" s="3" t="n"/>
+    </row>
+    <row r="799" spans="1:10">
+      <c r="C799" s="3" t="n"/>
+      <c r="D799" s="3" t="n"/>
+      <c r="G799" s="4" t="n"/>
+    </row>
+    <row r="800" spans="1:10">
+      <c r="C800" s="7" t="n"/>
+      <c r="D800" s="7" t="n"/>
+      <c r="G800" s="7" t="n"/>
+    </row>
+    <row r="801" spans="1:10">
+      <c r="C801" s="7" t="n"/>
+      <c r="D801" s="7" t="n"/>
+      <c r="G801" s="7" t="n"/>
+    </row>
+    <row r="802" spans="1:10">
+      <c r="C802" s="7" t="n"/>
+      <c r="D802" s="7" t="n"/>
+      <c r="G802" s="7" t="n"/>
+    </row>
+    <row r="803" spans="1:10">
+      <c r="C803" s="7" t="n"/>
+      <c r="D803" s="7" t="n"/>
+      <c r="G803" s="7" t="n"/>
+    </row>
+    <row r="804" spans="1:10">
+      <c r="C804" s="7" t="n"/>
+      <c r="D804" s="7" t="n"/>
+      <c r="G804" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6345,10 +7003,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
+      <c r="C1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -6356,9 +7017,11 @@
         <v>8</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="82" t="n"/>
+        <v>65</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>66</v>
+      </c>
       <c r="D2" s="82" t="n"/>
       <c r="E2" s="76" t="n"/>
       <c r="F2" s="47" t="n"/>
@@ -6386,9 +7049,11 @@
         <v>11</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="82" t="n"/>
+        <v>67</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>68</v>
+      </c>
       <c r="D3" s="82" t="n"/>
       <c r="E3" s="76" t="n"/>
       <c r="F3" s="47" t="n"/>
@@ -6413,12 +7078,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="82" t="n"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>70</v>
+      </c>
       <c r="D4" s="82" t="n"/>
       <c r="E4" s="76" t="n"/>
       <c r="F4" s="46" t="n"/>
@@ -6446,9 +7113,11 @@
         <v>17</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="82" t="n"/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="82" t="n"/>
       <c r="E5" s="77" t="n"/>
       <c r="F5" s="47" t="n"/>
@@ -6473,12 +7142,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="82" t="n"/>
+        <v>73</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" s="82" t="n"/>
       <c r="E6" s="76" t="n"/>
       <c r="F6" s="46" t="n"/>
@@ -6503,12 +7174,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="82" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="82" t="n"/>
       <c r="E7" s="77" t="n"/>
       <c r="F7" s="47" t="n"/>
@@ -6533,12 +7206,14 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="82" t="n"/>
+        <v>77</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="82" t="n"/>
       <c r="E8" s="77" t="n"/>
       <c r="F8" s="46" t="n"/>
@@ -6563,12 +7238,14 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="82" t="n"/>
+        <v>79</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>80</v>
+      </c>
       <c r="D9" s="82" t="n"/>
       <c r="E9" s="77" t="n"/>
       <c r="F9" s="47" t="n"/>
@@ -6593,12 +7270,14 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="82" t="n"/>
+        <v>81</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>82</v>
+      </c>
       <c r="D10" s="82" t="n"/>
       <c r="E10" s="76" t="n"/>
       <c r="F10" s="47" t="n"/>
@@ -6626,9 +7305,11 @@
         <v>30</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="82" t="n"/>
+        <v>83</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>84</v>
+      </c>
       <c r="D11" s="82" t="n"/>
       <c r="E11" s="77" t="n"/>
       <c r="F11" s="46" t="n"/>
@@ -6653,12 +7334,14 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="82" t="n"/>
+        <v>85</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="82" t="n"/>
       <c r="E12" s="77" t="n"/>
       <c r="F12" s="46" t="n"/>
@@ -6683,12 +7366,14 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="82" t="n"/>
+        <v>87</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>88</v>
+      </c>
       <c r="D13" s="82" t="n"/>
       <c r="E13" s="77" t="n"/>
       <c r="F13" s="46" t="n"/>
@@ -6713,12 +7398,14 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="82" t="n"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="82" t="n"/>
       <c r="E14" s="77" t="n"/>
       <c r="F14" s="46" t="n"/>
@@ -6743,12 +7430,14 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="82" t="n"/>
+        <v>91</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>92</v>
+      </c>
       <c r="D15" s="82" t="n"/>
       <c r="E15" s="77" t="n"/>
       <c r="F15" s="47" t="n"/>
@@ -6773,12 +7462,14 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="82" t="n"/>
+        <v>93</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="82" t="n"/>
       <c r="E16" s="77" t="n"/>
       <c r="F16" s="46" t="n"/>
@@ -6803,12 +7494,14 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="82" t="n"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>96</v>
+      </c>
       <c r="D17" s="82" t="n"/>
       <c r="E17" s="77" t="n"/>
       <c r="F17" s="46" t="n"/>
@@ -6833,12 +7526,14 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="82" t="n"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>98</v>
+      </c>
       <c r="D18" s="82" t="n"/>
       <c r="E18" s="77" t="n"/>
       <c r="F18" s="47" t="n"/>
@@ -6863,12 +7558,14 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="82" t="n"/>
+        <v>99</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>100</v>
+      </c>
       <c r="D19" s="82" t="n"/>
       <c r="E19" s="76" t="n"/>
       <c r="F19" s="46" t="n"/>
@@ -6896,9 +7593,11 @@
         <v>48</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="82" t="n"/>
+        <v>101</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>102</v>
+      </c>
       <c r="D20" s="82" t="n"/>
       <c r="E20" s="76" t="n"/>
       <c r="F20" s="47" t="n"/>
@@ -6923,12 +7622,14 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="82" t="n"/>
+        <v>103</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>104</v>
+      </c>
       <c r="D21" s="82" t="n"/>
       <c r="E21" s="77" t="n"/>
       <c r="F21" s="47" t="n"/>
@@ -6952,8 +7653,13 @@
       <c r="X21" s="71" t="n"/>
     </row>
     <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
       <c r="B22" s="79" t="n"/>
-      <c r="C22" s="76" t="n"/>
+      <c r="C22" s="89" t="s">
+        <v>105</v>
+      </c>
       <c r="D22" s="77" t="n"/>
       <c r="E22" s="77" t="n"/>
       <c r="F22" s="47" t="n"/>
@@ -6977,8 +7683,13 @@
       <c r="X22" s="70" t="n"/>
     </row>
     <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="78" t="n"/>
-      <c r="C23" s="76" t="n"/>
+      <c r="C23" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="D23" s="76" t="n"/>
       <c r="E23" s="76" t="n"/>
       <c r="F23" s="47" t="n"/>
@@ -7002,8 +7713,13 @@
       <c r="X23" s="70" t="n"/>
     </row>
     <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="79" t="n"/>
-      <c r="C24" s="77" t="n"/>
+      <c r="C24" s="89" t="s">
+        <v>107</v>
+      </c>
       <c r="D24" s="77" t="n"/>
       <c r="E24" s="76" t="n"/>
       <c r="F24" s="46" t="n"/>
@@ -7027,8 +7743,13 @@
       <c r="X24" s="71" t="n"/>
     </row>
     <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="78" t="n"/>
-      <c r="C25" s="77" t="n"/>
+      <c r="C25" s="89" t="s">
+        <v>108</v>
+      </c>
       <c r="D25" s="76" t="n"/>
       <c r="E25" s="77" t="n"/>
       <c r="F25" s="47" t="n"/>
@@ -7424,10 +8145,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
+      <c r="C1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -7437,7 +8161,9 @@
       <c r="B2" s="88" t="n">
         <v>160.26</v>
       </c>
-      <c r="C2" s="83" t="n"/>
+      <c r="C2" s="88" t="n">
+        <v>159.57</v>
+      </c>
       <c r="D2" s="83" t="n"/>
       <c r="E2" s="77" t="n"/>
       <c r="F2" s="47" t="n"/>
@@ -7467,7 +8193,9 @@
       <c r="B3" s="88" t="n">
         <v>12.11</v>
       </c>
-      <c r="C3" s="83" t="n"/>
+      <c r="C3" s="88" t="n">
+        <v>12.1</v>
+      </c>
       <c r="D3" s="83" t="n"/>
       <c r="E3" s="77" t="n"/>
       <c r="F3" s="47" t="n"/>
@@ -7492,12 +8220,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="88" t="n">
         <v>77</v>
       </c>
-      <c r="C4" s="83" t="n"/>
+      <c r="C4" s="88" t="n">
+        <v>76.97</v>
+      </c>
       <c r="D4" s="83" t="n"/>
       <c r="E4" s="77" t="n"/>
       <c r="F4" s="47" t="n"/>
@@ -7527,7 +8257,9 @@
       <c r="B5" s="88" t="n">
         <v>31.44</v>
       </c>
-      <c r="C5" s="83" t="n"/>
+      <c r="C5" s="88" t="n">
+        <v>31.4</v>
+      </c>
       <c r="D5" s="83" t="n"/>
       <c r="E5" s="77" t="n"/>
       <c r="F5" s="46" t="n"/>
@@ -7552,12 +8284,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="89" t="n">
         <v>52.42</v>
       </c>
-      <c r="C6" s="83" t="n"/>
+      <c r="C6" s="89" t="n">
+        <v>52.43</v>
+      </c>
       <c r="D6" s="83" t="n"/>
       <c r="E6" s="76" t="n"/>
       <c r="F6" s="47" t="n"/>
@@ -7582,12 +8316,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" s="88" t="n">
         <v>1.82</v>
       </c>
-      <c r="C7" s="83" t="n"/>
+      <c r="C7" s="89" t="n">
+        <v>1.82</v>
+      </c>
       <c r="D7" s="83" t="n"/>
       <c r="E7" s="76" t="n"/>
       <c r="F7" s="46" t="n"/>
@@ -7612,12 +8348,14 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="89" t="n">
         <v>24.85</v>
       </c>
-      <c r="C8" s="83" t="n"/>
+      <c r="C8" s="89" t="n">
+        <v>24.93</v>
+      </c>
       <c r="D8" s="83" t="n"/>
       <c r="E8" s="77" t="n"/>
       <c r="F8" s="47" t="n"/>
@@ -7642,12 +8380,14 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B9" s="88" t="n">
         <v>115.61</v>
       </c>
-      <c r="C9" s="83" t="n"/>
+      <c r="C9" s="88" t="n">
+        <v>115.29</v>
+      </c>
       <c r="D9" s="83" t="n"/>
       <c r="E9" s="76" t="n"/>
       <c r="F9" s="46" t="n"/>
@@ -7672,12 +8412,14 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B10" s="88" t="n">
         <v>30.89</v>
       </c>
-      <c r="C10" s="83" t="n"/>
+      <c r="C10" s="88" t="n">
+        <v>30.88</v>
+      </c>
       <c r="D10" s="83" t="n"/>
       <c r="E10" s="77" t="n"/>
       <c r="F10" s="47" t="n"/>
@@ -7707,7 +8449,9 @@
       <c r="B11" s="89" t="n">
         <v>430.56</v>
       </c>
-      <c r="C11" s="83" t="n"/>
+      <c r="C11" s="89" t="n">
+        <v>430.93</v>
+      </c>
       <c r="D11" s="83" t="n"/>
       <c r="E11" s="76" t="n"/>
       <c r="F11" s="47" t="n"/>
@@ -7732,12 +8476,14 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" s="89" t="n">
         <v>256.25</v>
       </c>
-      <c r="C12" s="83" t="n"/>
+      <c r="C12" s="89" t="n">
+        <v>256.47</v>
+      </c>
       <c r="D12" s="83" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="47" t="n"/>
@@ -7762,12 +8508,14 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B13" s="88" t="n">
         <v>15.64</v>
       </c>
-      <c r="C13" s="83" t="n"/>
+      <c r="C13" s="88" t="n">
+        <v>15.64</v>
+      </c>
       <c r="D13" s="83" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="47" t="n"/>
@@ -7792,12 +8540,14 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="89" t="n">
         <v>27.17</v>
       </c>
-      <c r="C14" s="83" t="n"/>
+      <c r="C14" s="88" t="n">
+        <v>27.17</v>
+      </c>
       <c r="D14" s="83" t="n"/>
       <c r="E14" s="77" t="n"/>
       <c r="F14" s="47" t="n"/>
@@ -7822,12 +8572,14 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="88" t="n">
         <v>8.24</v>
       </c>
-      <c r="C15" s="83" t="n"/>
+      <c r="C15" s="88" t="n">
+        <v>8.220000000000001</v>
+      </c>
       <c r="D15" s="83" t="n"/>
       <c r="E15" s="76" t="n"/>
       <c r="F15" s="46" t="n"/>
@@ -7852,12 +8604,14 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="88" t="n">
         <v>19.61</v>
       </c>
-      <c r="C16" s="83" t="n"/>
+      <c r="C16" s="88" t="n">
+        <v>19.57</v>
+      </c>
       <c r="D16" s="83" t="n"/>
       <c r="E16" s="76" t="n"/>
       <c r="F16" s="46" t="n"/>
@@ -7882,12 +8636,14 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="88" t="n">
         <v>1.33</v>
       </c>
-      <c r="C17" s="83" t="n"/>
+      <c r="C17" s="88" t="n">
+        <v>1.33</v>
+      </c>
       <c r="D17" s="83" t="n"/>
       <c r="E17" s="77" t="n"/>
       <c r="F17" s="47" t="n"/>
@@ -7912,12 +8668,14 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="89" t="n">
         <v>16.09</v>
       </c>
-      <c r="C18" s="83" t="n"/>
+      <c r="C18" s="89" t="n">
+        <v>16.09</v>
+      </c>
       <c r="D18" s="83" t="n"/>
       <c r="E18" s="76" t="n"/>
       <c r="F18" s="47" t="n"/>
@@ -7942,12 +8700,14 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="89" t="n">
         <v>24.64</v>
       </c>
-      <c r="C19" s="83" t="n"/>
+      <c r="C19" s="89" t="n">
+        <v>24.66</v>
+      </c>
       <c r="D19" s="83" t="n"/>
       <c r="E19" s="77" t="n"/>
       <c r="F19" s="46" t="n"/>
@@ -7977,7 +8737,9 @@
       <c r="B20" s="89" t="n">
         <v>51.65</v>
       </c>
-      <c r="C20" s="83" t="n"/>
+      <c r="C20" s="88" t="n">
+        <v>51.68</v>
+      </c>
       <c r="D20" s="83" t="n"/>
       <c r="E20" s="77" t="n"/>
       <c r="F20" s="46" t="n"/>
@@ -8002,12 +8764,14 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B21" s="89" t="n">
         <v>44.77</v>
       </c>
-      <c r="C21" s="83" t="n"/>
+      <c r="C21" s="88" t="n">
+        <v>44.75</v>
+      </c>
       <c r="D21" s="83" t="n"/>
       <c r="E21" s="76" t="n"/>
       <c r="F21" s="46" t="n"/>
@@ -8031,8 +8795,13 @@
       <c r="X21" s="70" t="n"/>
     </row>
     <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
       <c r="B22" s="79" t="n"/>
-      <c r="C22" s="76" t="n"/>
+      <c r="C22" s="89" t="n">
+        <v>32.01</v>
+      </c>
       <c r="D22" s="76" t="n"/>
       <c r="E22" s="76" t="n"/>
       <c r="F22" s="47" t="n"/>
@@ -8056,8 +8825,13 @@
       <c r="X22" s="71" t="n"/>
     </row>
     <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="79" t="n"/>
-      <c r="C23" s="76" t="n"/>
+      <c r="C23" s="89" t="n">
+        <v>25.98</v>
+      </c>
       <c r="D23" s="76" t="n"/>
       <c r="E23" s="76" t="n"/>
       <c r="F23" s="46" t="n"/>
@@ -8081,8 +8855,13 @@
       <c r="X23" s="70" t="n"/>
     </row>
     <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="79" t="n"/>
-      <c r="C24" s="76" t="n"/>
+      <c r="C24" s="88" t="n">
+        <v>3.99</v>
+      </c>
       <c r="D24" s="76" t="n"/>
       <c r="E24" s="76" t="n"/>
       <c r="F24" s="47" t="n"/>
@@ -8106,8 +8885,13 @@
       <c r="X24" s="71" t="n"/>
     </row>
     <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="78" t="n"/>
-      <c r="C25" s="76" t="n"/>
+      <c r="C25" s="89" t="n">
+        <v>11.61</v>
+      </c>
       <c r="D25" s="76" t="n"/>
       <c r="E25" s="76" t="n"/>
       <c r="F25" s="46" t="n"/>
@@ -8482,10 +9266,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
+      <c r="C1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -8495,7 +9282,9 @@
       <c r="B2" s="88" t="n">
         <v>176.65</v>
       </c>
-      <c r="C2" s="83" t="n"/>
+      <c r="C2" s="88" t="n">
+        <v>176.27</v>
+      </c>
       <c r="D2" s="83" t="n"/>
       <c r="E2" s="76" t="n"/>
       <c r="F2" s="46" t="n"/>
@@ -8525,7 +9314,9 @@
       <c r="B3" s="88" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="83" t="n"/>
+      <c r="C3" s="88" t="n">
+        <v>12</v>
+      </c>
       <c r="D3" s="83" t="n"/>
       <c r="E3" s="76" t="n"/>
       <c r="F3" s="47" t="n"/>
@@ -8550,12 +9341,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="88" t="n">
         <v>77.11</v>
       </c>
-      <c r="C4" s="83" t="n"/>
+      <c r="C4" s="88" t="n">
+        <v>77.06</v>
+      </c>
       <c r="D4" s="83" t="n"/>
       <c r="E4" s="76" t="n"/>
       <c r="F4" s="47" t="n"/>
@@ -8585,7 +9378,9 @@
       <c r="B5" s="88" t="n">
         <v>30.56</v>
       </c>
-      <c r="C5" s="83" t="n"/>
+      <c r="C5" s="88" t="n">
+        <v>30.57</v>
+      </c>
       <c r="D5" s="83" t="n"/>
       <c r="E5" s="77" t="n"/>
       <c r="F5" s="46" t="n"/>
@@ -8610,12 +9405,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="89" t="n">
         <v>51.76</v>
       </c>
-      <c r="C6" s="83" t="n"/>
+      <c r="C6" s="89" t="n">
+        <v>51.8</v>
+      </c>
       <c r="D6" s="83" t="n"/>
       <c r="E6" s="76" t="n"/>
       <c r="F6" s="47" t="n"/>
@@ -8640,12 +9437,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" s="89" t="n">
         <v>1.75</v>
       </c>
-      <c r="C7" s="83" t="n"/>
+      <c r="C7" s="89" t="n">
+        <v>1.75</v>
+      </c>
       <c r="D7" s="83" t="n"/>
       <c r="E7" s="76" t="n"/>
       <c r="F7" s="46" t="n"/>
@@ -8670,12 +9469,14 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="89" t="n">
         <v>20.07</v>
       </c>
-      <c r="C8" s="83" t="n"/>
+      <c r="C8" s="89" t="n">
+        <v>20.15</v>
+      </c>
       <c r="D8" s="83" t="n"/>
       <c r="E8" s="77" t="n"/>
       <c r="F8" s="47" t="n"/>
@@ -8700,12 +9501,14 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B9" s="88" t="n">
         <v>111.47</v>
       </c>
-      <c r="C9" s="83" t="n"/>
+      <c r="C9" s="88" t="n">
+        <v>111.5</v>
+      </c>
       <c r="D9" s="83" t="n"/>
       <c r="E9" s="76" t="n"/>
       <c r="F9" s="46" t="n"/>
@@ -8730,12 +9533,14 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B10" s="88" t="n">
         <v>30.35</v>
       </c>
-      <c r="C10" s="83" t="n"/>
+      <c r="C10" s="88" t="n">
+        <v>30.37</v>
+      </c>
       <c r="D10" s="83" t="n"/>
       <c r="E10" s="77" t="n"/>
       <c r="F10" s="47" t="n"/>
@@ -8765,7 +9570,9 @@
       <c r="B11" s="89" t="n">
         <v>395.51</v>
       </c>
-      <c r="C11" s="83" t="n"/>
+      <c r="C11" s="89" t="n">
+        <v>396.15</v>
+      </c>
       <c r="D11" s="83" t="n"/>
       <c r="E11" s="76" t="n"/>
       <c r="F11" s="47" t="n"/>
@@ -8790,12 +9597,14 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" s="89" t="n">
         <v>239.54</v>
       </c>
-      <c r="C12" s="83" t="n"/>
+      <c r="C12" s="89" t="n">
+        <v>239.95</v>
+      </c>
       <c r="D12" s="83" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="47" t="n"/>
@@ -8820,12 +9629,14 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B13" s="89" t="n">
         <v>15.42</v>
       </c>
-      <c r="C13" s="83" t="n"/>
+      <c r="C13" s="89" t="n">
+        <v>15.42</v>
+      </c>
       <c r="D13" s="83" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="47" t="n"/>
@@ -8850,12 +9661,14 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="89" t="n">
         <v>26.77</v>
       </c>
-      <c r="C14" s="83" t="n"/>
+      <c r="C14" s="89" t="n">
+        <v>26.8</v>
+      </c>
       <c r="D14" s="83" t="n"/>
       <c r="E14" s="77" t="n"/>
       <c r="F14" s="47" t="n"/>
@@ -8880,12 +9693,14 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="88" t="n">
         <v>8.74</v>
       </c>
-      <c r="C15" s="83" t="n"/>
+      <c r="C15" s="88" t="n">
+        <v>8.74</v>
+      </c>
       <c r="D15" s="83" t="n"/>
       <c r="E15" s="76" t="n"/>
       <c r="F15" s="46" t="n"/>
@@ -8910,12 +9725,14 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="88" t="n">
         <v>21.72</v>
       </c>
-      <c r="C16" s="83" t="n"/>
+      <c r="C16" s="88" t="n">
+        <v>21.69</v>
+      </c>
       <c r="D16" s="83" t="n"/>
       <c r="E16" s="76" t="n"/>
       <c r="F16" s="46" t="n"/>
@@ -8940,12 +9757,14 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="89" t="n">
         <v>1.08</v>
       </c>
-      <c r="C17" s="83" t="n"/>
+      <c r="C17" s="89" t="n">
+        <v>1.09</v>
+      </c>
       <c r="D17" s="83" t="n"/>
       <c r="E17" s="77" t="n"/>
       <c r="F17" s="47" t="n"/>
@@ -8970,12 +9789,14 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="88" t="n">
         <v>16.47</v>
       </c>
-      <c r="C18" s="83" t="n"/>
+      <c r="C18" s="88" t="n">
+        <v>16.47</v>
+      </c>
       <c r="D18" s="83" t="n"/>
       <c r="E18" s="76" t="n"/>
       <c r="F18" s="47" t="n"/>
@@ -9000,12 +9821,14 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="88" t="n">
         <v>26.22</v>
       </c>
-      <c r="C19" s="83" t="n"/>
+      <c r="C19" s="88" t="n">
+        <v>26.01</v>
+      </c>
       <c r="D19" s="83" t="n"/>
       <c r="E19" s="76" t="n"/>
       <c r="F19" s="46" t="n"/>
@@ -9035,7 +9858,9 @@
       <c r="B20" s="88" t="n">
         <v>52.77</v>
       </c>
-      <c r="C20" s="83" t="n"/>
+      <c r="C20" s="88" t="n">
+        <v>52.75</v>
+      </c>
       <c r="D20" s="83" t="n"/>
       <c r="E20" s="77" t="n"/>
       <c r="F20" s="46" t="n"/>
@@ -9060,12 +9885,14 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B21" s="89" t="n">
         <v>42.55</v>
       </c>
-      <c r="C21" s="83" t="n"/>
+      <c r="C21" s="89" t="n">
+        <v>42.6</v>
+      </c>
       <c r="D21" s="83" t="n"/>
       <c r="E21" s="76" t="n"/>
       <c r="F21" s="46" t="n"/>
@@ -9089,8 +9916,13 @@
       <c r="X21" s="70" t="n"/>
     </row>
     <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
       <c r="B22" s="79" t="n"/>
-      <c r="C22" s="77" t="n"/>
+      <c r="C22" s="89" t="n">
+        <v>31.09</v>
+      </c>
       <c r="D22" s="77" t="n"/>
       <c r="E22" s="77" t="n"/>
       <c r="F22" s="47" t="n"/>
@@ -9114,8 +9946,13 @@
       <c r="X22" s="71" t="n"/>
     </row>
     <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" s="79" t="n"/>
-      <c r="C23" s="76" t="n"/>
+      <c r="C23" s="89" t="n">
+        <v>25.4</v>
+      </c>
       <c r="D23" s="76" t="n"/>
       <c r="E23" s="76" t="n"/>
       <c r="F23" s="46" t="n"/>
@@ -9139,8 +9976,13 @@
       <c r="X23" s="70" t="n"/>
     </row>
     <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="79" t="n"/>
-      <c r="C24" s="76" t="n"/>
+      <c r="C24" s="88" t="n">
+        <v>4.2</v>
+      </c>
       <c r="D24" s="76" t="n"/>
       <c r="E24" s="76" t="n"/>
       <c r="F24" s="47" t="n"/>
@@ -9164,8 +10006,13 @@
       <c r="X24" s="71" t="n"/>
     </row>
     <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="78" t="n"/>
-      <c r="C25" s="76" t="n"/>
+      <c r="C25" s="89" t="n">
+        <v>11.6</v>
+      </c>
       <c r="D25" s="76" t="n"/>
       <c r="E25" s="76" t="n"/>
       <c r="F25" s="46" t="n"/>
